--- a/AAII_Financials/Quarterly/CYAP_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/CYAP_QTR_FIN.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\Financials\Quarterly\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\AAII_Financials\Quarterly\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="92">
   <si>
     <t>CYAP</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:N102"/>
+  <dimension ref="A5:P102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,67 +665,74 @@
     <col min="1" max="1" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16384" width="9.140625" style="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>43951</v>
+      </c>
+      <c r="E7" s="2">
+        <v>43861</v>
+      </c>
+      <c r="F7" s="2">
         <v>43769</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>43677</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>43585</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>43496</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>43404</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>43312</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>43220</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>42947</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>42855</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>42766</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>42674</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -762,8 +769,14 @@
       <c r="N8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O8" s="3">
+        <v>0</v>
+      </c>
+      <c r="P8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -800,8 +813,14 @@
       <c r="N9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -838,8 +857,14 @@
       <c r="N10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -854,8 +879,10 @@
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O11" s="3"/>
+      <c r="P11" s="3"/>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -892,8 +919,14 @@
       <c r="N12" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O12" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -930,8 +963,14 @@
       <c r="N13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O13" s="3">
+        <v>0</v>
+      </c>
+      <c r="P13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -956,8 +995,8 @@
       <c r="J14" s="3">
         <v>0</v>
       </c>
-      <c r="K14" s="3" t="s">
-        <v>4</v>
+      <c r="K14" s="3">
+        <v>0</v>
       </c>
       <c r="L14" s="3">
         <v>0</v>
@@ -965,11 +1004,17 @@
       <c r="M14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N14" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N14" s="3">
+        <v>0</v>
+      </c>
+      <c r="O14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P14" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1006,8 +1051,14 @@
       <c r="N15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O15" s="3">
+        <v>0</v>
+      </c>
+      <c r="P15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1019,13 +1070,15 @@
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
-    </row>
-    <row r="17" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O16" s="3"/>
+      <c r="P16" s="3"/>
+    </row>
+    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E17" s="3">
         <v>0</v>
@@ -1057,8 +1110,14 @@
       <c r="N17" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O17" s="3">
+        <v>0</v>
+      </c>
+      <c r="P17" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1095,8 +1154,14 @@
       <c r="N18" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O18" s="3">
+        <v>0</v>
+      </c>
+      <c r="P18" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1111,8 +1176,10 @@
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
-    </row>
-    <row r="20" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O19" s="3"/>
+      <c r="P19" s="3"/>
+    </row>
+    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1149,19 +1216,25 @@
       <c r="N20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O20" s="3">
+        <v>0</v>
+      </c>
+      <c r="P20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E21" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F21" s="3" t="s">
-        <v>4</v>
+      <c r="E21" s="3">
+        <v>0</v>
+      </c>
+      <c r="F21" s="3">
+        <v>0</v>
       </c>
       <c r="G21" s="3" t="s">
         <v>4</v>
@@ -1187,8 +1260,14 @@
       <c r="N21" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="22" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P21" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1225,13 +1304,19 @@
       <c r="N22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O22" s="3">
+        <v>0</v>
+      </c>
+      <c r="P22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="E23" s="3">
         <v>0</v>
@@ -1263,8 +1348,14 @@
       <c r="N23" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O23" s="3">
+        <v>0</v>
+      </c>
+      <c r="P23" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1301,8 +1392,14 @@
       <c r="N24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O24" s="3">
+        <v>0</v>
+      </c>
+      <c r="P24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1339,13 +1436,19 @@
       <c r="N25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O25" s="3">
+        <v>0</v>
+      </c>
+      <c r="P25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="E26" s="3">
         <v>0</v>
@@ -1377,13 +1480,19 @@
       <c r="N26" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O26" s="3">
+        <v>0</v>
+      </c>
+      <c r="P26" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="E27" s="3">
         <v>0</v>
@@ -1415,8 +1524,14 @@
       <c r="N27" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O27" s="3">
+        <v>0</v>
+      </c>
+      <c r="P27" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1453,8 +1568,14 @@
       <c r="N28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O28" s="3">
+        <v>0</v>
+      </c>
+      <c r="P28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1491,8 +1612,14 @@
       <c r="N29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O29" s="3">
+        <v>0</v>
+      </c>
+      <c r="P29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1529,8 +1656,14 @@
       <c r="N30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O30" s="3">
+        <v>0</v>
+      </c>
+      <c r="P30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1567,8 +1700,14 @@
       <c r="N31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O31" s="3">
+        <v>0</v>
+      </c>
+      <c r="P31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1605,13 +1744,19 @@
       <c r="N32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O32" s="3">
+        <v>0</v>
+      </c>
+      <c r="P32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="E33" s="3">
         <v>0</v>
@@ -1643,8 +1788,14 @@
       <c r="N33" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O33" s="3">
+        <v>0</v>
+      </c>
+      <c r="P33" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1681,13 +1832,19 @@
       <c r="N34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O34" s="3">
+        <v>0</v>
+      </c>
+      <c r="P34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="E35" s="3">
         <v>0</v>
@@ -1719,51 +1876,63 @@
       <c r="N35" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="37" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O35" s="3">
+        <v>0</v>
+      </c>
+      <c r="P35" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>43951</v>
+      </c>
+      <c r="E38" s="2">
+        <v>43861</v>
+      </c>
+      <c r="F38" s="2">
         <v>43769</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>43677</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>43585</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>43496</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>43404</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>43312</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>43220</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>42947</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>42855</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>42766</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>42674</v>
       </c>
     </row>
-    <row r="39" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1778,8 +1947,10 @@
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
-    </row>
-    <row r="40" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O39" s="3"/>
+      <c r="P39" s="3"/>
+    </row>
+    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1794,8 +1965,10 @@
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
-    </row>
-    <row r="41" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O40" s="3"/>
+      <c r="P40" s="3"/>
+    </row>
+    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
@@ -1832,8 +2005,14 @@
       <c r="N41" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O41" s="3">
+        <v>0</v>
+      </c>
+      <c r="P41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1870,8 +2049,14 @@
       <c r="N42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O42" s="3">
+        <v>0</v>
+      </c>
+      <c r="P42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -1908,8 +2093,14 @@
       <c r="N43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O43" s="3">
+        <v>0</v>
+      </c>
+      <c r="P43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -1946,8 +2137,14 @@
       <c r="N44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O44" s="3">
+        <v>0</v>
+      </c>
+      <c r="P44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -1966,17 +2163,17 @@
       <c r="H45" s="3">
         <v>0</v>
       </c>
-      <c r="I45" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J45" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K45" s="3">
-        <v>0</v>
-      </c>
-      <c r="L45" s="3">
-        <v>0</v>
+      <c r="I45" s="3">
+        <v>0</v>
+      </c>
+      <c r="J45" s="3">
+        <v>0</v>
+      </c>
+      <c r="K45" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L45" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="M45" s="3">
         <v>0</v>
@@ -1984,8 +2181,14 @@
       <c r="N45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O45" s="3">
+        <v>0</v>
+      </c>
+      <c r="P45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -2004,17 +2207,17 @@
       <c r="H46" s="3">
         <v>0</v>
       </c>
-      <c r="I46" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J46" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K46" s="3">
-        <v>0</v>
-      </c>
-      <c r="L46" s="3">
-        <v>0</v>
+      <c r="I46" s="3">
+        <v>0</v>
+      </c>
+      <c r="J46" s="3">
+        <v>0</v>
+      </c>
+      <c r="K46" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L46" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="M46" s="3">
         <v>0</v>
@@ -2022,8 +2225,14 @@
       <c r="N46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O46" s="3">
+        <v>0</v>
+      </c>
+      <c r="P46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2060,37 +2269,43 @@
       <c r="N47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O47" s="3">
+        <v>0</v>
+      </c>
+      <c r="P47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="D48" s="3">
-        <v>1400</v>
+      <c r="D48" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E48" s="3">
         <v>1400</v>
       </c>
-      <c r="F48" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G48" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H48" s="3">
-        <v>0</v>
+      <c r="F48" s="3">
+        <v>1400</v>
+      </c>
+      <c r="G48" s="3">
+        <v>1400</v>
+      </c>
+      <c r="H48" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="I48" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="J48" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K48" s="3">
-        <v>0</v>
-      </c>
-      <c r="L48" s="3">
-        <v>0</v>
+      <c r="J48" s="3">
+        <v>0</v>
+      </c>
+      <c r="K48" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L48" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="M48" s="3">
         <v>0</v>
@@ -2098,37 +2313,43 @@
       <c r="N48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O48" s="3">
+        <v>0</v>
+      </c>
+      <c r="P48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="D49" s="3" t="s">
-        <v>4</v>
+      <c r="D49" s="3">
+        <v>1400</v>
       </c>
       <c r="E49" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F49" s="3">
+      <c r="F49" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G49" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H49" s="3">
         <v>1400</v>
       </c>
-      <c r="G49" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H49" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="I49" s="3" t="s">
         <v>4</v>
       </c>
       <c r="J49" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K49" s="3">
-        <v>0</v>
-      </c>
-      <c r="L49" s="3">
-        <v>0</v>
+      <c r="K49" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L49" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="M49" s="3">
         <v>0</v>
@@ -2136,8 +2357,14 @@
       <c r="N49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O49" s="3">
+        <v>0</v>
+      </c>
+      <c r="P49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2174,8 +2401,14 @@
       <c r="N50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O50" s="3">
+        <v>0</v>
+      </c>
+      <c r="P50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2212,8 +2445,14 @@
       <c r="N51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O51" s="3">
+        <v>0</v>
+      </c>
+      <c r="P51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2250,8 +2489,14 @@
       <c r="N52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O52" s="3">
+        <v>0</v>
+      </c>
+      <c r="P52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2288,8 +2533,14 @@
       <c r="N53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O53" s="3">
+        <v>0</v>
+      </c>
+      <c r="P53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
@@ -2303,22 +2554,22 @@
         <v>1400</v>
       </c>
       <c r="G54" s="3">
-        <v>0</v>
+        <v>1400</v>
       </c>
       <c r="H54" s="3">
-        <v>0</v>
-      </c>
-      <c r="I54" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J54" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K54" s="3">
-        <v>0</v>
-      </c>
-      <c r="L54" s="3">
-        <v>0</v>
+        <v>1400</v>
+      </c>
+      <c r="I54" s="3">
+        <v>0</v>
+      </c>
+      <c r="J54" s="3">
+        <v>0</v>
+      </c>
+      <c r="K54" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L54" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="M54" s="3">
         <v>0</v>
@@ -2326,8 +2577,14 @@
       <c r="N54" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="55" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O54" s="3">
+        <v>0</v>
+      </c>
+      <c r="P54" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2342,8 +2599,10 @@
       <c r="L55" s="3"/>
       <c r="M55" s="3"/>
       <c r="N55" s="3"/>
-    </row>
-    <row r="56" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O55" s="3"/>
+      <c r="P55" s="3"/>
+    </row>
+    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2358,8 +2617,10 @@
       <c r="L56" s="3"/>
       <c r="M56" s="3"/>
       <c r="N56" s="3"/>
-    </row>
-    <row r="57" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O56" s="3"/>
+      <c r="P56" s="3"/>
+    </row>
+    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -2378,17 +2639,17 @@
       <c r="H57" s="3">
         <v>100</v>
       </c>
-      <c r="I57" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J57" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K57" s="3">
+      <c r="I57" s="3">
         <v>100</v>
       </c>
-      <c r="L57" s="3">
+      <c r="J57" s="3">
         <v>100</v>
+      </c>
+      <c r="K57" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L57" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="M57" s="3">
         <v>100</v>
@@ -2396,16 +2657,22 @@
       <c r="N57" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="58" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O57" s="3">
+        <v>100</v>
+      </c>
+      <c r="P57" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="E58" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="F58" s="3">
         <v>100</v>
@@ -2416,17 +2683,17 @@
       <c r="H58" s="3">
         <v>100</v>
       </c>
-      <c r="I58" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J58" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K58" s="3">
+      <c r="I58" s="3">
         <v>100</v>
       </c>
-      <c r="L58" s="3">
+      <c r="J58" s="3">
         <v>100</v>
+      </c>
+      <c r="K58" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L58" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="M58" s="3">
         <v>100</v>
@@ -2434,8 +2701,14 @@
       <c r="N58" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="59" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O58" s="3">
+        <v>100</v>
+      </c>
+      <c r="P58" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -2472,16 +2745,22 @@
       <c r="N59" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O59" s="3">
+        <v>0</v>
+      </c>
+      <c r="P59" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="E60" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="F60" s="3">
         <v>200</v>
@@ -2492,17 +2771,17 @@
       <c r="H60" s="3">
         <v>200</v>
       </c>
-      <c r="I60" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J60" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K60" s="3">
+      <c r="I60" s="3">
         <v>200</v>
       </c>
-      <c r="L60" s="3">
+      <c r="J60" s="3">
         <v>200</v>
+      </c>
+      <c r="K60" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L60" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="M60" s="3">
         <v>200</v>
@@ -2510,8 +2789,14 @@
       <c r="N60" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="61" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O60" s="3">
+        <v>200</v>
+      </c>
+      <c r="P60" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2548,25 +2833,31 @@
       <c r="N61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O61" s="3">
+        <v>0</v>
+      </c>
+      <c r="P61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="D62" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E62" s="3">
-        <v>0</v>
-      </c>
-      <c r="F62" s="3">
-        <v>0</v>
-      </c>
-      <c r="G62" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H62" s="3" t="s">
-        <v>4</v>
+      <c r="D62" s="3">
+        <v>0</v>
+      </c>
+      <c r="E62" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F62" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G62" s="3">
+        <v>0</v>
+      </c>
+      <c r="H62" s="3">
+        <v>0</v>
       </c>
       <c r="I62" s="3" t="s">
         <v>4</v>
@@ -2574,11 +2865,11 @@
       <c r="J62" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K62" s="3">
-        <v>0</v>
-      </c>
-      <c r="L62" s="3">
-        <v>0</v>
+      <c r="K62" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L62" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="M62" s="3">
         <v>0</v>
@@ -2586,8 +2877,14 @@
       <c r="N62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O62" s="3">
+        <v>0</v>
+      </c>
+      <c r="P62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2624,8 +2921,14 @@
       <c r="N63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O63" s="3">
+        <v>0</v>
+      </c>
+      <c r="P63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2662,8 +2965,14 @@
       <c r="N64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O64" s="3">
+        <v>0</v>
+      </c>
+      <c r="P64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2700,16 +3009,22 @@
       <c r="N65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O65" s="3">
+        <v>0</v>
+      </c>
+      <c r="P65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="E66" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="F66" s="3">
         <v>200</v>
@@ -2720,17 +3035,17 @@
       <c r="H66" s="3">
         <v>200</v>
       </c>
-      <c r="I66" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J66" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K66" s="3">
+      <c r="I66" s="3">
         <v>200</v>
       </c>
-      <c r="L66" s="3">
+      <c r="J66" s="3">
         <v>200</v>
+      </c>
+      <c r="K66" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L66" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="M66" s="3">
         <v>200</v>
@@ -2738,8 +3053,14 @@
       <c r="N66" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="67" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O66" s="3">
+        <v>200</v>
+      </c>
+      <c r="P66" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2754,8 +3075,10 @@
       <c r="L67" s="3"/>
       <c r="M67" s="3"/>
       <c r="N67" s="3"/>
-    </row>
-    <row r="68" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O67" s="3"/>
+      <c r="P67" s="3"/>
+    </row>
+    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2792,8 +3115,14 @@
       <c r="N68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O68" s="3">
+        <v>0</v>
+      </c>
+      <c r="P68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2830,8 +3159,14 @@
       <c r="N69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O69" s="3">
+        <v>0</v>
+      </c>
+      <c r="P69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2868,8 +3203,14 @@
       <c r="N70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O70" s="3">
+        <v>0</v>
+      </c>
+      <c r="P70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2906,16 +3247,22 @@
       <c r="N71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O71" s="3">
+        <v>0</v>
+      </c>
+      <c r="P71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-8600</v>
+        <v>-8700</v>
       </c>
       <c r="E72" s="3">
-        <v>-8600</v>
+        <v>-8700</v>
       </c>
       <c r="F72" s="3">
         <v>-8600</v>
@@ -2926,17 +3273,17 @@
       <c r="H72" s="3">
         <v>-8600</v>
       </c>
-      <c r="I72" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J72" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K72" s="3">
+      <c r="I72" s="3">
         <v>-8600</v>
       </c>
-      <c r="L72" s="3">
+      <c r="J72" s="3">
         <v>-8600</v>
+      </c>
+      <c r="K72" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L72" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="M72" s="3">
         <v>-8600</v>
@@ -2944,8 +3291,14 @@
       <c r="N72" s="3">
         <v>-8600</v>
       </c>
-    </row>
-    <row r="73" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O72" s="3">
+        <v>-8600</v>
+      </c>
+      <c r="P72" s="3">
+        <v>-8600</v>
+      </c>
+    </row>
+    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2982,8 +3335,14 @@
       <c r="N73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O73" s="3">
+        <v>0</v>
+      </c>
+      <c r="P73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3020,8 +3379,14 @@
       <c r="N74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O74" s="3">
+        <v>0</v>
+      </c>
+      <c r="P74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3058,37 +3423,43 @@
       <c r="N75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O75" s="3">
+        <v>0</v>
+      </c>
+      <c r="P75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>1000</v>
+      </c>
+      <c r="E76" s="3">
         <v>1100</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
+        <v>1100</v>
+      </c>
+      <c r="G76" s="3">
         <v>1200</v>
       </c>
-      <c r="F76" s="3">
+      <c r="H76" s="3">
         <v>1200</v>
       </c>
-      <c r="G76" s="3">
+      <c r="I76" s="3">
         <v>-200</v>
       </c>
-      <c r="H76" s="3">
+      <c r="J76" s="3">
         <v>-200</v>
       </c>
-      <c r="I76" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J76" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K76" s="3">
-        <v>-200</v>
-      </c>
-      <c r="L76" s="3">
-        <v>-200</v>
+      <c r="K76" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L76" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="M76" s="3">
         <v>-200</v>
@@ -3096,8 +3467,14 @@
       <c r="N76" s="3">
         <v>-200</v>
       </c>
-    </row>
-    <row r="77" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O76" s="3">
+        <v>-200</v>
+      </c>
+      <c r="P76" s="3">
+        <v>-200</v>
+      </c>
+    </row>
+    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3134,56 +3511,68 @@
       <c r="N77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O77" s="3">
+        <v>0</v>
+      </c>
+      <c r="P77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>43951</v>
+      </c>
+      <c r="E80" s="2">
+        <v>43861</v>
+      </c>
+      <c r="F80" s="2">
         <v>43769</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>43677</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>43585</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>43496</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>43404</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>43312</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>43220</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>42947</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>42855</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>42766</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>42674</v>
       </c>
     </row>
-    <row r="81" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="E81" s="3">
         <v>0</v>
@@ -3215,8 +3604,14 @@
       <c r="N81" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="82" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O81" s="3">
+        <v>0</v>
+      </c>
+      <c r="P81" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3231,8 +3626,10 @@
       <c r="L82" s="3"/>
       <c r="M82" s="3"/>
       <c r="N82" s="3"/>
-    </row>
-    <row r="83" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O82" s="3"/>
+      <c r="P82" s="3"/>
+    </row>
+    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -3269,8 +3666,14 @@
       <c r="N83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O83" s="3">
+        <v>0</v>
+      </c>
+      <c r="P83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3307,8 +3710,14 @@
       <c r="N84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O84" s="3">
+        <v>0</v>
+      </c>
+      <c r="P84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3345,8 +3754,14 @@
       <c r="N85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O85" s="3">
+        <v>0</v>
+      </c>
+      <c r="P85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3383,8 +3798,14 @@
       <c r="N86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O86" s="3">
+        <v>0</v>
+      </c>
+      <c r="P86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3421,8 +3842,14 @@
       <c r="N87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O87" s="3">
+        <v>0</v>
+      </c>
+      <c r="P87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3459,8 +3886,14 @@
       <c r="N88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O88" s="3">
+        <v>0</v>
+      </c>
+      <c r="P88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -3468,7 +3901,7 @@
         <v>0</v>
       </c>
       <c r="E89" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="F89" s="3">
         <v>0</v>
@@ -3497,8 +3930,14 @@
       <c r="N89" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O89" s="3">
+        <v>0</v>
+      </c>
+      <c r="P89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3513,8 +3952,10 @@
       <c r="L90" s="3"/>
       <c r="M90" s="3"/>
       <c r="N90" s="3"/>
-    </row>
-    <row r="91" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O90" s="3"/>
+      <c r="P90" s="3"/>
+    </row>
+    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -3551,8 +3992,14 @@
       <c r="N91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O91" s="3">
+        <v>0</v>
+      </c>
+      <c r="P91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3589,8 +4036,14 @@
       <c r="N92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O92" s="3">
+        <v>0</v>
+      </c>
+      <c r="P92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3627,8 +4080,14 @@
       <c r="N93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O93" s="3">
+        <v>0</v>
+      </c>
+      <c r="P93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -3636,17 +4095,17 @@
         <v>0</v>
       </c>
       <c r="E94" s="3">
+        <v>0</v>
+      </c>
+      <c r="F94" s="3">
+        <v>0</v>
+      </c>
+      <c r="G94" s="3">
         <v>1300</v>
       </c>
-      <c r="F94" s="3">
+      <c r="H94" s="3">
         <v>-1400</v>
       </c>
-      <c r="G94" s="3">
-        <v>0</v>
-      </c>
-      <c r="H94" s="3">
-        <v>0</v>
-      </c>
       <c r="I94" s="3">
         <v>0</v>
       </c>
@@ -3665,8 +4124,14 @@
       <c r="N94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O94" s="3">
+        <v>0</v>
+      </c>
+      <c r="P94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3681,8 +4146,10 @@
       <c r="L95" s="3"/>
       <c r="M95" s="3"/>
       <c r="N95" s="3"/>
-    </row>
-    <row r="96" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O95" s="3"/>
+      <c r="P95" s="3"/>
+    </row>
+    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3719,8 +4186,14 @@
       <c r="N96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O96" s="3">
+        <v>0</v>
+      </c>
+      <c r="P96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3757,8 +4230,14 @@
       <c r="N97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O97" s="3">
+        <v>0</v>
+      </c>
+      <c r="P97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3795,8 +4274,14 @@
       <c r="N98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O98" s="3">
+        <v>0</v>
+      </c>
+      <c r="P98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3833,8 +4318,14 @@
       <c r="N99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O99" s="3">
+        <v>0</v>
+      </c>
+      <c r="P99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -3842,17 +4333,17 @@
         <v>0</v>
       </c>
       <c r="E100" s="3">
+        <v>100</v>
+      </c>
+      <c r="F100" s="3">
+        <v>0</v>
+      </c>
+      <c r="G100" s="3">
         <v>-1400</v>
       </c>
-      <c r="F100" s="3">
+      <c r="H100" s="3">
         <v>1400</v>
       </c>
-      <c r="G100" s="3">
-        <v>0</v>
-      </c>
-      <c r="H100" s="3">
-        <v>0</v>
-      </c>
       <c r="I100" s="3">
         <v>0</v>
       </c>
@@ -3871,8 +4362,14 @@
       <c r="N100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O100" s="3">
+        <v>0</v>
+      </c>
+      <c r="P100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -3909,8 +4406,14 @@
       <c r="N101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O101" s="3">
+        <v>0</v>
+      </c>
+      <c r="P101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -3945,6 +4448,12 @@
         <v>0</v>
       </c>
       <c r="N102" s="3">
+        <v>0</v>
+      </c>
+      <c r="O102" s="3">
+        <v>0</v>
+      </c>
+      <c r="P102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/CYAP_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/CYAP_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="92">
   <si>
     <t>CYAP</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:P102"/>
+  <dimension ref="A5:Q102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,74 +665,78 @@
     <col min="1" max="1" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44043</v>
+      </c>
+      <c r="E7" s="2">
         <v>43951</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43861</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43769</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43677</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43585</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43496</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43404</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43312</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43220</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>42947</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>42855</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>42766</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>42674</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -775,8 +779,11 @@
       <c r="P8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -819,8 +826,11 @@
       <c r="P9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -863,8 +873,11 @@
       <c r="P10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -881,8 +894,9 @@
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q11" s="3"/>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -925,8 +939,11 @@
       <c r="P12" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -969,8 +986,11 @@
       <c r="P13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1001,20 +1021,23 @@
       <c r="L14" s="3">
         <v>0</v>
       </c>
-      <c r="M14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="N14" s="3">
-        <v>0</v>
-      </c>
-      <c r="O14" s="3" t="s">
-        <v>4</v>
+      <c r="M14" s="3">
+        <v>0</v>
+      </c>
+      <c r="N14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O14" s="3">
+        <v>0</v>
       </c>
       <c r="P14" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q14" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1057,8 +1080,11 @@
       <c r="P15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1072,8 +1098,9 @@
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
-    </row>
-    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q16" s="3"/>
+    </row>
+    <row r="17" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
@@ -1081,7 +1108,7 @@
         <v>100</v>
       </c>
       <c r="E17" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F17" s="3">
         <v>0</v>
@@ -1116,8 +1143,11 @@
       <c r="P17" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q17" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1125,7 +1155,7 @@
         <v>4</v>
       </c>
       <c r="E18" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="F18" s="3">
         <v>0</v>
@@ -1160,8 +1190,11 @@
       <c r="P18" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q18" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1178,8 +1211,9 @@
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
-    </row>
-    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q19" s="3"/>
+    </row>
+    <row r="20" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1222,8 +1256,11 @@
       <c r="P20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1231,13 +1268,13 @@
         <v>4</v>
       </c>
       <c r="E21" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="F21" s="3">
         <v>0</v>
       </c>
-      <c r="G21" s="3" t="s">
-        <v>4</v>
+      <c r="G21" s="3">
+        <v>0</v>
       </c>
       <c r="H21" s="3" t="s">
         <v>4</v>
@@ -1266,8 +1303,11 @@
       <c r="P21" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q21" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1310,8 +1350,11 @@
       <c r="P22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
@@ -1319,7 +1362,7 @@
         <v>-100</v>
       </c>
       <c r="E23" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="F23" s="3">
         <v>0</v>
@@ -1354,8 +1397,11 @@
       <c r="P23" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q23" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1398,8 +1444,11 @@
       <c r="P24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1442,8 +1491,11 @@
       <c r="P25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
@@ -1451,7 +1503,7 @@
         <v>-100</v>
       </c>
       <c r="E26" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="F26" s="3">
         <v>0</v>
@@ -1486,8 +1538,11 @@
       <c r="P26" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q26" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
@@ -1495,7 +1550,7 @@
         <v>-100</v>
       </c>
       <c r="E27" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="F27" s="3">
         <v>0</v>
@@ -1530,8 +1585,11 @@
       <c r="P27" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q27" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1574,8 +1632,11 @@
       <c r="P28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1618,8 +1679,11 @@
       <c r="P29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1662,8 +1726,11 @@
       <c r="P30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1706,8 +1773,11 @@
       <c r="P31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1750,8 +1820,11 @@
       <c r="P32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
@@ -1759,7 +1832,7 @@
         <v>-100</v>
       </c>
       <c r="E33" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="F33" s="3">
         <v>0</v>
@@ -1794,8 +1867,11 @@
       <c r="P33" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q33" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1838,8 +1914,11 @@
       <c r="P34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
@@ -1847,7 +1926,7 @@
         <v>-100</v>
       </c>
       <c r="E35" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="F35" s="3">
         <v>0</v>
@@ -1882,57 +1961,63 @@
       <c r="P35" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q35" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44043</v>
+      </c>
+      <c r="E38" s="2">
         <v>43951</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43861</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43769</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43677</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43585</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43496</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43404</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43312</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43220</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>42947</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>42855</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>42766</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>42674</v>
       </c>
     </row>
-    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1949,8 +2034,9 @@
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
-    </row>
-    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q39" s="3"/>
+    </row>
+    <row r="40" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1967,31 +2053,32 @@
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
-    </row>
-    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q40" s="3"/>
+    </row>
+    <row r="41" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
         <v>0</v>
       </c>
-      <c r="E41" s="3">
-        <v>0</v>
-      </c>
-      <c r="F41" s="3">
-        <v>0</v>
-      </c>
-      <c r="G41" s="3">
-        <v>0</v>
-      </c>
-      <c r="H41" s="3">
-        <v>0</v>
-      </c>
-      <c r="I41" s="3">
-        <v>0</v>
-      </c>
-      <c r="J41" s="3">
-        <v>0</v>
+      <c r="E41" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F41" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G41" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H41" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I41" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J41" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K41" s="3">
         <v>0</v>
@@ -2011,8 +2098,11 @@
       <c r="P41" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2055,8 +2145,11 @@
       <c r="P42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2099,8 +2192,11 @@
       <c r="P43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2143,8 +2239,11 @@
       <c r="P44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2169,14 +2268,14 @@
       <c r="J45" s="3">
         <v>0</v>
       </c>
-      <c r="K45" s="3" t="s">
-        <v>4</v>
+      <c r="K45" s="3">
+        <v>0</v>
       </c>
       <c r="L45" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M45" s="3">
-        <v>0</v>
+      <c r="M45" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="N45" s="3">
         <v>0</v>
@@ -2187,8 +2286,11 @@
       <c r="P45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -2213,14 +2315,14 @@
       <c r="J46" s="3">
         <v>0</v>
       </c>
-      <c r="K46" s="3" t="s">
-        <v>4</v>
+      <c r="K46" s="3">
+        <v>0</v>
       </c>
       <c r="L46" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M46" s="3">
-        <v>0</v>
+      <c r="M46" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="N46" s="3">
         <v>0</v>
@@ -2231,8 +2333,11 @@
       <c r="P46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2275,16 +2380,19 @@
       <c r="P47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E48" s="3">
-        <v>1400</v>
+      <c r="E48" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="F48" s="3">
         <v>1400</v>
@@ -2292,23 +2400,23 @@
       <c r="G48" s="3">
         <v>1400</v>
       </c>
-      <c r="H48" s="3" t="s">
-        <v>4</v>
+      <c r="H48" s="3">
+        <v>1400</v>
       </c>
       <c r="I48" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="J48" s="3">
-        <v>0</v>
-      </c>
-      <c r="K48" s="3" t="s">
-        <v>4</v>
+      <c r="J48" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K48" s="3">
+        <v>0</v>
       </c>
       <c r="L48" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M48" s="3">
-        <v>0</v>
+      <c r="M48" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="N48" s="3">
         <v>0</v>
@@ -2319,16 +2427,19 @@
       <c r="P48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
         <v>1400</v>
       </c>
-      <c r="E49" s="3" t="s">
-        <v>4</v>
+      <c r="E49" s="3">
+        <v>1400</v>
       </c>
       <c r="F49" s="3" t="s">
         <v>4</v>
@@ -2336,12 +2447,12 @@
       <c r="G49" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="H49" s="3">
+      <c r="H49" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I49" s="3">
         <v>1400</v>
       </c>
-      <c r="I49" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="J49" s="3" t="s">
         <v>4</v>
       </c>
@@ -2351,8 +2462,8 @@
       <c r="L49" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M49" s="3">
-        <v>0</v>
+      <c r="M49" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="N49" s="3">
         <v>0</v>
@@ -2363,8 +2474,11 @@
       <c r="P49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2407,8 +2521,11 @@
       <c r="P50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2451,8 +2568,11 @@
       <c r="P51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2495,8 +2615,11 @@
       <c r="P52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2539,8 +2662,11 @@
       <c r="P53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
@@ -2560,19 +2686,19 @@
         <v>1400</v>
       </c>
       <c r="I54" s="3">
-        <v>0</v>
+        <v>1400</v>
       </c>
       <c r="J54" s="3">
         <v>0</v>
       </c>
-      <c r="K54" s="3" t="s">
-        <v>4</v>
+      <c r="K54" s="3">
+        <v>0</v>
       </c>
       <c r="L54" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M54" s="3">
-        <v>0</v>
+      <c r="M54" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="N54" s="3">
         <v>0</v>
@@ -2583,8 +2709,11 @@
       <c r="P54" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q54" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2601,8 +2730,9 @@
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
-    </row>
-    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q55" s="3"/>
+    </row>
+    <row r="56" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2619,8 +2749,9 @@
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
-    </row>
-    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q56" s="3"/>
+    </row>
+    <row r="57" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -2645,14 +2776,14 @@
       <c r="J57" s="3">
         <v>100</v>
       </c>
-      <c r="K57" s="3" t="s">
-        <v>4</v>
+      <c r="K57" s="3">
+        <v>100</v>
       </c>
       <c r="L57" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M57" s="3">
-        <v>100</v>
+      <c r="M57" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="N57" s="3">
         <v>100</v>
@@ -2663,19 +2794,22 @@
       <c r="P57" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q57" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="58" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="E58" s="3">
         <v>200</v>
       </c>
       <c r="F58" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="G58" s="3">
         <v>100</v>
@@ -2689,14 +2823,14 @@
       <c r="J58" s="3">
         <v>100</v>
       </c>
-      <c r="K58" s="3" t="s">
-        <v>4</v>
+      <c r="K58" s="3">
+        <v>100</v>
       </c>
       <c r="L58" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M58" s="3">
-        <v>100</v>
+      <c r="M58" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="N58" s="3">
         <v>100</v>
@@ -2707,8 +2841,11 @@
       <c r="P58" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q58" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="59" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -2751,19 +2888,22 @@
       <c r="P59" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q59" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="E60" s="3">
         <v>300</v>
       </c>
       <c r="F60" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="G60" s="3">
         <v>200</v>
@@ -2777,14 +2917,14 @@
       <c r="J60" s="3">
         <v>200</v>
       </c>
-      <c r="K60" s="3" t="s">
-        <v>4</v>
+      <c r="K60" s="3">
+        <v>200</v>
       </c>
       <c r="L60" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M60" s="3">
-        <v>200</v>
+      <c r="M60" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="N60" s="3">
         <v>200</v>
@@ -2795,8 +2935,11 @@
       <c r="P60" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q60" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="61" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2839,28 +2982,31 @@
       <c r="P61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="D62" s="3">
-        <v>0</v>
-      </c>
-      <c r="E62" s="3" t="s">
-        <v>4</v>
+      <c r="D62" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E62" s="3">
+        <v>0</v>
       </c>
       <c r="F62" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G62" s="3">
-        <v>0</v>
+      <c r="G62" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="H62" s="3">
         <v>0</v>
       </c>
-      <c r="I62" s="3" t="s">
-        <v>4</v>
+      <c r="I62" s="3">
+        <v>0</v>
       </c>
       <c r="J62" s="3" t="s">
         <v>4</v>
@@ -2871,8 +3017,8 @@
       <c r="L62" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M62" s="3">
-        <v>0</v>
+      <c r="M62" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="N62" s="3">
         <v>0</v>
@@ -2883,8 +3029,11 @@
       <c r="P62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2927,8 +3076,11 @@
       <c r="P63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2971,8 +3123,11 @@
       <c r="P64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3015,19 +3170,22 @@
       <c r="P65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="E66" s="3">
         <v>300</v>
       </c>
       <c r="F66" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="G66" s="3">
         <v>200</v>
@@ -3041,14 +3199,14 @@
       <c r="J66" s="3">
         <v>200</v>
       </c>
-      <c r="K66" s="3" t="s">
-        <v>4</v>
+      <c r="K66" s="3">
+        <v>200</v>
       </c>
       <c r="L66" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M66" s="3">
-        <v>200</v>
+      <c r="M66" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="N66" s="3">
         <v>200</v>
@@ -3059,8 +3217,11 @@
       <c r="P66" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q66" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="67" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3077,8 +3238,9 @@
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
-    </row>
-    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q67" s="3"/>
+    </row>
+    <row r="68" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3121,8 +3283,11 @@
       <c r="P68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3165,8 +3330,11 @@
       <c r="P69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3209,8 +3377,11 @@
       <c r="P70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3253,19 +3424,22 @@
       <c r="P71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-8700</v>
+        <v>-8900</v>
       </c>
       <c r="E72" s="3">
         <v>-8700</v>
       </c>
       <c r="F72" s="3">
-        <v>-8600</v>
+        <v>-8700</v>
       </c>
       <c r="G72" s="3">
         <v>-8600</v>
@@ -3279,14 +3453,14 @@
       <c r="J72" s="3">
         <v>-8600</v>
       </c>
-      <c r="K72" s="3" t="s">
-        <v>4</v>
+      <c r="K72" s="3">
+        <v>-8600</v>
       </c>
       <c r="L72" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M72" s="3">
-        <v>-8600</v>
+      <c r="M72" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="N72" s="3">
         <v>-8600</v>
@@ -3297,8 +3471,11 @@
       <c r="P72" s="3">
         <v>-8600</v>
       </c>
-    </row>
-    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q72" s="3">
+        <v>-8600</v>
+      </c>
+    </row>
+    <row r="73" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3341,8 +3518,11 @@
       <c r="P73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3385,8 +3565,11 @@
       <c r="P74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3429,40 +3612,43 @@
       <c r="P75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>900</v>
+      </c>
+      <c r="E76" s="3">
         <v>1000</v>
-      </c>
-      <c r="E76" s="3">
-        <v>1100</v>
       </c>
       <c r="F76" s="3">
         <v>1100</v>
       </c>
       <c r="G76" s="3">
-        <v>1200</v>
+        <v>1100</v>
       </c>
       <c r="H76" s="3">
         <v>1200</v>
       </c>
       <c r="I76" s="3">
-        <v>-200</v>
+        <v>1200</v>
       </c>
       <c r="J76" s="3">
         <v>-200</v>
       </c>
-      <c r="K76" s="3" t="s">
-        <v>4</v>
+      <c r="K76" s="3">
+        <v>-200</v>
       </c>
       <c r="L76" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M76" s="3">
-        <v>-200</v>
+      <c r="M76" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="N76" s="3">
         <v>-200</v>
@@ -3473,8 +3659,11 @@
       <c r="P76" s="3">
         <v>-200</v>
       </c>
-    </row>
-    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q76" s="3">
+        <v>-200</v>
+      </c>
+    </row>
+    <row r="77" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3517,57 +3706,63 @@
       <c r="P77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44043</v>
+      </c>
+      <c r="E80" s="2">
         <v>43951</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43861</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43769</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43677</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43585</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43496</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43404</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43312</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43220</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>42947</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>42855</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>42766</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>42674</v>
       </c>
     </row>
-    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
@@ -3575,7 +3770,7 @@
         <v>-100</v>
       </c>
       <c r="E81" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="F81" s="3">
         <v>0</v>
@@ -3610,8 +3805,11 @@
       <c r="P81" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q81" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3628,8 +3826,9 @@
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
-    </row>
-    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q82" s="3"/>
+    </row>
+    <row r="83" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -3672,8 +3871,11 @@
       <c r="P83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3716,8 +3918,11 @@
       <c r="P84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3760,8 +3965,11 @@
       <c r="P85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3804,8 +4012,11 @@
       <c r="P86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3848,8 +4059,11 @@
       <c r="P87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3892,20 +4106,23 @@
       <c r="P88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="E89" s="3">
+        <v>0</v>
+      </c>
+      <c r="F89" s="3">
         <v>-100</v>
       </c>
-      <c r="F89" s="3">
-        <v>0</v>
-      </c>
       <c r="G89" s="3">
         <v>0</v>
       </c>
@@ -3936,8 +4153,11 @@
       <c r="P89" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3954,8 +4174,9 @@
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
-    </row>
-    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q90" s="3"/>
+    </row>
+    <row r="91" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -3998,8 +4219,11 @@
       <c r="P91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4042,8 +4266,11 @@
       <c r="P92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4086,8 +4313,11 @@
       <c r="P93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -4101,14 +4331,14 @@
         <v>0</v>
       </c>
       <c r="G94" s="3">
+        <v>0</v>
+      </c>
+      <c r="H94" s="3">
         <v>1300</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-1400</v>
       </c>
-      <c r="I94" s="3">
-        <v>0</v>
-      </c>
       <c r="J94" s="3">
         <v>0</v>
       </c>
@@ -4130,8 +4360,11 @@
       <c r="P94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4148,8 +4381,9 @@
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
-    </row>
-    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q95" s="3"/>
+    </row>
+    <row r="96" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4192,8 +4426,11 @@
       <c r="P96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4236,8 +4473,11 @@
       <c r="P97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4280,8 +4520,11 @@
       <c r="P98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4324,29 +4567,32 @@
       <c r="P99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E100" s="3">
+        <v>0</v>
+      </c>
+      <c r="F100" s="3">
         <v>100</v>
       </c>
-      <c r="F100" s="3">
-        <v>0</v>
-      </c>
       <c r="G100" s="3">
+        <v>0</v>
+      </c>
+      <c r="H100" s="3">
         <v>-1400</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>1400</v>
       </c>
-      <c r="I100" s="3">
-        <v>0</v>
-      </c>
       <c r="J100" s="3">
         <v>0</v>
       </c>
@@ -4368,8 +4614,11 @@
       <c r="P100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4412,8 +4661,11 @@
       <c r="P101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -4454,6 +4706,9 @@
         <v>0</v>
       </c>
       <c r="P102" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/CYAP_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/CYAP_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="92">
   <si>
     <t>CYAP</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Q102"/>
+  <dimension ref="A5:R102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,78 +665,82 @@
     <col min="1" max="1" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44135</v>
+      </c>
+      <c r="E7" s="2">
         <v>44043</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43951</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43861</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43769</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43677</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43585</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43496</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43404</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43312</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43220</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>42947</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>42855</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>42766</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42674</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -782,8 +786,11 @@
       <c r="Q8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -829,8 +836,11 @@
       <c r="Q9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -876,8 +886,11 @@
       <c r="Q10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -895,8 +908,9 @@
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R11" s="3"/>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -942,8 +956,11 @@
       <c r="Q12" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -989,8 +1006,11 @@
       <c r="Q13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1024,20 +1044,23 @@
       <c r="M14" s="3">
         <v>0</v>
       </c>
-      <c r="N14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="O14" s="3">
-        <v>0</v>
-      </c>
-      <c r="P14" s="3" t="s">
-        <v>4</v>
+      <c r="N14" s="3">
+        <v>0</v>
+      </c>
+      <c r="O14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P14" s="3">
+        <v>0</v>
       </c>
       <c r="Q14" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R14" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1083,8 +1106,11 @@
       <c r="Q15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1099,8 +1125,9 @@
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
-    </row>
-    <row r="17" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R16" s="3"/>
+    </row>
+    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
@@ -1111,7 +1138,7 @@
         <v>100</v>
       </c>
       <c r="F17" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G17" s="3">
         <v>0</v>
@@ -1146,8 +1173,11 @@
       <c r="Q17" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R17" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1158,7 +1188,7 @@
         <v>-100</v>
       </c>
       <c r="F18" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="G18" s="3">
         <v>0</v>
@@ -1193,8 +1223,11 @@
       <c r="Q18" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R18" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1212,8 +1245,9 @@
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
-    </row>
-    <row r="20" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R19" s="3"/>
+    </row>
+    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1259,8 +1293,11 @@
       <c r="Q20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1271,13 +1308,13 @@
         <v>-100</v>
       </c>
       <c r="F21" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="G21" s="3">
         <v>0</v>
       </c>
-      <c r="H21" s="3" t="s">
-        <v>4</v>
+      <c r="H21" s="3">
+        <v>0</v>
       </c>
       <c r="I21" s="3" t="s">
         <v>4</v>
@@ -1306,8 +1343,11 @@
       <c r="Q21" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="22" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R21" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1353,8 +1393,11 @@
       <c r="Q22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
@@ -1365,7 +1408,7 @@
         <v>-100</v>
       </c>
       <c r="F23" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="G23" s="3">
         <v>0</v>
@@ -1400,8 +1443,11 @@
       <c r="Q23" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R23" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1447,8 +1493,11 @@
       <c r="Q24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1494,8 +1543,11 @@
       <c r="Q25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
@@ -1506,7 +1558,7 @@
         <v>-100</v>
       </c>
       <c r="F26" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="G26" s="3">
         <v>0</v>
@@ -1541,8 +1593,11 @@
       <c r="Q26" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R26" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
@@ -1553,7 +1608,7 @@
         <v>-100</v>
       </c>
       <c r="F27" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="G27" s="3">
         <v>0</v>
@@ -1588,8 +1643,11 @@
       <c r="Q27" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R27" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1635,8 +1693,11 @@
       <c r="Q28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1682,8 +1743,11 @@
       <c r="Q29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1729,8 +1793,11 @@
       <c r="Q30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1776,8 +1843,11 @@
       <c r="Q31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1823,8 +1893,11 @@
       <c r="Q32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
@@ -1835,7 +1908,7 @@
         <v>-100</v>
       </c>
       <c r="F33" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="G33" s="3">
         <v>0</v>
@@ -1870,8 +1943,11 @@
       <c r="Q33" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R33" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1917,8 +1993,11 @@
       <c r="Q34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
@@ -1929,7 +2008,7 @@
         <v>-100</v>
       </c>
       <c r="F35" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="G35" s="3">
         <v>0</v>
@@ -1964,60 +2043,66 @@
       <c r="Q35" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="37" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R35" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44135</v>
+      </c>
+      <c r="E38" s="2">
         <v>44043</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43951</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43861</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43769</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43677</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43585</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43496</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43404</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43312</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43220</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>42947</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>42855</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>42766</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42674</v>
       </c>
     </row>
-    <row r="39" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2035,8 +2120,9 @@
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
-    </row>
-    <row r="40" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R39" s="3"/>
+    </row>
+    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2054,16 +2140,17 @@
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
-    </row>
-    <row r="41" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R40" s="3"/>
+    </row>
+    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
         <v>0</v>
       </c>
-      <c r="E41" s="3" t="s">
-        <v>4</v>
+      <c r="E41" s="3">
+        <v>0</v>
       </c>
       <c r="F41" s="3" t="s">
         <v>4</v>
@@ -2080,8 +2167,8 @@
       <c r="J41" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K41" s="3">
-        <v>0</v>
+      <c r="K41" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="L41" s="3">
         <v>0</v>
@@ -2101,8 +2188,11 @@
       <c r="Q41" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2148,8 +2238,11 @@
       <c r="Q42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2195,8 +2288,11 @@
       <c r="Q43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2242,8 +2338,11 @@
       <c r="Q44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2271,14 +2370,14 @@
       <c r="K45" s="3">
         <v>0</v>
       </c>
-      <c r="L45" s="3" t="s">
-        <v>4</v>
+      <c r="L45" s="3">
+        <v>0</v>
       </c>
       <c r="M45" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N45" s="3">
-        <v>0</v>
+      <c r="N45" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="O45" s="3">
         <v>0</v>
@@ -2289,8 +2388,11 @@
       <c r="Q45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -2318,14 +2420,14 @@
       <c r="K46" s="3">
         <v>0</v>
       </c>
-      <c r="L46" s="3" t="s">
-        <v>4</v>
+      <c r="L46" s="3">
+        <v>0</v>
       </c>
       <c r="M46" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N46" s="3">
-        <v>0</v>
+      <c r="N46" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="O46" s="3">
         <v>0</v>
@@ -2336,8 +2438,11 @@
       <c r="Q46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2383,19 +2488,22 @@
       <c r="Q47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="D48" s="3" t="s">
-        <v>4</v>
+      <c r="D48" s="3">
+        <v>1400</v>
       </c>
       <c r="E48" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F48" s="3">
-        <v>1400</v>
+      <c r="F48" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="G48" s="3">
         <v>1400</v>
@@ -2403,23 +2511,23 @@
       <c r="H48" s="3">
         <v>1400</v>
       </c>
-      <c r="I48" s="3" t="s">
-        <v>4</v>
+      <c r="I48" s="3">
+        <v>1400</v>
       </c>
       <c r="J48" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K48" s="3">
-        <v>0</v>
-      </c>
-      <c r="L48" s="3" t="s">
-        <v>4</v>
+      <c r="K48" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L48" s="3">
+        <v>0</v>
       </c>
       <c r="M48" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N48" s="3">
-        <v>0</v>
+      <c r="N48" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="O48" s="3">
         <v>0</v>
@@ -2430,19 +2538,22 @@
       <c r="Q48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="D49" s="3">
-        <v>1400</v>
+      <c r="D49" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E49" s="3">
         <v>1400</v>
       </c>
-      <c r="F49" s="3" t="s">
-        <v>4</v>
+      <c r="F49" s="3">
+        <v>1400</v>
       </c>
       <c r="G49" s="3" t="s">
         <v>4</v>
@@ -2450,12 +2561,12 @@
       <c r="H49" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="I49" s="3">
+      <c r="I49" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J49" s="3">
         <v>1400</v>
       </c>
-      <c r="J49" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="K49" s="3" t="s">
         <v>4</v>
       </c>
@@ -2465,8 +2576,8 @@
       <c r="M49" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N49" s="3">
-        <v>0</v>
+      <c r="N49" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="O49" s="3">
         <v>0</v>
@@ -2477,8 +2588,11 @@
       <c r="Q49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2524,8 +2638,11 @@
       <c r="Q50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2571,8 +2688,11 @@
       <c r="Q51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2618,8 +2738,11 @@
       <c r="Q52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2665,8 +2788,11 @@
       <c r="Q53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
@@ -2689,19 +2815,19 @@
         <v>1400</v>
       </c>
       <c r="J54" s="3">
-        <v>0</v>
+        <v>1400</v>
       </c>
       <c r="K54" s="3">
         <v>0</v>
       </c>
-      <c r="L54" s="3" t="s">
-        <v>4</v>
+      <c r="L54" s="3">
+        <v>0</v>
       </c>
       <c r="M54" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N54" s="3">
-        <v>0</v>
+      <c r="N54" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="O54" s="3">
         <v>0</v>
@@ -2712,8 +2838,11 @@
       <c r="Q54" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="55" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R54" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2731,8 +2860,9 @@
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
-    </row>
-    <row r="56" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R55" s="3"/>
+    </row>
+    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2750,8 +2880,9 @@
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
-    </row>
-    <row r="57" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R56" s="3"/>
+    </row>
+    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -2779,14 +2910,14 @@
       <c r="K57" s="3">
         <v>100</v>
       </c>
-      <c r="L57" s="3" t="s">
-        <v>4</v>
+      <c r="L57" s="3">
+        <v>100</v>
       </c>
       <c r="M57" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N57" s="3">
-        <v>100</v>
+      <c r="N57" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="O57" s="3">
         <v>100</v>
@@ -2797,22 +2928,25 @@
       <c r="Q57" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="58" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R57" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>400</v>
+      </c>
+      <c r="E58" s="3">
         <v>300</v>
-      </c>
-      <c r="E58" s="3">
-        <v>200</v>
       </c>
       <c r="F58" s="3">
         <v>200</v>
       </c>
       <c r="G58" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="H58" s="3">
         <v>100</v>
@@ -2826,14 +2960,14 @@
       <c r="K58" s="3">
         <v>100</v>
       </c>
-      <c r="L58" s="3" t="s">
-        <v>4</v>
+      <c r="L58" s="3">
+        <v>100</v>
       </c>
       <c r="M58" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N58" s="3">
-        <v>100</v>
+      <c r="N58" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="O58" s="3">
         <v>100</v>
@@ -2844,8 +2978,11 @@
       <c r="Q58" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="59" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R58" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -2891,22 +3028,25 @@
       <c r="Q59" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R59" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>500</v>
+      </c>
+      <c r="E60" s="3">
         <v>400</v>
-      </c>
-      <c r="E60" s="3">
-        <v>300</v>
       </c>
       <c r="F60" s="3">
         <v>300</v>
       </c>
       <c r="G60" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="H60" s="3">
         <v>200</v>
@@ -2920,14 +3060,14 @@
       <c r="K60" s="3">
         <v>200</v>
       </c>
-      <c r="L60" s="3" t="s">
-        <v>4</v>
+      <c r="L60" s="3">
+        <v>200</v>
       </c>
       <c r="M60" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N60" s="3">
-        <v>200</v>
+      <c r="N60" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="O60" s="3">
         <v>200</v>
@@ -2938,8 +3078,11 @@
       <c r="Q60" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="61" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R60" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2985,31 +3128,34 @@
       <c r="Q61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E62" s="3">
-        <v>0</v>
-      </c>
-      <c r="F62" s="3" t="s">
-        <v>4</v>
+      <c r="E62" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F62" s="3">
+        <v>0</v>
       </c>
       <c r="G62" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="H62" s="3">
-        <v>0</v>
+      <c r="H62" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="I62" s="3">
         <v>0</v>
       </c>
-      <c r="J62" s="3" t="s">
-        <v>4</v>
+      <c r="J62" s="3">
+        <v>0</v>
       </c>
       <c r="K62" s="3" t="s">
         <v>4</v>
@@ -3020,8 +3166,8 @@
       <c r="M62" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N62" s="3">
-        <v>0</v>
+      <c r="N62" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="O62" s="3">
         <v>0</v>
@@ -3032,8 +3178,11 @@
       <c r="Q62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3079,8 +3228,11 @@
       <c r="Q63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3126,8 +3278,11 @@
       <c r="Q64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3173,22 +3328,25 @@
       <c r="Q65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>500</v>
+      </c>
+      <c r="E66" s="3">
         <v>400</v>
-      </c>
-      <c r="E66" s="3">
-        <v>300</v>
       </c>
       <c r="F66" s="3">
         <v>300</v>
       </c>
       <c r="G66" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="H66" s="3">
         <v>200</v>
@@ -3202,14 +3360,14 @@
       <c r="K66" s="3">
         <v>200</v>
       </c>
-      <c r="L66" s="3" t="s">
-        <v>4</v>
+      <c r="L66" s="3">
+        <v>200</v>
       </c>
       <c r="M66" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N66" s="3">
-        <v>200</v>
+      <c r="N66" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="O66" s="3">
         <v>200</v>
@@ -3220,8 +3378,11 @@
       <c r="Q66" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="67" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R66" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3239,8 +3400,9 @@
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
-    </row>
-    <row r="68" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R67" s="3"/>
+    </row>
+    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3286,8 +3448,11 @@
       <c r="Q68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3333,8 +3498,11 @@
       <c r="Q69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3380,8 +3548,11 @@
       <c r="Q70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3427,8 +3598,11 @@
       <c r="Q71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
@@ -3436,13 +3610,13 @@
         <v>-8900</v>
       </c>
       <c r="E72" s="3">
-        <v>-8700</v>
+        <v>-8900</v>
       </c>
       <c r="F72" s="3">
         <v>-8700</v>
       </c>
       <c r="G72" s="3">
-        <v>-8600</v>
+        <v>-8700</v>
       </c>
       <c r="H72" s="3">
         <v>-8600</v>
@@ -3456,14 +3630,14 @@
       <c r="K72" s="3">
         <v>-8600</v>
       </c>
-      <c r="L72" s="3" t="s">
-        <v>4</v>
+      <c r="L72" s="3">
+        <v>-8600</v>
       </c>
       <c r="M72" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N72" s="3">
-        <v>-8600</v>
+      <c r="N72" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="O72" s="3">
         <v>-8600</v>
@@ -3474,8 +3648,11 @@
       <c r="Q72" s="3">
         <v>-8600</v>
       </c>
-    </row>
-    <row r="73" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R72" s="3">
+        <v>-8600</v>
+      </c>
+    </row>
+    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3521,8 +3698,11 @@
       <c r="Q73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3568,8 +3748,11 @@
       <c r="Q74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3615,8 +3798,11 @@
       <c r="Q75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
@@ -3624,34 +3810,34 @@
         <v>900</v>
       </c>
       <c r="E76" s="3">
+        <v>900</v>
+      </c>
+      <c r="F76" s="3">
         <v>1000</v>
-      </c>
-      <c r="F76" s="3">
-        <v>1100</v>
       </c>
       <c r="G76" s="3">
         <v>1100</v>
       </c>
       <c r="H76" s="3">
-        <v>1200</v>
+        <v>1100</v>
       </c>
       <c r="I76" s="3">
         <v>1200</v>
       </c>
       <c r="J76" s="3">
-        <v>-200</v>
+        <v>1200</v>
       </c>
       <c r="K76" s="3">
         <v>-200</v>
       </c>
-      <c r="L76" s="3" t="s">
-        <v>4</v>
+      <c r="L76" s="3">
+        <v>-200</v>
       </c>
       <c r="M76" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N76" s="3">
-        <v>-200</v>
+      <c r="N76" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="O76" s="3">
         <v>-200</v>
@@ -3662,8 +3848,11 @@
       <c r="Q76" s="3">
         <v>-200</v>
       </c>
-    </row>
-    <row r="77" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R76" s="3">
+        <v>-200</v>
+      </c>
+    </row>
+    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3709,60 +3898,66 @@
       <c r="Q77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44135</v>
+      </c>
+      <c r="E80" s="2">
         <v>44043</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43951</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43861</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43769</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43677</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43585</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43496</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43404</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43312</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43220</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>42947</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>42855</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>42766</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42674</v>
       </c>
     </row>
-    <row r="81" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
@@ -3773,7 +3968,7 @@
         <v>-100</v>
       </c>
       <c r="F81" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="G81" s="3">
         <v>0</v>
@@ -3808,8 +4003,11 @@
       <c r="Q81" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="82" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R81" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3827,8 +4025,9 @@
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
-    </row>
-    <row r="83" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R82" s="3"/>
+    </row>
+    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -3874,8 +4073,11 @@
       <c r="Q83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3921,8 +4123,11 @@
       <c r="Q84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3968,8 +4173,11 @@
       <c r="Q85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4015,8 +4223,11 @@
       <c r="Q86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4062,8 +4273,11 @@
       <c r="Q87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4109,8 +4323,11 @@
       <c r="Q88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -4118,14 +4335,14 @@
         <v>-100</v>
       </c>
       <c r="E89" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="F89" s="3">
+        <v>0</v>
+      </c>
+      <c r="G89" s="3">
         <v>-100</v>
       </c>
-      <c r="G89" s="3">
-        <v>0</v>
-      </c>
       <c r="H89" s="3">
         <v>0</v>
       </c>
@@ -4156,8 +4373,11 @@
       <c r="Q89" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4175,8 +4395,9 @@
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
-    </row>
-    <row r="91" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R90" s="3"/>
+    </row>
+    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -4222,8 +4443,11 @@
       <c r="Q91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4269,8 +4493,11 @@
       <c r="Q92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4316,8 +4543,11 @@
       <c r="Q93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -4334,14 +4564,14 @@
         <v>0</v>
       </c>
       <c r="H94" s="3">
+        <v>0</v>
+      </c>
+      <c r="I94" s="3">
         <v>1300</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-1400</v>
       </c>
-      <c r="J94" s="3">
-        <v>0</v>
-      </c>
       <c r="K94" s="3">
         <v>0</v>
       </c>
@@ -4363,8 +4593,11 @@
       <c r="Q94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4382,8 +4615,9 @@
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
       <c r="Q95" s="3"/>
-    </row>
-    <row r="96" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R95" s="3"/>
+    </row>
+    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4429,8 +4663,11 @@
       <c r="Q96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4476,8 +4713,11 @@
       <c r="Q97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4523,8 +4763,11 @@
       <c r="Q98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4570,8 +4813,11 @@
       <c r="Q99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -4579,23 +4825,23 @@
         <v>100</v>
       </c>
       <c r="E100" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F100" s="3">
+        <v>0</v>
+      </c>
+      <c r="G100" s="3">
         <v>100</v>
       </c>
-      <c r="G100" s="3">
-        <v>0</v>
-      </c>
       <c r="H100" s="3">
+        <v>0</v>
+      </c>
+      <c r="I100" s="3">
         <v>-1400</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>1400</v>
       </c>
-      <c r="J100" s="3">
-        <v>0</v>
-      </c>
       <c r="K100" s="3">
         <v>0</v>
       </c>
@@ -4617,8 +4863,11 @@
       <c r="Q100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4664,8 +4913,11 @@
       <c r="Q101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -4709,6 +4961,9 @@
         <v>0</v>
       </c>
       <c r="Q102" s="3">
+        <v>0</v>
+      </c>
+      <c r="R102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/CYAP_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/CYAP_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="92">
   <si>
     <t>CYAP</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:R102"/>
+  <dimension ref="A5:S102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,82 +665,86 @@
     <col min="1" max="1" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44227</v>
+      </c>
+      <c r="E7" s="2">
         <v>44135</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44043</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43951</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43861</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43769</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43677</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43585</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43496</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43404</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43312</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43220</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>42947</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>42855</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42766</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42674</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -789,8 +793,11 @@
       <c r="R8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -839,8 +846,11 @@
       <c r="R9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -889,8 +899,11 @@
       <c r="R10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -909,8 +922,9 @@
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S11" s="3"/>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -959,8 +973,11 @@
       <c r="R12" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1009,8 +1026,11 @@
       <c r="R13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1047,20 +1067,23 @@
       <c r="N14" s="3">
         <v>0</v>
       </c>
-      <c r="O14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="P14" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q14" s="3" t="s">
-        <v>4</v>
+      <c r="O14" s="3">
+        <v>0</v>
+      </c>
+      <c r="P14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q14" s="3">
+        <v>0</v>
       </c>
       <c r="R14" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S14" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1109,8 +1132,11 @@
       <c r="R15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1126,8 +1152,9 @@
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
-    </row>
-    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S16" s="3"/>
+    </row>
+    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
@@ -1141,7 +1168,7 @@
         <v>100</v>
       </c>
       <c r="G17" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H17" s="3">
         <v>0</v>
@@ -1176,8 +1203,11 @@
       <c r="R17" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S17" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1191,7 +1221,7 @@
         <v>-100</v>
       </c>
       <c r="G18" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="H18" s="3">
         <v>0</v>
@@ -1226,8 +1256,11 @@
       <c r="R18" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S18" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1246,8 +1279,9 @@
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
-    </row>
-    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S19" s="3"/>
+    </row>
+    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1296,28 +1330,31 @@
       <c r="R20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E21" s="3">
-        <v>-100</v>
+      <c r="E21" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="F21" s="3">
         <v>-100</v>
       </c>
-      <c r="G21" s="3">
-        <v>0</v>
-      </c>
-      <c r="H21" s="3">
-        <v>0</v>
-      </c>
-      <c r="I21" s="3" t="s">
-        <v>4</v>
+      <c r="G21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I21" s="3">
+        <v>0</v>
       </c>
       <c r="J21" s="3" t="s">
         <v>4</v>
@@ -1346,8 +1383,11 @@
       <c r="R21" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S21" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1396,8 +1436,11 @@
       <c r="R22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
@@ -1411,7 +1454,7 @@
         <v>-100</v>
       </c>
       <c r="G23" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="H23" s="3">
         <v>0</v>
@@ -1446,8 +1489,11 @@
       <c r="R23" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S23" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1496,8 +1542,11 @@
       <c r="R24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1546,8 +1595,11 @@
       <c r="R25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
@@ -1561,7 +1613,7 @@
         <v>-100</v>
       </c>
       <c r="G26" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="H26" s="3">
         <v>0</v>
@@ -1596,8 +1648,11 @@
       <c r="R26" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S26" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
@@ -1611,7 +1666,7 @@
         <v>-100</v>
       </c>
       <c r="G27" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="H27" s="3">
         <v>0</v>
@@ -1646,8 +1701,11 @@
       <c r="R27" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S27" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1696,8 +1754,11 @@
       <c r="R28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1746,8 +1807,11 @@
       <c r="R29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1796,8 +1860,11 @@
       <c r="R30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1846,8 +1913,11 @@
       <c r="R31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1896,8 +1966,11 @@
       <c r="R32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
@@ -1911,7 +1984,7 @@
         <v>-100</v>
       </c>
       <c r="G33" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="H33" s="3">
         <v>0</v>
@@ -1946,8 +2019,11 @@
       <c r="R33" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S33" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1996,8 +2072,11 @@
       <c r="R34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
@@ -2011,7 +2090,7 @@
         <v>-100</v>
       </c>
       <c r="G35" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="H35" s="3">
         <v>0</v>
@@ -2046,63 +2125,69 @@
       <c r="R35" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S35" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44227</v>
+      </c>
+      <c r="E38" s="2">
         <v>44135</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44043</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43951</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43861</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43769</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43677</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43585</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43496</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43404</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43312</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43220</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>42947</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>42855</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42766</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42674</v>
       </c>
     </row>
-    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2121,8 +2206,9 @@
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
-    </row>
-    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S39" s="3"/>
+    </row>
+    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2141,19 +2227,20 @@
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
-    </row>
-    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S40" s="3"/>
+    </row>
+    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E41" s="3">
         <v>0</v>
       </c>
-      <c r="F41" s="3" t="s">
-        <v>4</v>
+      <c r="F41" s="3">
+        <v>0</v>
       </c>
       <c r="G41" s="3" t="s">
         <v>4</v>
@@ -2170,8 +2257,8 @@
       <c r="K41" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="L41" s="3">
-        <v>0</v>
+      <c r="L41" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="M41" s="3">
         <v>0</v>
@@ -2191,8 +2278,11 @@
       <c r="R41" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2241,8 +2331,11 @@
       <c r="R42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2291,8 +2384,11 @@
       <c r="R43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2341,8 +2437,11 @@
       <c r="R44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2373,14 +2472,14 @@
       <c r="L45" s="3">
         <v>0</v>
       </c>
-      <c r="M45" s="3" t="s">
-        <v>4</v>
+      <c r="M45" s="3">
+        <v>0</v>
       </c>
       <c r="N45" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="O45" s="3">
-        <v>0</v>
+      <c r="O45" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="P45" s="3">
         <v>0</v>
@@ -2391,13 +2490,16 @@
       <c r="R45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E46" s="3">
         <v>0</v>
@@ -2423,14 +2525,14 @@
       <c r="L46" s="3">
         <v>0</v>
       </c>
-      <c r="M46" s="3" t="s">
-        <v>4</v>
+      <c r="M46" s="3">
+        <v>0</v>
       </c>
       <c r="N46" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="O46" s="3">
-        <v>0</v>
+      <c r="O46" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="P46" s="3">
         <v>0</v>
@@ -2441,8 +2543,11 @@
       <c r="R46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2491,22 +2596,25 @@
       <c r="R47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="D48" s="3">
+      <c r="D48" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E48" s="3">
         <v>1400</v>
       </c>
-      <c r="E48" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="F48" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G48" s="3">
-        <v>1400</v>
+      <c r="G48" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="H48" s="3">
         <v>1400</v>
@@ -2514,23 +2622,23 @@
       <c r="I48" s="3">
         <v>1400</v>
       </c>
-      <c r="J48" s="3" t="s">
-        <v>4</v>
+      <c r="J48" s="3">
+        <v>1400</v>
       </c>
       <c r="K48" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="L48" s="3">
-        <v>0</v>
-      </c>
-      <c r="M48" s="3" t="s">
-        <v>4</v>
+      <c r="L48" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M48" s="3">
+        <v>0</v>
       </c>
       <c r="N48" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="O48" s="3">
-        <v>0</v>
+      <c r="O48" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="P48" s="3">
         <v>0</v>
@@ -2541,22 +2649,25 @@
       <c r="R48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="D49" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E49" s="3">
-        <v>1400</v>
+      <c r="D49" s="3">
+        <v>1700</v>
+      </c>
+      <c r="E49" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="F49" s="3">
         <v>1400</v>
       </c>
-      <c r="G49" s="3" t="s">
-        <v>4</v>
+      <c r="G49" s="3">
+        <v>1400</v>
       </c>
       <c r="H49" s="3" t="s">
         <v>4</v>
@@ -2564,12 +2675,12 @@
       <c r="I49" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="J49" s="3">
+      <c r="J49" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K49" s="3">
         <v>1400</v>
       </c>
-      <c r="K49" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="L49" s="3" t="s">
         <v>4</v>
       </c>
@@ -2579,8 +2690,8 @@
       <c r="N49" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="O49" s="3">
-        <v>0</v>
+      <c r="O49" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="P49" s="3">
         <v>0</v>
@@ -2591,8 +2702,11 @@
       <c r="R49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2641,8 +2755,11 @@
       <c r="R50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2691,8 +2808,11 @@
       <c r="R51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2741,8 +2861,11 @@
       <c r="R52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2791,13 +2914,16 @@
       <c r="R53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>1400</v>
+        <v>1800</v>
       </c>
       <c r="E54" s="3">
         <v>1400</v>
@@ -2818,19 +2944,19 @@
         <v>1400</v>
       </c>
       <c r="K54" s="3">
-        <v>0</v>
+        <v>1400</v>
       </c>
       <c r="L54" s="3">
         <v>0</v>
       </c>
-      <c r="M54" s="3" t="s">
-        <v>4</v>
+      <c r="M54" s="3">
+        <v>0</v>
       </c>
       <c r="N54" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="O54" s="3">
-        <v>0</v>
+      <c r="O54" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="P54" s="3">
         <v>0</v>
@@ -2841,8 +2967,11 @@
       <c r="R54" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S54" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2861,8 +2990,9 @@
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
-    </row>
-    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S55" s="3"/>
+    </row>
+    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2881,13 +3011,14 @@
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
-    </row>
-    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S56" s="3"/>
+    </row>
+    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="E57" s="3">
         <v>100</v>
@@ -2913,14 +3044,14 @@
       <c r="L57" s="3">
         <v>100</v>
       </c>
-      <c r="M57" s="3" t="s">
-        <v>4</v>
+      <c r="M57" s="3">
+        <v>100</v>
       </c>
       <c r="N57" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="O57" s="3">
-        <v>100</v>
+      <c r="O57" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="P57" s="3">
         <v>100</v>
@@ -2931,25 +3062,28 @@
       <c r="R57" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S57" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>600</v>
+      </c>
+      <c r="E58" s="3">
         <v>400</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>300</v>
-      </c>
-      <c r="F58" s="3">
-        <v>200</v>
       </c>
       <c r="G58" s="3">
         <v>200</v>
       </c>
       <c r="H58" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="I58" s="3">
         <v>100</v>
@@ -2963,14 +3097,14 @@
       <c r="L58" s="3">
         <v>100</v>
       </c>
-      <c r="M58" s="3" t="s">
-        <v>4</v>
+      <c r="M58" s="3">
+        <v>100</v>
       </c>
       <c r="N58" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="O58" s="3">
-        <v>100</v>
+      <c r="O58" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="P58" s="3">
         <v>100</v>
@@ -2981,8 +3115,11 @@
       <c r="R58" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S58" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -3031,25 +3168,28 @@
       <c r="R59" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S59" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>800</v>
+      </c>
+      <c r="E60" s="3">
         <v>500</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>400</v>
-      </c>
-      <c r="F60" s="3">
-        <v>300</v>
       </c>
       <c r="G60" s="3">
         <v>300</v>
       </c>
       <c r="H60" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="I60" s="3">
         <v>200</v>
@@ -3063,14 +3203,14 @@
       <c r="L60" s="3">
         <v>200</v>
       </c>
-      <c r="M60" s="3" t="s">
-        <v>4</v>
+      <c r="M60" s="3">
+        <v>200</v>
       </c>
       <c r="N60" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="O60" s="3">
-        <v>200</v>
+      <c r="O60" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="P60" s="3">
         <v>200</v>
@@ -3081,13 +3221,16 @@
       <c r="R60" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S60" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E61" s="3">
         <v>0</v>
@@ -3131,8 +3274,11 @@
       <c r="R61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -3142,23 +3288,23 @@
       <c r="E62" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F62" s="3">
-        <v>0</v>
-      </c>
-      <c r="G62" s="3" t="s">
-        <v>4</v>
+      <c r="F62" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G62" s="3">
+        <v>0</v>
       </c>
       <c r="H62" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="I62" s="3">
-        <v>0</v>
+      <c r="I62" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="J62" s="3">
         <v>0</v>
       </c>
-      <c r="K62" s="3" t="s">
-        <v>4</v>
+      <c r="K62" s="3">
+        <v>0</v>
       </c>
       <c r="L62" s="3" t="s">
         <v>4</v>
@@ -3169,8 +3315,8 @@
       <c r="N62" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="O62" s="3">
-        <v>0</v>
+      <c r="O62" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="P62" s="3">
         <v>0</v>
@@ -3181,8 +3327,11 @@
       <c r="R62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3231,8 +3380,11 @@
       <c r="R63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3281,8 +3433,11 @@
       <c r="R64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3331,25 +3486,28 @@
       <c r="R65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>900</v>
+      </c>
+      <c r="E66" s="3">
         <v>500</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>400</v>
-      </c>
-      <c r="F66" s="3">
-        <v>300</v>
       </c>
       <c r="G66" s="3">
         <v>300</v>
       </c>
       <c r="H66" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="I66" s="3">
         <v>200</v>
@@ -3363,14 +3521,14 @@
       <c r="L66" s="3">
         <v>200</v>
       </c>
-      <c r="M66" s="3" t="s">
-        <v>4</v>
+      <c r="M66" s="3">
+        <v>200</v>
       </c>
       <c r="N66" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="O66" s="3">
-        <v>200</v>
+      <c r="O66" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="P66" s="3">
         <v>200</v>
@@ -3381,8 +3539,11 @@
       <c r="R66" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S66" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3401,8 +3562,9 @@
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
-    </row>
-    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S67" s="3"/>
+    </row>
+    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3451,8 +3613,11 @@
       <c r="R68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3501,8 +3666,11 @@
       <c r="R69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3551,8 +3719,11 @@
       <c r="R70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3601,25 +3772,28 @@
       <c r="R71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-8900</v>
+        <v>-9000</v>
       </c>
       <c r="E72" s="3">
         <v>-8900</v>
       </c>
       <c r="F72" s="3">
-        <v>-8700</v>
+        <v>-8900</v>
       </c>
       <c r="G72" s="3">
         <v>-8700</v>
       </c>
       <c r="H72" s="3">
-        <v>-8600</v>
+        <v>-8700</v>
       </c>
       <c r="I72" s="3">
         <v>-8600</v>
@@ -3633,14 +3807,14 @@
       <c r="L72" s="3">
         <v>-8600</v>
       </c>
-      <c r="M72" s="3" t="s">
-        <v>4</v>
+      <c r="M72" s="3">
+        <v>-8600</v>
       </c>
       <c r="N72" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="O72" s="3">
-        <v>-8600</v>
+      <c r="O72" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="P72" s="3">
         <v>-8600</v>
@@ -3651,8 +3825,11 @@
       <c r="R72" s="3">
         <v>-8600</v>
       </c>
-    </row>
-    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S72" s="3">
+        <v>-8600</v>
+      </c>
+    </row>
+    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3701,8 +3878,11 @@
       <c r="R73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3751,8 +3931,11 @@
       <c r="R74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3801,8 +3984,11 @@
       <c r="R75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
@@ -3813,34 +3999,34 @@
         <v>900</v>
       </c>
       <c r="F76" s="3">
+        <v>900</v>
+      </c>
+      <c r="G76" s="3">
         <v>1000</v>
-      </c>
-      <c r="G76" s="3">
-        <v>1100</v>
       </c>
       <c r="H76" s="3">
         <v>1100</v>
       </c>
       <c r="I76" s="3">
-        <v>1200</v>
+        <v>1100</v>
       </c>
       <c r="J76" s="3">
         <v>1200</v>
       </c>
       <c r="K76" s="3">
-        <v>-200</v>
+        <v>1200</v>
       </c>
       <c r="L76" s="3">
         <v>-200</v>
       </c>
-      <c r="M76" s="3" t="s">
-        <v>4</v>
+      <c r="M76" s="3">
+        <v>-200</v>
       </c>
       <c r="N76" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="O76" s="3">
-        <v>-200</v>
+      <c r="O76" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="P76" s="3">
         <v>-200</v>
@@ -3851,8 +4037,11 @@
       <c r="R76" s="3">
         <v>-200</v>
       </c>
-    </row>
-    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S76" s="3">
+        <v>-200</v>
+      </c>
+    </row>
+    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3901,63 +4090,69 @@
       <c r="R77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44227</v>
+      </c>
+      <c r="E80" s="2">
         <v>44135</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44043</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43951</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43861</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43769</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43677</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43585</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43496</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43404</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43312</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43220</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>42947</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>42855</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42766</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42674</v>
       </c>
     </row>
-    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
@@ -3971,7 +4166,7 @@
         <v>-100</v>
       </c>
       <c r="G81" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="H81" s="3">
         <v>0</v>
@@ -4006,8 +4201,11 @@
       <c r="R81" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S81" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4026,8 +4224,9 @@
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
-    </row>
-    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S82" s="3"/>
+    </row>
+    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4076,8 +4275,11 @@
       <c r="R83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4126,8 +4328,11 @@
       <c r="R84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4176,8 +4381,11 @@
       <c r="R85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4226,8 +4434,11 @@
       <c r="R86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4276,8 +4487,11 @@
       <c r="R87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4326,19 +4540,22 @@
       <c r="R88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>-100</v>
+        <v>400</v>
       </c>
       <c r="E89" s="3">
         <v>-100</v>
       </c>
       <c r="F89" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="G89" s="3">
         <v>-100</v>
@@ -4376,8 +4593,11 @@
       <c r="R89" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4396,8 +4616,9 @@
       <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
-    </row>
-    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S90" s="3"/>
+    </row>
+    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -4446,8 +4667,11 @@
       <c r="R91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4496,8 +4720,11 @@
       <c r="R92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4546,13 +4773,16 @@
       <c r="R93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>0</v>
+        <v>-300</v>
       </c>
       <c r="E94" s="3">
         <v>0</v>
@@ -4567,14 +4797,14 @@
         <v>0</v>
       </c>
       <c r="I94" s="3">
+        <v>0</v>
+      </c>
+      <c r="J94" s="3">
         <v>1300</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-1400</v>
       </c>
-      <c r="K94" s="3">
-        <v>0</v>
-      </c>
       <c r="L94" s="3">
         <v>0</v>
       </c>
@@ -4596,8 +4826,11 @@
       <c r="R94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4616,8 +4849,9 @@
       <c r="P95" s="3"/>
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
-    </row>
-    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S95" s="3"/>
+    </row>
+    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4666,8 +4900,11 @@
       <c r="R96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4716,8 +4953,11 @@
       <c r="R97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4766,8 +5006,11 @@
       <c r="R98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4816,35 +5059,38 @@
       <c r="R99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E100" s="3">
         <v>100</v>
       </c>
       <c r="F100" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G100" s="3">
+        <v>0</v>
+      </c>
+      <c r="H100" s="3">
         <v>100</v>
       </c>
-      <c r="H100" s="3">
-        <v>0</v>
-      </c>
       <c r="I100" s="3">
+        <v>0</v>
+      </c>
+      <c r="J100" s="3">
         <v>-1400</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>1400</v>
       </c>
-      <c r="K100" s="3">
-        <v>0</v>
-      </c>
       <c r="L100" s="3">
         <v>0</v>
       </c>
@@ -4866,8 +5112,11 @@
       <c r="R100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4916,13 +5165,16 @@
       <c r="R101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E102" s="3">
         <v>0</v>
@@ -4964,6 +5216,9 @@
         <v>0</v>
       </c>
       <c r="R102" s="3">
+        <v>0</v>
+      </c>
+      <c r="S102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/CYAP_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/CYAP_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="219" uniqueCount="92">
   <si>
     <t>CYAP</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:S102"/>
+  <dimension ref="A5:T102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,86 +665,89 @@
     <col min="1" max="1" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44316</v>
+      </c>
+      <c r="E7" s="2">
         <v>44227</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44135</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44043</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43951</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43861</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43769</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43677</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43585</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43496</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43404</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43312</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43220</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>42947</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42855</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42766</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42674</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -796,8 +799,11 @@
       <c r="S8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -849,8 +855,11 @@
       <c r="S9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -902,8 +911,11 @@
       <c r="S10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -923,8 +935,9 @@
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T11" s="3"/>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -976,8 +989,11 @@
       <c r="S12" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1029,8 +1045,11 @@
       <c r="S13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1070,20 +1089,23 @@
       <c r="O14" s="3">
         <v>0</v>
       </c>
-      <c r="P14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q14" s="3">
-        <v>0</v>
-      </c>
-      <c r="R14" s="3" t="s">
-        <v>4</v>
+      <c r="P14" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R14" s="3">
+        <v>0</v>
       </c>
       <c r="S14" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T14" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1135,8 +1157,11 @@
       <c r="S15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1153,8 +1178,9 @@
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
-    </row>
-    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T16" s="3"/>
+    </row>
+    <row r="17" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
@@ -1171,7 +1197,7 @@
         <v>100</v>
       </c>
       <c r="H17" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I17" s="3">
         <v>0</v>
@@ -1206,8 +1232,11 @@
       <c r="S17" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T17" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1224,7 +1253,7 @@
         <v>-100</v>
       </c>
       <c r="H18" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="I18" s="3">
         <v>0</v>
@@ -1259,8 +1288,11 @@
       <c r="S18" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T18" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1280,8 +1312,9 @@
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
-    </row>
-    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T19" s="3"/>
+    </row>
+    <row r="20" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1333,8 +1366,11 @@
       <c r="S20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1344,8 +1380,8 @@
       <c r="E21" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F21" s="3">
-        <v>-100</v>
+      <c r="F21" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="G21" s="3" t="s">
         <v>4</v>
@@ -1353,11 +1389,11 @@
       <c r="H21" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="I21" s="3">
-        <v>0</v>
-      </c>
-      <c r="J21" s="3" t="s">
-        <v>4</v>
+      <c r="I21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J21" s="3">
+        <v>0</v>
       </c>
       <c r="K21" s="3" t="s">
         <v>4</v>
@@ -1386,8 +1422,11 @@
       <c r="S21" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T21" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1439,8 +1478,11 @@
       <c r="S22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
@@ -1457,7 +1499,7 @@
         <v>-100</v>
       </c>
       <c r="H23" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="I23" s="3">
         <v>0</v>
@@ -1492,8 +1534,11 @@
       <c r="S23" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T23" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1545,8 +1590,11 @@
       <c r="S24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1598,8 +1646,11 @@
       <c r="S25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
@@ -1616,7 +1667,7 @@
         <v>-100</v>
       </c>
       <c r="H26" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="I26" s="3">
         <v>0</v>
@@ -1651,8 +1702,11 @@
       <c r="S26" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T26" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
@@ -1669,7 +1723,7 @@
         <v>-100</v>
       </c>
       <c r="H27" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="I27" s="3">
         <v>0</v>
@@ -1704,8 +1758,11 @@
       <c r="S27" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T27" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1757,8 +1814,11 @@
       <c r="S28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1810,8 +1870,11 @@
       <c r="S29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1863,8 +1926,11 @@
       <c r="S30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1916,8 +1982,11 @@
       <c r="S31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1969,8 +2038,11 @@
       <c r="S32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
@@ -1987,7 +2059,7 @@
         <v>-100</v>
       </c>
       <c r="H33" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="I33" s="3">
         <v>0</v>
@@ -2022,8 +2094,11 @@
       <c r="S33" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T33" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2075,8 +2150,11 @@
       <c r="S34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
@@ -2093,7 +2171,7 @@
         <v>-100</v>
       </c>
       <c r="H35" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="I35" s="3">
         <v>0</v>
@@ -2128,66 +2206,72 @@
       <c r="S35" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T35" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44316</v>
+      </c>
+      <c r="E38" s="2">
         <v>44227</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44135</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44043</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43951</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43861</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43769</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43677</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43585</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43496</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43404</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43312</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43220</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>42947</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42855</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42766</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42674</v>
       </c>
     </row>
-    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2207,8 +2291,9 @@
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
-    </row>
-    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T39" s="3"/>
+    </row>
+    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2228,22 +2313,23 @@
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
-    </row>
-    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T40" s="3"/>
+    </row>
+    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>0</v>
+      </c>
+      <c r="E41" s="3">
         <v>100</v>
       </c>
-      <c r="E41" s="3">
-        <v>0</v>
-      </c>
       <c r="F41" s="3">
         <v>0</v>
       </c>
-      <c r="G41" s="3" t="s">
-        <v>4</v>
+      <c r="G41" s="3">
+        <v>0</v>
       </c>
       <c r="H41" s="3" t="s">
         <v>4</v>
@@ -2260,8 +2346,8 @@
       <c r="L41" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M41" s="3">
-        <v>0</v>
+      <c r="M41" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="N41" s="3">
         <v>0</v>
@@ -2281,8 +2367,11 @@
       <c r="S41" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2334,8 +2423,11 @@
       <c r="S42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2387,8 +2479,11 @@
       <c r="S43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2440,8 +2535,11 @@
       <c r="S44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2475,14 +2573,14 @@
       <c r="M45" s="3">
         <v>0</v>
       </c>
-      <c r="N45" s="3" t="s">
-        <v>4</v>
+      <c r="N45" s="3">
+        <v>0</v>
       </c>
       <c r="O45" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="P45" s="3">
-        <v>0</v>
+      <c r="P45" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Q45" s="3">
         <v>0</v>
@@ -2493,17 +2591,20 @@
       <c r="S45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>0</v>
+      </c>
+      <c r="E46" s="3">
         <v>100</v>
       </c>
-      <c r="E46" s="3">
-        <v>0</v>
-      </c>
       <c r="F46" s="3">
         <v>0</v>
       </c>
@@ -2528,14 +2629,14 @@
       <c r="M46" s="3">
         <v>0</v>
       </c>
-      <c r="N46" s="3" t="s">
-        <v>4</v>
+      <c r="N46" s="3">
+        <v>0</v>
       </c>
       <c r="O46" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="P46" s="3">
-        <v>0</v>
+      <c r="P46" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Q46" s="3">
         <v>0</v>
@@ -2546,8 +2647,11 @@
       <c r="S46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2599,25 +2703,28 @@
       <c r="S47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E48" s="3">
+      <c r="E48" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F48" s="3">
         <v>1400</v>
       </c>
-      <c r="F48" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="G48" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="H48" s="3">
-        <v>1400</v>
+      <c r="H48" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="I48" s="3">
         <v>1400</v>
@@ -2625,23 +2732,23 @@
       <c r="J48" s="3">
         <v>1400</v>
       </c>
-      <c r="K48" s="3" t="s">
-        <v>4</v>
+      <c r="K48" s="3">
+        <v>1400</v>
       </c>
       <c r="L48" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M48" s="3">
-        <v>0</v>
-      </c>
-      <c r="N48" s="3" t="s">
-        <v>4</v>
+      <c r="M48" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N48" s="3">
+        <v>0</v>
       </c>
       <c r="O48" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="P48" s="3">
-        <v>0</v>
+      <c r="P48" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Q48" s="3">
         <v>0</v>
@@ -2652,25 +2759,28 @@
       <c r="S48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
         <v>1700</v>
       </c>
-      <c r="E49" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F49" s="3">
-        <v>1400</v>
+      <c r="E49" s="3">
+        <v>1700</v>
+      </c>
+      <c r="F49" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="G49" s="3">
         <v>1400</v>
       </c>
-      <c r="H49" s="3" t="s">
-        <v>4</v>
+      <c r="H49" s="3">
+        <v>1400</v>
       </c>
       <c r="I49" s="3" t="s">
         <v>4</v>
@@ -2678,12 +2788,12 @@
       <c r="J49" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K49" s="3">
+      <c r="K49" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L49" s="3">
         <v>1400</v>
       </c>
-      <c r="L49" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="M49" s="3" t="s">
         <v>4</v>
       </c>
@@ -2693,8 +2803,8 @@
       <c r="O49" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="P49" s="3">
-        <v>0</v>
+      <c r="P49" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Q49" s="3">
         <v>0</v>
@@ -2705,8 +2815,11 @@
       <c r="S49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2758,8 +2871,11 @@
       <c r="S50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2811,8 +2927,11 @@
       <c r="S51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2864,8 +2983,11 @@
       <c r="S52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2917,16 +3039,19 @@
       <c r="S53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>1700</v>
+      </c>
+      <c r="E54" s="3">
         <v>1800</v>
-      </c>
-      <c r="E54" s="3">
-        <v>1400</v>
       </c>
       <c r="F54" s="3">
         <v>1400</v>
@@ -2947,19 +3072,19 @@
         <v>1400</v>
       </c>
       <c r="L54" s="3">
-        <v>0</v>
+        <v>1400</v>
       </c>
       <c r="M54" s="3">
         <v>0</v>
       </c>
-      <c r="N54" s="3" t="s">
-        <v>4</v>
+      <c r="N54" s="3">
+        <v>0</v>
       </c>
       <c r="O54" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="P54" s="3">
-        <v>0</v>
+      <c r="P54" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Q54" s="3">
         <v>0</v>
@@ -2970,8 +3095,11 @@
       <c r="S54" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T54" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2991,8 +3119,9 @@
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
-    </row>
-    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T55" s="3"/>
+    </row>
+    <row r="56" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3012,16 +3141,17 @@
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
-    </row>
-    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T56" s="3"/>
+    </row>
+    <row r="57" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>100</v>
+      </c>
+      <c r="E57" s="3">
         <v>200</v>
-      </c>
-      <c r="E57" s="3">
-        <v>100</v>
       </c>
       <c r="F57" s="3">
         <v>100</v>
@@ -3047,14 +3177,14 @@
       <c r="M57" s="3">
         <v>100</v>
       </c>
-      <c r="N57" s="3" t="s">
-        <v>4</v>
+      <c r="N57" s="3">
+        <v>100</v>
       </c>
       <c r="O57" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="P57" s="3">
-        <v>100</v>
+      <c r="P57" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Q57" s="3">
         <v>100</v>
@@ -3065,28 +3195,31 @@
       <c r="S57" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T57" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="58" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>800</v>
+      </c>
+      <c r="E58" s="3">
         <v>600</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>400</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>300</v>
-      </c>
-      <c r="G58" s="3">
-        <v>200</v>
       </c>
       <c r="H58" s="3">
         <v>200</v>
       </c>
       <c r="I58" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="J58" s="3">
         <v>100</v>
@@ -3100,14 +3233,14 @@
       <c r="M58" s="3">
         <v>100</v>
       </c>
-      <c r="N58" s="3" t="s">
-        <v>4</v>
+      <c r="N58" s="3">
+        <v>100</v>
       </c>
       <c r="O58" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="P58" s="3">
-        <v>100</v>
+      <c r="P58" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Q58" s="3">
         <v>100</v>
@@ -3118,8 +3251,11 @@
       <c r="S58" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T58" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="59" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -3171,28 +3307,31 @@
       <c r="S59" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T59" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>900</v>
+      </c>
+      <c r="E60" s="3">
         <v>800</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>500</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>400</v>
-      </c>
-      <c r="G60" s="3">
-        <v>300</v>
       </c>
       <c r="H60" s="3">
         <v>300</v>
       </c>
       <c r="I60" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="J60" s="3">
         <v>200</v>
@@ -3206,14 +3345,14 @@
       <c r="M60" s="3">
         <v>200</v>
       </c>
-      <c r="N60" s="3" t="s">
-        <v>4</v>
+      <c r="N60" s="3">
+        <v>200</v>
       </c>
       <c r="O60" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="P60" s="3">
-        <v>200</v>
+      <c r="P60" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Q60" s="3">
         <v>200</v>
@@ -3224,17 +3363,20 @@
       <c r="S60" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T60" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="61" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>0</v>
+      </c>
+      <c r="E61" s="3">
         <v>100</v>
       </c>
-      <c r="E61" s="3">
-        <v>0</v>
-      </c>
       <c r="F61" s="3">
         <v>0</v>
       </c>
@@ -3277,8 +3419,11 @@
       <c r="S61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -3291,23 +3436,23 @@
       <c r="F62" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G62" s="3">
-        <v>0</v>
-      </c>
-      <c r="H62" s="3" t="s">
-        <v>4</v>
+      <c r="G62" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H62" s="3">
+        <v>0</v>
       </c>
       <c r="I62" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="J62" s="3">
-        <v>0</v>
+      <c r="J62" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K62" s="3">
         <v>0</v>
       </c>
-      <c r="L62" s="3" t="s">
-        <v>4</v>
+      <c r="L62" s="3">
+        <v>0</v>
       </c>
       <c r="M62" s="3" t="s">
         <v>4</v>
@@ -3318,8 +3463,8 @@
       <c r="O62" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="P62" s="3">
-        <v>0</v>
+      <c r="P62" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Q62" s="3">
         <v>0</v>
@@ -3330,8 +3475,11 @@
       <c r="S62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3383,8 +3531,11 @@
       <c r="S63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3436,8 +3587,11 @@
       <c r="S64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3489,8 +3643,11 @@
       <c r="S65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
@@ -3498,19 +3655,19 @@
         <v>900</v>
       </c>
       <c r="E66" s="3">
+        <v>900</v>
+      </c>
+      <c r="F66" s="3">
         <v>500</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>400</v>
-      </c>
-      <c r="G66" s="3">
-        <v>300</v>
       </c>
       <c r="H66" s="3">
         <v>300</v>
       </c>
       <c r="I66" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="J66" s="3">
         <v>200</v>
@@ -3524,14 +3681,14 @@
       <c r="M66" s="3">
         <v>200</v>
       </c>
-      <c r="N66" s="3" t="s">
-        <v>4</v>
+      <c r="N66" s="3">
+        <v>200</v>
       </c>
       <c r="O66" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="P66" s="3">
-        <v>200</v>
+      <c r="P66" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Q66" s="3">
         <v>200</v>
@@ -3542,8 +3699,11 @@
       <c r="S66" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T66" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3563,8 +3723,9 @@
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
-    </row>
-    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T67" s="3"/>
+    </row>
+    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3616,8 +3777,11 @@
       <c r="S68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3669,8 +3833,11 @@
       <c r="S69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3722,8 +3889,11 @@
       <c r="S70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3775,28 +3945,31 @@
       <c r="S71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-9100</v>
+      </c>
+      <c r="E72" s="3">
         <v>-9000</v>
-      </c>
-      <c r="E72" s="3">
-        <v>-8900</v>
       </c>
       <c r="F72" s="3">
         <v>-8900</v>
       </c>
       <c r="G72" s="3">
-        <v>-8700</v>
+        <v>-8900</v>
       </c>
       <c r="H72" s="3">
         <v>-8700</v>
       </c>
       <c r="I72" s="3">
-        <v>-8600</v>
+        <v>-8700</v>
       </c>
       <c r="J72" s="3">
         <v>-8600</v>
@@ -3810,14 +3983,14 @@
       <c r="M72" s="3">
         <v>-8600</v>
       </c>
-      <c r="N72" s="3" t="s">
-        <v>4</v>
+      <c r="N72" s="3">
+        <v>-8600</v>
       </c>
       <c r="O72" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="P72" s="3">
-        <v>-8600</v>
+      <c r="P72" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Q72" s="3">
         <v>-8600</v>
@@ -3828,8 +4001,11 @@
       <c r="S72" s="3">
         <v>-8600</v>
       </c>
-    </row>
-    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T72" s="3">
+        <v>-8600</v>
+      </c>
+    </row>
+    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3881,8 +4057,11 @@
       <c r="S73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3934,8 +4113,11 @@
       <c r="S74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3987,13 +4169,16 @@
       <c r="S75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>900</v>
+        <v>800</v>
       </c>
       <c r="E76" s="3">
         <v>900</v>
@@ -4002,34 +4187,34 @@
         <v>900</v>
       </c>
       <c r="G76" s="3">
+        <v>900</v>
+      </c>
+      <c r="H76" s="3">
         <v>1000</v>
-      </c>
-      <c r="H76" s="3">
-        <v>1100</v>
       </c>
       <c r="I76" s="3">
         <v>1100</v>
       </c>
       <c r="J76" s="3">
-        <v>1200</v>
+        <v>1100</v>
       </c>
       <c r="K76" s="3">
         <v>1200</v>
       </c>
       <c r="L76" s="3">
-        <v>-200</v>
+        <v>1200</v>
       </c>
       <c r="M76" s="3">
         <v>-200</v>
       </c>
-      <c r="N76" s="3" t="s">
-        <v>4</v>
+      <c r="N76" s="3">
+        <v>-200</v>
       </c>
       <c r="O76" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="P76" s="3">
-        <v>-200</v>
+      <c r="P76" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Q76" s="3">
         <v>-200</v>
@@ -4040,8 +4225,11 @@
       <c r="S76" s="3">
         <v>-200</v>
       </c>
-    </row>
-    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T76" s="3">
+        <v>-200</v>
+      </c>
+    </row>
+    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4093,66 +4281,72 @@
       <c r="S77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44316</v>
+      </c>
+      <c r="E80" s="2">
         <v>44227</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44135</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44043</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43951</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43861</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43769</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43677</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43585</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43496</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43404</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43312</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43220</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>42947</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42855</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42766</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42674</v>
       </c>
     </row>
-    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
@@ -4169,7 +4363,7 @@
         <v>-100</v>
       </c>
       <c r="H81" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="I81" s="3">
         <v>0</v>
@@ -4204,8 +4398,11 @@
       <c r="S81" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T81" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4225,8 +4422,9 @@
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
-    </row>
-    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T82" s="3"/>
+    </row>
+    <row r="83" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4278,8 +4476,11 @@
       <c r="S83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4331,8 +4532,11 @@
       <c r="S84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4384,8 +4588,11 @@
       <c r="S85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4437,8 +4644,11 @@
       <c r="S86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4490,8 +4700,11 @@
       <c r="S87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4543,16 +4756,19 @@
       <c r="S88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-600</v>
+      </c>
+      <c r="E89" s="3">
         <v>400</v>
-      </c>
-      <c r="E89" s="3">
-        <v>-100</v>
       </c>
       <c r="F89" s="3">
         <v>-100</v>
@@ -4561,7 +4777,7 @@
         <v>-100</v>
       </c>
       <c r="H89" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="I89" s="3">
         <v>0</v>
@@ -4596,8 +4812,11 @@
       <c r="S89" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4617,8 +4836,9 @@
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
-    </row>
-    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T90" s="3"/>
+    </row>
+    <row r="91" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -4670,8 +4890,11 @@
       <c r="S91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4723,8 +4946,11 @@
       <c r="S92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4776,38 +5002,41 @@
       <c r="S93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>500</v>
+      </c>
+      <c r="E94" s="3">
         <v>-300</v>
       </c>
-      <c r="E94" s="3">
-        <v>0</v>
-      </c>
       <c r="F94" s="3">
         <v>0</v>
       </c>
       <c r="G94" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="H94" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I94" s="3">
         <v>0</v>
       </c>
       <c r="J94" s="3">
+        <v>0</v>
+      </c>
+      <c r="K94" s="3">
         <v>1300</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-1400</v>
       </c>
-      <c r="L94" s="3">
-        <v>0</v>
-      </c>
       <c r="M94" s="3">
         <v>0</v>
       </c>
@@ -4829,8 +5058,11 @@
       <c r="S94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4850,8 +5082,9 @@
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
-    </row>
-    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T95" s="3"/>
+    </row>
+    <row r="96" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4903,8 +5136,11 @@
       <c r="S96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4956,8 +5192,11 @@
       <c r="S97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5009,8 +5248,11 @@
       <c r="S98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5062,8 +5304,11 @@
       <c r="S99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -5071,29 +5316,29 @@
         <v>0</v>
       </c>
       <c r="E100" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F100" s="3">
         <v>100</v>
       </c>
       <c r="G100" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H100" s="3">
+        <v>0</v>
+      </c>
+      <c r="I100" s="3">
         <v>100</v>
       </c>
-      <c r="I100" s="3">
-        <v>0</v>
-      </c>
       <c r="J100" s="3">
+        <v>0</v>
+      </c>
+      <c r="K100" s="3">
         <v>-1400</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>1400</v>
       </c>
-      <c r="L100" s="3">
-        <v>0</v>
-      </c>
       <c r="M100" s="3">
         <v>0</v>
       </c>
@@ -5115,8 +5360,11 @@
       <c r="S100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5168,17 +5416,20 @@
       <c r="S101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>0</v>
+      </c>
+      <c r="E102" s="3">
         <v>100</v>
       </c>
-      <c r="E102" s="3">
-        <v>0</v>
-      </c>
       <c r="F102" s="3">
         <v>0</v>
       </c>
@@ -5219,6 +5470,9 @@
         <v>0</v>
       </c>
       <c r="S102" s="3">
+        <v>0</v>
+      </c>
+      <c r="T102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/CYAP_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/CYAP_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="219" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="92">
   <si>
     <t>CYAP</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:T102"/>
+  <dimension ref="A5:U102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,89 +665,93 @@
     <col min="1" max="1" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44408</v>
+      </c>
+      <c r="E7" s="2">
         <v>44316</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44227</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44135</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44043</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43951</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43861</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43769</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43677</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43585</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43496</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43404</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43312</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43220</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42947</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42855</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42766</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42674</v>
       </c>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -802,8 +806,11 @@
       <c r="T8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -858,8 +865,11 @@
       <c r="T9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -914,8 +924,11 @@
       <c r="T10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -936,8 +949,9 @@
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
-    </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U11" s="3"/>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -992,8 +1006,11 @@
       <c r="T12" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1048,8 +1065,11 @@
       <c r="T13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1092,20 +1112,23 @@
       <c r="P14" s="3">
         <v>0</v>
       </c>
-      <c r="Q14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="R14" s="3">
-        <v>0</v>
-      </c>
-      <c r="S14" s="3" t="s">
-        <v>4</v>
+      <c r="Q14" s="3">
+        <v>0</v>
+      </c>
+      <c r="R14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S14" s="3">
+        <v>0</v>
       </c>
       <c r="T14" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U14" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1160,8 +1183,11 @@
       <c r="T15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1179,13 +1205,14 @@
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
       <c r="T16" s="3"/>
-    </row>
-    <row r="17" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U16" s="3"/>
+    </row>
+    <row r="17" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="E17" s="3">
         <v>100</v>
@@ -1200,7 +1227,7 @@
         <v>100</v>
       </c>
       <c r="I17" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J17" s="3">
         <v>0</v>
@@ -1235,8 +1262,11 @@
       <c r="T17" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U17" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1256,7 +1286,7 @@
         <v>-100</v>
       </c>
       <c r="I18" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="J18" s="3">
         <v>0</v>
@@ -1291,8 +1321,11 @@
       <c r="T18" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U18" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1313,8 +1346,9 @@
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
       <c r="T19" s="3"/>
-    </row>
-    <row r="20" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U19" s="3"/>
+    </row>
+    <row r="20" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1369,8 +1403,11 @@
       <c r="T20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1392,11 +1429,11 @@
       <c r="I21" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="J21" s="3">
-        <v>0</v>
-      </c>
-      <c r="K21" s="3" t="s">
-        <v>4</v>
+      <c r="J21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K21" s="3">
+        <v>0</v>
       </c>
       <c r="L21" s="3" t="s">
         <v>4</v>
@@ -1425,8 +1462,11 @@
       <c r="T21" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="22" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U21" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1481,13 +1521,16 @@
       <c r="T22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-100</v>
+        <v>-300</v>
       </c>
       <c r="E23" s="3">
         <v>-100</v>
@@ -1502,7 +1545,7 @@
         <v>-100</v>
       </c>
       <c r="I23" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="J23" s="3">
         <v>0</v>
@@ -1537,8 +1580,11 @@
       <c r="T23" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U23" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1593,8 +1639,11 @@
       <c r="T24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1649,13 +1698,16 @@
       <c r="T25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-100</v>
+        <v>-300</v>
       </c>
       <c r="E26" s="3">
         <v>-100</v>
@@ -1670,7 +1722,7 @@
         <v>-100</v>
       </c>
       <c r="I26" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="J26" s="3">
         <v>0</v>
@@ -1705,13 +1757,16 @@
       <c r="T26" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U26" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-100</v>
+        <v>-300</v>
       </c>
       <c r="E27" s="3">
         <v>-100</v>
@@ -1726,7 +1781,7 @@
         <v>-100</v>
       </c>
       <c r="I27" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="J27" s="3">
         <v>0</v>
@@ -1761,8 +1816,11 @@
       <c r="T27" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U27" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1817,8 +1875,11 @@
       <c r="T28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1873,8 +1934,11 @@
       <c r="T29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1929,8 +1993,11 @@
       <c r="T30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1985,8 +2052,11 @@
       <c r="T31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -2041,13 +2111,16 @@
       <c r="T32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-100</v>
+        <v>-300</v>
       </c>
       <c r="E33" s="3">
         <v>-100</v>
@@ -2062,7 +2135,7 @@
         <v>-100</v>
       </c>
       <c r="I33" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="J33" s="3">
         <v>0</v>
@@ -2097,8 +2170,11 @@
       <c r="T33" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U33" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2153,13 +2229,16 @@
       <c r="T34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-100</v>
+        <v>-300</v>
       </c>
       <c r="E35" s="3">
         <v>-100</v>
@@ -2174,7 +2253,7 @@
         <v>-100</v>
       </c>
       <c r="I35" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="J35" s="3">
         <v>0</v>
@@ -2209,69 +2288,75 @@
       <c r="T35" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U35" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44408</v>
+      </c>
+      <c r="E38" s="2">
         <v>44316</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44227</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44135</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44043</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43951</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43861</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43769</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43677</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43585</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43496</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43404</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43312</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43220</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42947</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42855</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42766</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42674</v>
       </c>
     </row>
-    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2292,8 +2377,9 @@
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
       <c r="T39" s="3"/>
-    </row>
-    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U39" s="3"/>
+    </row>
+    <row r="40" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2314,25 +2400,26 @@
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
       <c r="T40" s="3"/>
-    </row>
-    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U40" s="3"/>
+    </row>
+    <row r="41" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E41" s="3">
+        <v>0</v>
+      </c>
+      <c r="F41" s="3">
         <v>100</v>
       </c>
-      <c r="F41" s="3">
-        <v>0</v>
-      </c>
       <c r="G41" s="3">
         <v>0</v>
       </c>
-      <c r="H41" s="3" t="s">
-        <v>4</v>
+      <c r="H41" s="3">
+        <v>0</v>
       </c>
       <c r="I41" s="3" t="s">
         <v>4</v>
@@ -2349,8 +2436,8 @@
       <c r="M41" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N41" s="3">
-        <v>0</v>
+      <c r="N41" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="O41" s="3">
         <v>0</v>
@@ -2370,8 +2457,11 @@
       <c r="T41" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2426,8 +2516,11 @@
       <c r="T42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2482,8 +2575,11 @@
       <c r="T43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2538,8 +2634,11 @@
       <c r="T44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2576,14 +2675,14 @@
       <c r="N45" s="3">
         <v>0</v>
       </c>
-      <c r="O45" s="3" t="s">
-        <v>4</v>
+      <c r="O45" s="3">
+        <v>0</v>
       </c>
       <c r="P45" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Q45" s="3">
-        <v>0</v>
+      <c r="Q45" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="R45" s="3">
         <v>0</v>
@@ -2594,20 +2693,23 @@
       <c r="T45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E46" s="3">
+        <v>0</v>
+      </c>
+      <c r="F46" s="3">
         <v>100</v>
       </c>
-      <c r="F46" s="3">
-        <v>0</v>
-      </c>
       <c r="G46" s="3">
         <v>0</v>
       </c>
@@ -2632,14 +2734,14 @@
       <c r="N46" s="3">
         <v>0</v>
       </c>
-      <c r="O46" s="3" t="s">
-        <v>4</v>
+      <c r="O46" s="3">
+        <v>0</v>
       </c>
       <c r="P46" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Q46" s="3">
-        <v>0</v>
+      <c r="Q46" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="R46" s="3">
         <v>0</v>
@@ -2650,8 +2752,11 @@
       <c r="T46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2706,28 +2811,31 @@
       <c r="T47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="D48" s="3" t="s">
-        <v>4</v>
+      <c r="D48" s="3">
+        <v>300</v>
       </c>
       <c r="E48" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F48" s="3">
+      <c r="F48" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G48" s="3">
         <v>1400</v>
       </c>
-      <c r="G48" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H48" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I48" s="3">
-        <v>1400</v>
+      <c r="H48" s="3">
+        <v>0</v>
+      </c>
+      <c r="I48" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="J48" s="3">
         <v>1400</v>
@@ -2735,23 +2843,23 @@
       <c r="K48" s="3">
         <v>1400</v>
       </c>
-      <c r="L48" s="3" t="s">
-        <v>4</v>
+      <c r="L48" s="3">
+        <v>1400</v>
       </c>
       <c r="M48" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N48" s="3">
-        <v>0</v>
-      </c>
-      <c r="O48" s="3" t="s">
-        <v>4</v>
+      <c r="N48" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O48" s="3">
+        <v>0</v>
       </c>
       <c r="P48" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Q48" s="3">
-        <v>0</v>
+      <c r="Q48" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="R48" s="3">
         <v>0</v>
@@ -2762,28 +2870,31 @@
       <c r="T48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>1700</v>
+        <v>1400</v>
       </c>
       <c r="E49" s="3">
         <v>1700</v>
       </c>
-      <c r="F49" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G49" s="3">
-        <v>1400</v>
+      <c r="F49" s="3">
+        <v>1700</v>
+      </c>
+      <c r="G49" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="H49" s="3">
         <v>1400</v>
       </c>
-      <c r="I49" s="3" t="s">
-        <v>4</v>
+      <c r="I49" s="3">
+        <v>1400</v>
       </c>
       <c r="J49" s="3" t="s">
         <v>4</v>
@@ -2791,12 +2902,12 @@
       <c r="K49" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="L49" s="3">
+      <c r="L49" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M49" s="3">
         <v>1400</v>
       </c>
-      <c r="M49" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="N49" s="3" t="s">
         <v>4</v>
       </c>
@@ -2806,8 +2917,8 @@
       <c r="P49" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Q49" s="3">
-        <v>0</v>
+      <c r="Q49" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="R49" s="3">
         <v>0</v>
@@ -2818,8 +2929,11 @@
       <c r="T49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2874,8 +2988,11 @@
       <c r="T50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2930,8 +3047,11 @@
       <c r="T51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2986,8 +3106,11 @@
       <c r="T52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3042,19 +3165,22 @@
       <c r="T53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>1800</v>
+      </c>
+      <c r="E54" s="3">
         <v>1700</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>1800</v>
-      </c>
-      <c r="F54" s="3">
-        <v>1400</v>
       </c>
       <c r="G54" s="3">
         <v>1400</v>
@@ -3075,19 +3201,19 @@
         <v>1400</v>
       </c>
       <c r="M54" s="3">
-        <v>0</v>
+        <v>1400</v>
       </c>
       <c r="N54" s="3">
         <v>0</v>
       </c>
-      <c r="O54" s="3" t="s">
-        <v>4</v>
+      <c r="O54" s="3">
+        <v>0</v>
       </c>
       <c r="P54" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Q54" s="3">
-        <v>0</v>
+      <c r="Q54" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="R54" s="3">
         <v>0</v>
@@ -3098,8 +3224,11 @@
       <c r="T54" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="55" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U54" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3120,8 +3249,9 @@
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
       <c r="T55" s="3"/>
-    </row>
-    <row r="56" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U55" s="3"/>
+    </row>
+    <row r="56" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3142,19 +3272,20 @@
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
       <c r="T56" s="3"/>
-    </row>
-    <row r="57" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U56" s="3"/>
+    </row>
+    <row r="57" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>200</v>
+      </c>
+      <c r="E57" s="3">
         <v>100</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>200</v>
-      </c>
-      <c r="F57" s="3">
-        <v>100</v>
       </c>
       <c r="G57" s="3">
         <v>100</v>
@@ -3180,14 +3311,14 @@
       <c r="N57" s="3">
         <v>100</v>
       </c>
-      <c r="O57" s="3" t="s">
-        <v>4</v>
+      <c r="O57" s="3">
+        <v>100</v>
       </c>
       <c r="P57" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Q57" s="3">
-        <v>100</v>
+      <c r="Q57" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="R57" s="3">
         <v>100</v>
@@ -3198,31 +3329,34 @@
       <c r="T57" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="58" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U57" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="58" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="D58" s="3">
+      <c r="D58" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E58" s="3">
         <v>800</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>600</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>400</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>300</v>
-      </c>
-      <c r="H58" s="3">
-        <v>200</v>
       </c>
       <c r="I58" s="3">
         <v>200</v>
       </c>
       <c r="J58" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="K58" s="3">
         <v>100</v>
@@ -3236,14 +3370,14 @@
       <c r="N58" s="3">
         <v>100</v>
       </c>
-      <c r="O58" s="3" t="s">
-        <v>4</v>
+      <c r="O58" s="3">
+        <v>100</v>
       </c>
       <c r="P58" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Q58" s="3">
-        <v>100</v>
+      <c r="Q58" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="R58" s="3">
         <v>100</v>
@@ -3254,13 +3388,16 @@
       <c r="T58" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="59" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U58" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="59" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="D59" s="3">
-        <v>0</v>
+      <c r="D59" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E59" s="3">
         <v>0</v>
@@ -3310,31 +3447,34 @@
       <c r="T59" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U59" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>200</v>
+      </c>
+      <c r="E60" s="3">
         <v>900</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>800</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>500</v>
       </c>
-      <c r="G60" s="3">
-        <v>400</v>
-      </c>
       <c r="H60" s="3">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="I60" s="3">
         <v>300</v>
       </c>
       <c r="J60" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="K60" s="3">
         <v>200</v>
@@ -3348,14 +3488,14 @@
       <c r="N60" s="3">
         <v>200</v>
       </c>
-      <c r="O60" s="3" t="s">
-        <v>4</v>
+      <c r="O60" s="3">
+        <v>200</v>
       </c>
       <c r="P60" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Q60" s="3">
-        <v>200</v>
+      <c r="Q60" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="R60" s="3">
         <v>200</v>
@@ -3366,25 +3506,28 @@
       <c r="T60" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="61" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U60" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="61" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="E61" s="3">
+        <v>0</v>
+      </c>
+      <c r="F61" s="3">
         <v>100</v>
       </c>
-      <c r="F61" s="3">
-        <v>0</v>
-      </c>
       <c r="G61" s="3">
         <v>0</v>
       </c>
       <c r="H61" s="3">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="I61" s="3">
         <v>0</v>
@@ -3422,8 +3565,11 @@
       <c r="T61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -3439,23 +3585,23 @@
       <c r="G62" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="H62" s="3">
-        <v>0</v>
-      </c>
-      <c r="I62" s="3" t="s">
-        <v>4</v>
+      <c r="H62" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I62" s="3">
+        <v>0</v>
       </c>
       <c r="J62" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K62" s="3">
-        <v>0</v>
+      <c r="K62" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="L62" s="3">
         <v>0</v>
       </c>
-      <c r="M62" s="3" t="s">
-        <v>4</v>
+      <c r="M62" s="3">
+        <v>0</v>
       </c>
       <c r="N62" s="3" t="s">
         <v>4</v>
@@ -3466,8 +3612,8 @@
       <c r="P62" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Q62" s="3">
-        <v>0</v>
+      <c r="Q62" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="R62" s="3">
         <v>0</v>
@@ -3478,8 +3624,11 @@
       <c r="T62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3534,8 +3683,11 @@
       <c r="T63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3590,8 +3742,11 @@
       <c r="T64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3646,31 +3801,34 @@
       <c r="T65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>900</v>
+        <v>700</v>
       </c>
       <c r="E66" s="3">
         <v>900</v>
       </c>
       <c r="F66" s="3">
+        <v>900</v>
+      </c>
+      <c r="G66" s="3">
         <v>500</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>400</v>
-      </c>
-      <c r="H66" s="3">
-        <v>300</v>
       </c>
       <c r="I66" s="3">
         <v>300</v>
       </c>
       <c r="J66" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="K66" s="3">
         <v>200</v>
@@ -3684,14 +3842,14 @@
       <c r="N66" s="3">
         <v>200</v>
       </c>
-      <c r="O66" s="3" t="s">
-        <v>4</v>
+      <c r="O66" s="3">
+        <v>200</v>
       </c>
       <c r="P66" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Q66" s="3">
-        <v>200</v>
+      <c r="Q66" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="R66" s="3">
         <v>200</v>
@@ -3702,8 +3860,11 @@
       <c r="T66" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U66" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="67" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3724,8 +3885,9 @@
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
       <c r="T67" s="3"/>
-    </row>
-    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U67" s="3"/>
+    </row>
+    <row r="68" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3780,8 +3942,11 @@
       <c r="T68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3836,8 +4001,11 @@
       <c r="T69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3892,8 +4060,11 @@
       <c r="T70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3948,31 +4119,34 @@
       <c r="T71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-9400</v>
+      </c>
+      <c r="E72" s="3">
         <v>-9100</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-9000</v>
-      </c>
-      <c r="F72" s="3">
-        <v>-8900</v>
       </c>
       <c r="G72" s="3">
         <v>-8900</v>
       </c>
       <c r="H72" s="3">
-        <v>-8700</v>
+        <v>-8900</v>
       </c>
       <c r="I72" s="3">
         <v>-8700</v>
       </c>
       <c r="J72" s="3">
-        <v>-8600</v>
+        <v>-8700</v>
       </c>
       <c r="K72" s="3">
         <v>-8600</v>
@@ -3986,14 +4160,14 @@
       <c r="N72" s="3">
         <v>-8600</v>
       </c>
-      <c r="O72" s="3" t="s">
-        <v>4</v>
+      <c r="O72" s="3">
+        <v>-8600</v>
       </c>
       <c r="P72" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Q72" s="3">
-        <v>-8600</v>
+      <c r="Q72" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="R72" s="3">
         <v>-8600</v>
@@ -4004,8 +4178,11 @@
       <c r="T72" s="3">
         <v>-8600</v>
       </c>
-    </row>
-    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U72" s="3">
+        <v>-8600</v>
+      </c>
+    </row>
+    <row r="73" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4060,8 +4237,11 @@
       <c r="T73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4116,8 +4296,11 @@
       <c r="T74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4172,16 +4355,19 @@
       <c r="T75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>1100</v>
+      </c>
+      <c r="E76" s="3">
         <v>800</v>
-      </c>
-      <c r="E76" s="3">
-        <v>900</v>
       </c>
       <c r="F76" s="3">
         <v>900</v>
@@ -4190,34 +4376,34 @@
         <v>900</v>
       </c>
       <c r="H76" s="3">
+        <v>900</v>
+      </c>
+      <c r="I76" s="3">
         <v>1000</v>
-      </c>
-      <c r="I76" s="3">
-        <v>1100</v>
       </c>
       <c r="J76" s="3">
         <v>1100</v>
       </c>
       <c r="K76" s="3">
-        <v>1200</v>
+        <v>1100</v>
       </c>
       <c r="L76" s="3">
         <v>1200</v>
       </c>
       <c r="M76" s="3">
-        <v>-200</v>
+        <v>1200</v>
       </c>
       <c r="N76" s="3">
         <v>-200</v>
       </c>
-      <c r="O76" s="3" t="s">
-        <v>4</v>
+      <c r="O76" s="3">
+        <v>-200</v>
       </c>
       <c r="P76" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Q76" s="3">
-        <v>-200</v>
+      <c r="Q76" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="R76" s="3">
         <v>-200</v>
@@ -4228,8 +4414,11 @@
       <c r="T76" s="3">
         <v>-200</v>
       </c>
-    </row>
-    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U76" s="3">
+        <v>-200</v>
+      </c>
+    </row>
+    <row r="77" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4284,74 +4473,80 @@
       <c r="T77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44408</v>
+      </c>
+      <c r="E80" s="2">
         <v>44316</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44227</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44135</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44043</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43951</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43861</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43769</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43677</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43585</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43496</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43404</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43312</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43220</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42947</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42855</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42766</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42674</v>
       </c>
     </row>
-    <row r="81" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-100</v>
+        <v>-300</v>
       </c>
       <c r="E81" s="3">
         <v>-100</v>
@@ -4366,7 +4561,7 @@
         <v>-100</v>
       </c>
       <c r="I81" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="J81" s="3">
         <v>0</v>
@@ -4401,8 +4596,11 @@
       <c r="T81" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="82" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U81" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4423,8 +4621,9 @@
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
       <c r="T82" s="3"/>
-    </row>
-    <row r="83" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U82" s="3"/>
+    </row>
+    <row r="83" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4479,8 +4678,11 @@
       <c r="T83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4535,8 +4737,11 @@
       <c r="T84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4591,8 +4796,11 @@
       <c r="T85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4647,8 +4855,11 @@
       <c r="T86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4703,8 +4914,11 @@
       <c r="T87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4759,29 +4973,32 @@
       <c r="T88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>0</v>
+      </c>
+      <c r="E89" s="3">
         <v>-600</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>400</v>
-      </c>
-      <c r="F89" s="3">
-        <v>-100</v>
       </c>
       <c r="G89" s="3">
         <v>-100</v>
       </c>
       <c r="H89" s="3">
+        <v>100</v>
+      </c>
+      <c r="I89" s="3">
         <v>-100</v>
       </c>
-      <c r="I89" s="3">
-        <v>0</v>
-      </c>
       <c r="J89" s="3">
         <v>0</v>
       </c>
@@ -4815,8 +5032,11 @@
       <c r="T89" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4837,8 +5057,9 @@
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
       <c r="T90" s="3"/>
-    </row>
-    <row r="91" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U90" s="3"/>
+    </row>
+    <row r="91" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -4893,8 +5114,11 @@
       <c r="T91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4949,8 +5173,11 @@
       <c r="T92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5005,41 +5232,44 @@
       <c r="T93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-500</v>
+      </c>
+      <c r="E94" s="3">
         <v>500</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-300</v>
       </c>
-      <c r="F94" s="3">
-        <v>0</v>
-      </c>
       <c r="G94" s="3">
+        <v>0</v>
+      </c>
+      <c r="H94" s="3">
         <v>-100</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>100</v>
       </c>
-      <c r="I94" s="3">
-        <v>0</v>
-      </c>
       <c r="J94" s="3">
         <v>0</v>
       </c>
       <c r="K94" s="3">
+        <v>0</v>
+      </c>
+      <c r="L94" s="3">
         <v>1300</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-1400</v>
       </c>
-      <c r="M94" s="3">
-        <v>0</v>
-      </c>
       <c r="N94" s="3">
         <v>0</v>
       </c>
@@ -5061,8 +5291,11 @@
       <c r="T94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5083,8 +5316,9 @@
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
       <c r="T95" s="3"/>
-    </row>
-    <row r="96" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U95" s="3"/>
+    </row>
+    <row r="96" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5139,8 +5373,11 @@
       <c r="T96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5195,8 +5432,11 @@
       <c r="T97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5251,8 +5491,11 @@
       <c r="T98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5307,41 +5550,44 @@
       <c r="T99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>0</v>
+        <v>600</v>
       </c>
       <c r="E100" s="3">
         <v>0</v>
       </c>
       <c r="F100" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G100" s="3">
         <v>100</v>
       </c>
       <c r="H100" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I100" s="3">
+        <v>0</v>
+      </c>
+      <c r="J100" s="3">
         <v>100</v>
       </c>
-      <c r="J100" s="3">
-        <v>0</v>
-      </c>
       <c r="K100" s="3">
+        <v>0</v>
+      </c>
+      <c r="L100" s="3">
         <v>-1400</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>1400</v>
       </c>
-      <c r="M100" s="3">
-        <v>0</v>
-      </c>
       <c r="N100" s="3">
         <v>0</v>
       </c>
@@ -5363,8 +5609,11 @@
       <c r="T100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5419,8 +5668,11 @@
       <c r="T101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -5428,11 +5680,11 @@
         <v>0</v>
       </c>
       <c r="E102" s="3">
+        <v>0</v>
+      </c>
+      <c r="F102" s="3">
         <v>100</v>
       </c>
-      <c r="F102" s="3">
-        <v>0</v>
-      </c>
       <c r="G102" s="3">
         <v>0</v>
       </c>
@@ -5473,6 +5725,9 @@
         <v>0</v>
       </c>
       <c r="T102" s="3">
+        <v>0</v>
+      </c>
+      <c r="U102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/CYAP_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/CYAP_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="250" uniqueCount="92">
   <si>
     <t>CYAP</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:U102"/>
+  <dimension ref="A5:W102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,93 +665,101 @@
     <col min="1" max="1" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="16384" width="9.140625" style="1"/>
+    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44592</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44500</v>
+      </c>
+      <c r="F7" s="2">
         <v>44408</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44316</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>44227</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>44135</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>44043</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>43951</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>43861</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>43769</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>43677</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>43585</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>43496</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>43404</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>43312</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="S7" s="2">
         <v>43220</v>
       </c>
-      <c r="R7" s="2">
+      <c r="T7" s="2">
         <v>42947</v>
       </c>
-      <c r="S7" s="2">
+      <c r="U7" s="2">
         <v>42855</v>
       </c>
-      <c r="T7" s="2">
+      <c r="V7" s="2">
         <v>42766</v>
       </c>
-      <c r="U7" s="2">
+      <c r="W7" s="2">
         <v>42674</v>
       </c>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -809,8 +817,14 @@
       <c r="U8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V8" s="3">
+        <v>0</v>
+      </c>
+      <c r="W8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -868,8 +882,14 @@
       <c r="U9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="W9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -927,8 +947,14 @@
       <c r="U10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="W10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -950,8 +976,10 @@
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
       <c r="U11" s="3"/>
-    </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V11" s="3"/>
+      <c r="W11" s="3"/>
+    </row>
+    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -1009,8 +1037,14 @@
       <c r="U12" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V12" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="W12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1068,8 +1102,14 @@
       <c r="U13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V13" s="3">
+        <v>0</v>
+      </c>
+      <c r="W13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1115,8 +1155,8 @@
       <c r="Q14" s="3">
         <v>0</v>
       </c>
-      <c r="R14" s="3" t="s">
-        <v>4</v>
+      <c r="R14" s="3">
+        <v>0</v>
       </c>
       <c r="S14" s="3">
         <v>0</v>
@@ -1124,11 +1164,17 @@
       <c r="T14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="U14" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="U14" s="3">
+        <v>0</v>
+      </c>
+      <c r="V14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="W14" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1186,8 +1232,14 @@
       <c r="U15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V15" s="3">
+        <v>0</v>
+      </c>
+      <c r="W15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1206,19 +1258,21 @@
       <c r="S16" s="3"/>
       <c r="T16" s="3"/>
       <c r="U16" s="3"/>
-    </row>
-    <row r="17" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V16" s="3"/>
+      <c r="W16" s="3"/>
+    </row>
+    <row r="17" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D17" s="3">
-        <v>300</v>
+      <c r="D17" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E17" s="3">
         <v>100</v>
       </c>
       <c r="F17" s="3">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="G17" s="3">
         <v>100</v>
@@ -1230,10 +1284,10 @@
         <v>100</v>
       </c>
       <c r="J17" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K17" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L17" s="3">
         <v>0</v>
@@ -1265,8 +1319,14 @@
       <c r="U17" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V17" s="3">
+        <v>0</v>
+      </c>
+      <c r="W17" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1277,7 +1337,7 @@
         <v>-100</v>
       </c>
       <c r="F18" s="3">
-        <v>-100</v>
+        <v>-300</v>
       </c>
       <c r="G18" s="3">
         <v>-100</v>
@@ -1289,10 +1349,10 @@
         <v>-100</v>
       </c>
       <c r="J18" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="K18" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="L18" s="3">
         <v>0</v>
@@ -1324,8 +1384,14 @@
       <c r="U18" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V18" s="3">
+        <v>0</v>
+      </c>
+      <c r="W18" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1347,8 +1413,10 @@
       <c r="S19" s="3"/>
       <c r="T19" s="3"/>
       <c r="U19" s="3"/>
-    </row>
-    <row r="20" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V19" s="3"/>
+      <c r="W19" s="3"/>
+    </row>
+    <row r="20" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1406,8 +1474,14 @@
       <c r="U20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V20" s="3">
+        <v>0</v>
+      </c>
+      <c r="W20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1432,14 +1506,14 @@
       <c r="J21" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K21" s="3">
-        <v>0</v>
+      <c r="K21" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="L21" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M21" s="3" t="s">
-        <v>4</v>
+      <c r="M21" s="3">
+        <v>0</v>
       </c>
       <c r="N21" s="3" t="s">
         <v>4</v>
@@ -1465,8 +1539,14 @@
       <c r="U21" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="22" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="W21" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1524,19 +1604,25 @@
       <c r="U22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V22" s="3">
+        <v>0</v>
+      </c>
+      <c r="W22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-300</v>
+        <v>-100</v>
       </c>
       <c r="E23" s="3">
         <v>-100</v>
       </c>
       <c r="F23" s="3">
-        <v>-100</v>
+        <v>-300</v>
       </c>
       <c r="G23" s="3">
         <v>-100</v>
@@ -1548,10 +1634,10 @@
         <v>-100</v>
       </c>
       <c r="J23" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="K23" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="L23" s="3">
         <v>0</v>
@@ -1583,8 +1669,14 @@
       <c r="U23" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V23" s="3">
+        <v>0</v>
+      </c>
+      <c r="W23" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1642,8 +1734,14 @@
       <c r="U24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V24" s="3">
+        <v>0</v>
+      </c>
+      <c r="W24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1701,19 +1799,25 @@
       <c r="U25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V25" s="3">
+        <v>0</v>
+      </c>
+      <c r="W25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D26" s="3">
-        <v>-300</v>
+      <c r="D26" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E26" s="3">
         <v>-100</v>
       </c>
       <c r="F26" s="3">
-        <v>-100</v>
+        <v>-300</v>
       </c>
       <c r="G26" s="3">
         <v>-100</v>
@@ -1725,10 +1829,10 @@
         <v>-100</v>
       </c>
       <c r="J26" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="K26" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="L26" s="3">
         <v>0</v>
@@ -1760,19 +1864,25 @@
       <c r="U26" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V26" s="3">
+        <v>0</v>
+      </c>
+      <c r="W26" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D27" s="3">
+      <c r="D27" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E27" s="3">
+        <v>0</v>
+      </c>
+      <c r="F27" s="3">
         <v>-300</v>
-      </c>
-      <c r="E27" s="3">
-        <v>-100</v>
-      </c>
-      <c r="F27" s="3">
-        <v>-100</v>
       </c>
       <c r="G27" s="3">
         <v>-100</v>
@@ -1784,10 +1894,10 @@
         <v>-100</v>
       </c>
       <c r="J27" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="K27" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="L27" s="3">
         <v>0</v>
@@ -1819,8 +1929,14 @@
       <c r="U27" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V27" s="3">
+        <v>0</v>
+      </c>
+      <c r="W27" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1878,8 +1994,14 @@
       <c r="U28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V28" s="3">
+        <v>0</v>
+      </c>
+      <c r="W28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1937,8 +2059,14 @@
       <c r="U29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V29" s="3">
+        <v>0</v>
+      </c>
+      <c r="W29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1996,8 +2124,14 @@
       <c r="U30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V30" s="3">
+        <v>0</v>
+      </c>
+      <c r="W30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2055,8 +2189,14 @@
       <c r="U31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V31" s="3">
+        <v>0</v>
+      </c>
+      <c r="W31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -2114,19 +2254,25 @@
       <c r="U32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V32" s="3">
+        <v>0</v>
+      </c>
+      <c r="W32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D33" s="3">
+      <c r="D33" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E33" s="3">
+        <v>0</v>
+      </c>
+      <c r="F33" s="3">
         <v>-300</v>
-      </c>
-      <c r="E33" s="3">
-        <v>-100</v>
-      </c>
-      <c r="F33" s="3">
-        <v>-100</v>
       </c>
       <c r="G33" s="3">
         <v>-100</v>
@@ -2138,10 +2284,10 @@
         <v>-100</v>
       </c>
       <c r="J33" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="K33" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="L33" s="3">
         <v>0</v>
@@ -2173,8 +2319,14 @@
       <c r="U33" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V33" s="3">
+        <v>0</v>
+      </c>
+      <c r="W33" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2232,19 +2384,25 @@
       <c r="U34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V34" s="3">
+        <v>0</v>
+      </c>
+      <c r="W34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D35" s="3">
+      <c r="D35" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E35" s="3">
+        <v>0</v>
+      </c>
+      <c r="F35" s="3">
         <v>-300</v>
-      </c>
-      <c r="E35" s="3">
-        <v>-100</v>
-      </c>
-      <c r="F35" s="3">
-        <v>-100</v>
       </c>
       <c r="G35" s="3">
         <v>-100</v>
@@ -2256,10 +2414,10 @@
         <v>-100</v>
       </c>
       <c r="J35" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="K35" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="L35" s="3">
         <v>0</v>
@@ -2291,72 +2449,84 @@
       <c r="U35" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="37" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V35" s="3">
+        <v>0</v>
+      </c>
+      <c r="W35" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44592</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44500</v>
+      </c>
+      <c r="F38" s="2">
         <v>44408</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44316</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>44227</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>44135</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>44043</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>43951</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>43861</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>43769</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>43677</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>43585</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>43496</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>43404</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>43312</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="S38" s="2">
         <v>43220</v>
       </c>
-      <c r="R38" s="2">
+      <c r="T38" s="2">
         <v>42947</v>
       </c>
-      <c r="S38" s="2">
+      <c r="U38" s="2">
         <v>42855</v>
       </c>
-      <c r="T38" s="2">
+      <c r="V38" s="2">
         <v>42766</v>
       </c>
-      <c r="U38" s="2">
+      <c r="W38" s="2">
         <v>42674</v>
       </c>
     </row>
-    <row r="39" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2378,8 +2548,10 @@
       <c r="S39" s="3"/>
       <c r="T39" s="3"/>
       <c r="U39" s="3"/>
-    </row>
-    <row r="40" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V39" s="3"/>
+      <c r="W39" s="3"/>
+    </row>
+    <row r="40" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2401,16 +2573,18 @@
       <c r="S40" s="3"/>
       <c r="T40" s="3"/>
       <c r="U40" s="3"/>
-    </row>
-    <row r="41" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V40" s="3"/>
+      <c r="W40" s="3"/>
+    </row>
+    <row r="41" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>0</v>
+      </c>
+      <c r="E41" s="3">
         <v>100</v>
-      </c>
-      <c r="E41" s="3">
-        <v>0</v>
       </c>
       <c r="F41" s="3">
         <v>100</v>
@@ -2419,13 +2593,13 @@
         <v>0</v>
       </c>
       <c r="H41" s="3">
-        <v>0</v>
-      </c>
-      <c r="I41" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J41" s="3" t="s">
-        <v>4</v>
+        <v>100</v>
+      </c>
+      <c r="I41" s="3">
+        <v>0</v>
+      </c>
+      <c r="J41" s="3">
+        <v>0</v>
       </c>
       <c r="K41" s="3" t="s">
         <v>4</v>
@@ -2439,11 +2613,11 @@
       <c r="N41" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="O41" s="3">
-        <v>0</v>
-      </c>
-      <c r="P41" s="3">
-        <v>0</v>
+      <c r="O41" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P41" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Q41" s="3">
         <v>0</v>
@@ -2460,8 +2634,14 @@
       <c r="U41" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V41" s="3">
+        <v>0</v>
+      </c>
+      <c r="W41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2519,8 +2699,14 @@
       <c r="U42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V42" s="3">
+        <v>0</v>
+      </c>
+      <c r="W42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2578,8 +2764,14 @@
       <c r="U43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V43" s="3">
+        <v>0</v>
+      </c>
+      <c r="W43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2637,8 +2829,14 @@
       <c r="U44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V44" s="3">
+        <v>0</v>
+      </c>
+      <c r="W44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2678,17 +2876,17 @@
       <c r="O45" s="3">
         <v>0</v>
       </c>
-      <c r="P45" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q45" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="R45" s="3">
-        <v>0</v>
-      </c>
-      <c r="S45" s="3">
-        <v>0</v>
+      <c r="P45" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q45" s="3">
+        <v>0</v>
+      </c>
+      <c r="R45" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S45" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="T45" s="3">
         <v>0</v>
@@ -2696,16 +2894,22 @@
       <c r="U45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V45" s="3">
+        <v>0</v>
+      </c>
+      <c r="W45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>0</v>
+      </c>
+      <c r="E46" s="3">
         <v>100</v>
-      </c>
-      <c r="E46" s="3">
-        <v>0</v>
       </c>
       <c r="F46" s="3">
         <v>100</v>
@@ -2714,7 +2918,7 @@
         <v>0</v>
       </c>
       <c r="H46" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I46" s="3">
         <v>0</v>
@@ -2737,17 +2941,17 @@
       <c r="O46" s="3">
         <v>0</v>
       </c>
-      <c r="P46" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q46" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="R46" s="3">
-        <v>0</v>
-      </c>
-      <c r="S46" s="3">
-        <v>0</v>
+      <c r="P46" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q46" s="3">
+        <v>0</v>
+      </c>
+      <c r="R46" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S46" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="T46" s="3">
         <v>0</v>
@@ -2755,8 +2959,14 @@
       <c r="U46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V46" s="3">
+        <v>0</v>
+      </c>
+      <c r="W46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2814,58 +3024,64 @@
       <c r="U47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V47" s="3">
+        <v>0</v>
+      </c>
+      <c r="W47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="D48" s="3">
+      <c r="D48" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E48" s="3">
+        <v>500</v>
+      </c>
+      <c r="F48" s="3">
         <v>300</v>
       </c>
-      <c r="E48" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F48" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G48" s="3">
+      <c r="G48" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H48" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I48" s="3">
         <v>1400</v>
       </c>
-      <c r="H48" s="3">
-        <v>0</v>
-      </c>
-      <c r="I48" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="J48" s="3">
-        <v>1400</v>
-      </c>
-      <c r="K48" s="3">
-        <v>1400</v>
+        <v>0</v>
+      </c>
+      <c r="K48" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="L48" s="3">
         <v>1400</v>
       </c>
-      <c r="M48" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="N48" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="O48" s="3">
-        <v>0</v>
+      <c r="M48" s="3">
+        <v>1400</v>
+      </c>
+      <c r="N48" s="3">
+        <v>1400</v>
+      </c>
+      <c r="O48" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="P48" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Q48" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="R48" s="3">
-        <v>0</v>
-      </c>
-      <c r="S48" s="3">
-        <v>0</v>
+      <c r="Q48" s="3">
+        <v>0</v>
+      </c>
+      <c r="R48" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S48" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="T48" s="3">
         <v>0</v>
@@ -2873,58 +3089,64 @@
       <c r="U48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V48" s="3">
+        <v>0</v>
+      </c>
+      <c r="W48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>1800</v>
+      </c>
+      <c r="E49" s="3">
+        <v>1600</v>
+      </c>
+      <c r="F49" s="3">
         <v>1400</v>
       </c>
-      <c r="E49" s="3">
+      <c r="G49" s="3">
         <v>1700</v>
       </c>
-      <c r="F49" s="3">
+      <c r="H49" s="3">
         <v>1700</v>
       </c>
-      <c r="G49" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J49" s="3">
         <v>1400</v>
       </c>
-      <c r="I49" s="3">
+      <c r="K49" s="3">
         <v>1400</v>
       </c>
-      <c r="J49" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K49" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="L49" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M49" s="3">
+      <c r="M49" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N49" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O49" s="3">
         <v>1400</v>
       </c>
-      <c r="N49" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="O49" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="P49" s="3" t="s">
         <v>4</v>
       </c>
       <c r="Q49" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="R49" s="3">
-        <v>0</v>
-      </c>
-      <c r="S49" s="3">
-        <v>0</v>
+      <c r="R49" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S49" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="T49" s="3">
         <v>0</v>
@@ -2932,8 +3154,14 @@
       <c r="U49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V49" s="3">
+        <v>0</v>
+      </c>
+      <c r="W49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2991,8 +3219,14 @@
       <c r="U50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V50" s="3">
+        <v>0</v>
+      </c>
+      <c r="W50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3050,8 +3284,14 @@
       <c r="U51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V51" s="3">
+        <v>0</v>
+      </c>
+      <c r="W51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -3109,8 +3349,14 @@
       <c r="U52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V52" s="3">
+        <v>0</v>
+      </c>
+      <c r="W52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3168,8 +3414,14 @@
       <c r="U53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V53" s="3">
+        <v>0</v>
+      </c>
+      <c r="W53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
@@ -3177,16 +3429,16 @@
         <v>1800</v>
       </c>
       <c r="E54" s="3">
-        <v>1700</v>
+        <v>2200</v>
       </c>
       <c r="F54" s="3">
         <v>1800</v>
       </c>
       <c r="G54" s="3">
-        <v>1400</v>
+        <v>1700</v>
       </c>
       <c r="H54" s="3">
-        <v>1400</v>
+        <v>1800</v>
       </c>
       <c r="I54" s="3">
         <v>1400</v>
@@ -3204,22 +3456,22 @@
         <v>1400</v>
       </c>
       <c r="N54" s="3">
-        <v>0</v>
+        <v>1400</v>
       </c>
       <c r="O54" s="3">
-        <v>0</v>
-      </c>
-      <c r="P54" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q54" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="R54" s="3">
-        <v>0</v>
-      </c>
-      <c r="S54" s="3">
-        <v>0</v>
+        <v>1400</v>
+      </c>
+      <c r="P54" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q54" s="3">
+        <v>0</v>
+      </c>
+      <c r="R54" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S54" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="T54" s="3">
         <v>0</v>
@@ -3227,8 +3479,14 @@
       <c r="U54" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="55" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V54" s="3">
+        <v>0</v>
+      </c>
+      <c r="W54" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3250,8 +3508,10 @@
       <c r="S55" s="3"/>
       <c r="T55" s="3"/>
       <c r="U55" s="3"/>
-    </row>
-    <row r="56" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V55" s="3"/>
+      <c r="W55" s="3"/>
+    </row>
+    <row r="56" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3273,8 +3533,10 @@
       <c r="S56" s="3"/>
       <c r="T56" s="3"/>
       <c r="U56" s="3"/>
-    </row>
-    <row r="57" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V56" s="3"/>
+      <c r="W56" s="3"/>
+    </row>
+    <row r="57" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -3282,7 +3544,7 @@
         <v>200</v>
       </c>
       <c r="E57" s="3">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="F57" s="3">
         <v>200</v>
@@ -3291,7 +3553,7 @@
         <v>100</v>
       </c>
       <c r="H57" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="I57" s="3">
         <v>100</v>
@@ -3314,17 +3576,17 @@
       <c r="O57" s="3">
         <v>100</v>
       </c>
-      <c r="P57" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q57" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="R57" s="3">
+      <c r="P57" s="3">
         <v>100</v>
       </c>
-      <c r="S57" s="3">
+      <c r="Q57" s="3">
         <v>100</v>
+      </c>
+      <c r="R57" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S57" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="T57" s="3">
         <v>100</v>
@@ -3332,37 +3594,43 @@
       <c r="U57" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="58" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V57" s="3">
+        <v>100</v>
+      </c>
+      <c r="W57" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="58" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E58" s="3">
+      <c r="E58" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F58" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G58" s="3">
         <v>800</v>
       </c>
-      <c r="F58" s="3">
+      <c r="H58" s="3">
         <v>600</v>
       </c>
-      <c r="G58" s="3">
+      <c r="I58" s="3">
         <v>400</v>
       </c>
-      <c r="H58" s="3">
+      <c r="J58" s="3">
         <v>300</v>
       </c>
-      <c r="I58" s="3">
+      <c r="K58" s="3">
         <v>200</v>
       </c>
-      <c r="J58" s="3">
+      <c r="L58" s="3">
         <v>200</v>
-      </c>
-      <c r="K58" s="3">
-        <v>100</v>
-      </c>
-      <c r="L58" s="3">
-        <v>100</v>
       </c>
       <c r="M58" s="3">
         <v>100</v>
@@ -3373,17 +3641,17 @@
       <c r="O58" s="3">
         <v>100</v>
       </c>
-      <c r="P58" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q58" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="R58" s="3">
+      <c r="P58" s="3">
         <v>100</v>
       </c>
-      <c r="S58" s="3">
+      <c r="Q58" s="3">
         <v>100</v>
+      </c>
+      <c r="R58" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S58" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="T58" s="3">
         <v>100</v>
@@ -3391,19 +3659,25 @@
       <c r="U58" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="59" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V58" s="3">
+        <v>100</v>
+      </c>
+      <c r="W58" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="59" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E59" s="3">
-        <v>0</v>
-      </c>
-      <c r="F59" s="3">
-        <v>0</v>
+      <c r="E59" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F59" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="G59" s="3">
         <v>0</v>
@@ -3450,8 +3724,14 @@
       <c r="U59" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V59" s="3">
+        <v>0</v>
+      </c>
+      <c r="W59" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -3459,28 +3739,28 @@
         <v>200</v>
       </c>
       <c r="E60" s="3">
+        <v>300</v>
+      </c>
+      <c r="F60" s="3">
+        <v>200</v>
+      </c>
+      <c r="G60" s="3">
         <v>900</v>
       </c>
-      <c r="F60" s="3">
+      <c r="H60" s="3">
         <v>800</v>
       </c>
-      <c r="G60" s="3">
+      <c r="I60" s="3">
         <v>500</v>
       </c>
-      <c r="H60" s="3">
+      <c r="J60" s="3">
         <v>100</v>
       </c>
-      <c r="I60" s="3">
+      <c r="K60" s="3">
         <v>300</v>
       </c>
-      <c r="J60" s="3">
+      <c r="L60" s="3">
         <v>300</v>
-      </c>
-      <c r="K60" s="3">
-        <v>200</v>
-      </c>
-      <c r="L60" s="3">
-        <v>200</v>
       </c>
       <c r="M60" s="3">
         <v>200</v>
@@ -3491,17 +3771,17 @@
       <c r="O60" s="3">
         <v>200</v>
       </c>
-      <c r="P60" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q60" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="R60" s="3">
+      <c r="P60" s="3">
         <v>200</v>
       </c>
-      <c r="S60" s="3">
+      <c r="Q60" s="3">
         <v>200</v>
+      </c>
+      <c r="R60" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S60" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="T60" s="3">
         <v>200</v>
@@ -3509,8 +3789,14 @@
       <c r="U60" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="61" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V60" s="3">
+        <v>200</v>
+      </c>
+      <c r="W60" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="61" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3518,23 +3804,23 @@
         <v>400</v>
       </c>
       <c r="E61" s="3">
-        <v>0</v>
+        <v>600</v>
       </c>
       <c r="F61" s="3">
+        <v>500</v>
+      </c>
+      <c r="G61" s="3">
+        <v>0</v>
+      </c>
+      <c r="H61" s="3">
         <v>100</v>
       </c>
-      <c r="G61" s="3">
-        <v>0</v>
-      </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
+        <v>0</v>
+      </c>
+      <c r="J61" s="3">
         <v>300</v>
       </c>
-      <c r="I61" s="3">
-        <v>0</v>
-      </c>
-      <c r="J61" s="3">
-        <v>0</v>
-      </c>
       <c r="K61" s="3">
         <v>0</v>
       </c>
@@ -3568,8 +3854,14 @@
       <c r="U61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V61" s="3">
+        <v>0</v>
+      </c>
+      <c r="W61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -3579,8 +3871,8 @@
       <c r="E62" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F62" s="3" t="s">
-        <v>4</v>
+      <c r="F62" s="3">
+        <v>0</v>
       </c>
       <c r="G62" s="3" t="s">
         <v>4</v>
@@ -3588,26 +3880,26 @@
       <c r="H62" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="I62" s="3">
-        <v>0</v>
+      <c r="I62" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="J62" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K62" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="L62" s="3">
-        <v>0</v>
-      </c>
-      <c r="M62" s="3">
-        <v>0</v>
-      </c>
-      <c r="N62" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="O62" s="3" t="s">
-        <v>4</v>
+      <c r="K62" s="3">
+        <v>0</v>
+      </c>
+      <c r="L62" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M62" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N62" s="3">
+        <v>0</v>
+      </c>
+      <c r="O62" s="3">
+        <v>0</v>
       </c>
       <c r="P62" s="3" t="s">
         <v>4</v>
@@ -3615,11 +3907,11 @@
       <c r="Q62" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="R62" s="3">
-        <v>0</v>
-      </c>
-      <c r="S62" s="3">
-        <v>0</v>
+      <c r="R62" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S62" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="T62" s="3">
         <v>0</v>
@@ -3627,8 +3919,14 @@
       <c r="U62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V62" s="3">
+        <v>0</v>
+      </c>
+      <c r="W62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3686,8 +3984,14 @@
       <c r="U63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V63" s="3">
+        <v>0</v>
+      </c>
+      <c r="W63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3745,8 +4049,14 @@
       <c r="U64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V64" s="3">
+        <v>0</v>
+      </c>
+      <c r="W64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3804,37 +4114,43 @@
       <c r="U65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V65" s="3">
+        <v>0</v>
+      </c>
+      <c r="W65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>700</v>
+        <v>500</v>
       </c>
       <c r="E66" s="3">
+        <v>1100</v>
+      </c>
+      <c r="F66" s="3">
+        <v>800</v>
+      </c>
+      <c r="G66" s="3">
         <v>900</v>
       </c>
-      <c r="F66" s="3">
+      <c r="H66" s="3">
         <v>900</v>
       </c>
-      <c r="G66" s="3">
+      <c r="I66" s="3">
         <v>500</v>
       </c>
-      <c r="H66" s="3">
+      <c r="J66" s="3">
         <v>400</v>
       </c>
-      <c r="I66" s="3">
+      <c r="K66" s="3">
         <v>300</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>300</v>
-      </c>
-      <c r="K66" s="3">
-        <v>200</v>
-      </c>
-      <c r="L66" s="3">
-        <v>200</v>
       </c>
       <c r="M66" s="3">
         <v>200</v>
@@ -3845,17 +4161,17 @@
       <c r="O66" s="3">
         <v>200</v>
       </c>
-      <c r="P66" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q66" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="R66" s="3">
+      <c r="P66" s="3">
         <v>200</v>
       </c>
-      <c r="S66" s="3">
+      <c r="Q66" s="3">
         <v>200</v>
+      </c>
+      <c r="R66" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S66" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="T66" s="3">
         <v>200</v>
@@ -3863,8 +4179,14 @@
       <c r="U66" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="67" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V66" s="3">
+        <v>200</v>
+      </c>
+      <c r="W66" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="67" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3886,8 +4208,10 @@
       <c r="S67" s="3"/>
       <c r="T67" s="3"/>
       <c r="U67" s="3"/>
-    </row>
-    <row r="68" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V67" s="3"/>
+      <c r="W67" s="3"/>
+    </row>
+    <row r="68" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3945,8 +4269,14 @@
       <c r="U68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V68" s="3">
+        <v>0</v>
+      </c>
+      <c r="W68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4004,8 +4334,14 @@
       <c r="U69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V69" s="3">
+        <v>0</v>
+      </c>
+      <c r="W69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4063,8 +4399,14 @@
       <c r="U70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V70" s="3">
+        <v>0</v>
+      </c>
+      <c r="W70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4122,37 +4464,43 @@
       <c r="U71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V71" s="3">
+        <v>0</v>
+      </c>
+      <c r="W71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-9500</v>
+      </c>
+      <c r="E72" s="3">
         <v>-9400</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
+        <v>-9400</v>
+      </c>
+      <c r="G72" s="3">
         <v>-9100</v>
       </c>
-      <c r="F72" s="3">
+      <c r="H72" s="3">
         <v>-9000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="I72" s="3">
         <v>-8900</v>
       </c>
-      <c r="H72" s="3">
+      <c r="J72" s="3">
         <v>-8900</v>
       </c>
-      <c r="I72" s="3">
+      <c r="K72" s="3">
         <v>-8700</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>-8700</v>
-      </c>
-      <c r="K72" s="3">
-        <v>-8600</v>
-      </c>
-      <c r="L72" s="3">
-        <v>-8600</v>
       </c>
       <c r="M72" s="3">
         <v>-8600</v>
@@ -4163,17 +4511,17 @@
       <c r="O72" s="3">
         <v>-8600</v>
       </c>
-      <c r="P72" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q72" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="R72" s="3">
+      <c r="P72" s="3">
         <v>-8600</v>
       </c>
-      <c r="S72" s="3">
+      <c r="Q72" s="3">
         <v>-8600</v>
+      </c>
+      <c r="R72" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S72" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="T72" s="3">
         <v>-8600</v>
@@ -4181,8 +4529,14 @@
       <c r="U72" s="3">
         <v>-8600</v>
       </c>
-    </row>
-    <row r="73" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V72" s="3">
+        <v>-8600</v>
+      </c>
+      <c r="W72" s="3">
+        <v>-8600</v>
+      </c>
+    </row>
+    <row r="73" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4240,8 +4594,14 @@
       <c r="U73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V73" s="3">
+        <v>0</v>
+      </c>
+      <c r="W73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4299,8 +4659,14 @@
       <c r="U74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V74" s="3">
+        <v>0</v>
+      </c>
+      <c r="W74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4358,58 +4724,64 @@
       <c r="U75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V75" s="3">
+        <v>0</v>
+      </c>
+      <c r="W75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>1300</v>
+      </c>
+      <c r="E76" s="3">
         <v>1100</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
+        <v>1000</v>
+      </c>
+      <c r="G76" s="3">
         <v>800</v>
-      </c>
-      <c r="F76" s="3">
-        <v>900</v>
-      </c>
-      <c r="G76" s="3">
-        <v>900</v>
       </c>
       <c r="H76" s="3">
         <v>900</v>
       </c>
       <c r="I76" s="3">
+        <v>900</v>
+      </c>
+      <c r="J76" s="3">
+        <v>900</v>
+      </c>
+      <c r="K76" s="3">
         <v>1000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>1100</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>1100</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>1200</v>
       </c>
-      <c r="M76" s="3">
+      <c r="O76" s="3">
         <v>1200</v>
       </c>
-      <c r="N76" s="3">
+      <c r="P76" s="3">
         <v>-200</v>
       </c>
-      <c r="O76" s="3">
+      <c r="Q76" s="3">
         <v>-200</v>
       </c>
-      <c r="P76" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q76" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="R76" s="3">
-        <v>-200</v>
-      </c>
-      <c r="S76" s="3">
-        <v>-200</v>
+      <c r="R76" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S76" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="T76" s="3">
         <v>-200</v>
@@ -4417,8 +4789,14 @@
       <c r="U76" s="3">
         <v>-200</v>
       </c>
-    </row>
-    <row r="77" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V76" s="3">
+        <v>-200</v>
+      </c>
+      <c r="W76" s="3">
+        <v>-200</v>
+      </c>
+    </row>
+    <row r="77" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4476,83 +4854,95 @@
       <c r="U77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V77" s="3">
+        <v>0</v>
+      </c>
+      <c r="W77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44592</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44500</v>
+      </c>
+      <c r="F80" s="2">
         <v>44408</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44316</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>44227</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>44135</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>44043</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>43951</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>43861</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>43769</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>43677</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>43585</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>43496</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>43404</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>43312</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="S80" s="2">
         <v>43220</v>
       </c>
-      <c r="R80" s="2">
+      <c r="T80" s="2">
         <v>42947</v>
       </c>
-      <c r="S80" s="2">
+      <c r="U80" s="2">
         <v>42855</v>
       </c>
-      <c r="T80" s="2">
+      <c r="V80" s="2">
         <v>42766</v>
       </c>
-      <c r="U80" s="2">
+      <c r="W80" s="2">
         <v>42674</v>
       </c>
     </row>
-    <row r="81" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D81" s="3">
+      <c r="D81" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E81" s="3">
+        <v>0</v>
+      </c>
+      <c r="F81" s="3">
         <v>-300</v>
-      </c>
-      <c r="E81" s="3">
-        <v>-100</v>
-      </c>
-      <c r="F81" s="3">
-        <v>-100</v>
       </c>
       <c r="G81" s="3">
         <v>-100</v>
@@ -4564,10 +4954,10 @@
         <v>-100</v>
       </c>
       <c r="J81" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="K81" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="L81" s="3">
         <v>0</v>
@@ -4599,8 +4989,14 @@
       <c r="U81" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="82" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V81" s="3">
+        <v>0</v>
+      </c>
+      <c r="W81" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4622,8 +5018,10 @@
       <c r="S82" s="3"/>
       <c r="T82" s="3"/>
       <c r="U82" s="3"/>
-    </row>
-    <row r="83" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V82" s="3"/>
+      <c r="W82" s="3"/>
+    </row>
+    <row r="83" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4681,8 +5079,14 @@
       <c r="U83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V83" s="3">
+        <v>0</v>
+      </c>
+      <c r="W83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4740,8 +5144,14 @@
       <c r="U84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V84" s="3">
+        <v>0</v>
+      </c>
+      <c r="W84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4799,8 +5209,14 @@
       <c r="U85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V85" s="3">
+        <v>0</v>
+      </c>
+      <c r="W85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4858,8 +5274,14 @@
       <c r="U86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V86" s="3">
+        <v>0</v>
+      </c>
+      <c r="W86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4917,8 +5339,14 @@
       <c r="U87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V87" s="3">
+        <v>0</v>
+      </c>
+      <c r="W87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4976,34 +5404,40 @@
       <c r="U88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V88" s="3">
+        <v>0</v>
+      </c>
+      <c r="W88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="E89" s="3">
+        <v>100</v>
+      </c>
+      <c r="F89" s="3">
+        <v>100</v>
+      </c>
+      <c r="G89" s="3">
         <v>-600</v>
       </c>
-      <c r="F89" s="3">
+      <c r="H89" s="3">
         <v>400</v>
-      </c>
-      <c r="G89" s="3">
-        <v>-100</v>
-      </c>
-      <c r="H89" s="3">
-        <v>100</v>
       </c>
       <c r="I89" s="3">
         <v>-100</v>
       </c>
       <c r="J89" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K89" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="L89" s="3">
         <v>0</v>
@@ -5035,8 +5469,14 @@
       <c r="U89" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V89" s="3">
+        <v>0</v>
+      </c>
+      <c r="W89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5058,31 +5498,33 @@
       <c r="S90" s="3"/>
       <c r="T90" s="3"/>
       <c r="U90" s="3"/>
-    </row>
-    <row r="91" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V90" s="3"/>
+      <c r="W90" s="3"/>
+    </row>
+    <row r="91" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="E91" s="3">
-        <v>0</v>
-      </c>
-      <c r="F91" s="3">
-        <v>0</v>
-      </c>
-      <c r="G91" s="3">
-        <v>0</v>
-      </c>
-      <c r="H91" s="3">
-        <v>0</v>
-      </c>
-      <c r="I91" s="3">
-        <v>0</v>
-      </c>
-      <c r="J91" s="3">
-        <v>0</v>
+        <v>-400</v>
+      </c>
+      <c r="F91" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G91" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H91" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I91" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J91" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K91" s="3">
         <v>0</v>
@@ -5117,8 +5559,14 @@
       <c r="U91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V91" s="3">
+        <v>0</v>
+      </c>
+      <c r="W91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5176,8 +5624,14 @@
       <c r="U92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V92" s="3">
+        <v>0</v>
+      </c>
+      <c r="W92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5235,47 +5689,53 @@
       <c r="U93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V93" s="3">
+        <v>0</v>
+      </c>
+      <c r="W93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>300</v>
+      </c>
+      <c r="E94" s="3">
+        <v>-400</v>
+      </c>
+      <c r="F94" s="3">
         <v>-500</v>
       </c>
-      <c r="E94" s="3">
+      <c r="G94" s="3">
         <v>500</v>
       </c>
-      <c r="F94" s="3">
+      <c r="H94" s="3">
         <v>-300</v>
       </c>
-      <c r="G94" s="3">
-        <v>0</v>
-      </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
+        <v>0</v>
+      </c>
+      <c r="J94" s="3">
         <v>-100</v>
       </c>
-      <c r="I94" s="3">
+      <c r="K94" s="3">
         <v>100</v>
       </c>
-      <c r="J94" s="3">
-        <v>0</v>
-      </c>
-      <c r="K94" s="3">
-        <v>0</v>
-      </c>
       <c r="L94" s="3">
+        <v>0</v>
+      </c>
+      <c r="M94" s="3">
+        <v>0</v>
+      </c>
+      <c r="N94" s="3">
         <v>1300</v>
       </c>
-      <c r="M94" s="3">
+      <c r="O94" s="3">
         <v>-1400</v>
       </c>
-      <c r="N94" s="3">
-        <v>0</v>
-      </c>
-      <c r="O94" s="3">
-        <v>0</v>
-      </c>
       <c r="P94" s="3">
         <v>0</v>
       </c>
@@ -5294,8 +5754,14 @@
       <c r="U94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V94" s="3">
+        <v>0</v>
+      </c>
+      <c r="W94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5317,8 +5783,10 @@
       <c r="S95" s="3"/>
       <c r="T95" s="3"/>
       <c r="U95" s="3"/>
-    </row>
-    <row r="96" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V95" s="3"/>
+      <c r="W95" s="3"/>
+    </row>
+    <row r="96" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5376,8 +5844,14 @@
       <c r="U96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V96" s="3">
+        <v>0</v>
+      </c>
+      <c r="W96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5435,8 +5909,14 @@
       <c r="U97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V97" s="3">
+        <v>0</v>
+      </c>
+      <c r="W97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5494,8 +5974,14 @@
       <c r="U98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V98" s="3">
+        <v>0</v>
+      </c>
+      <c r="W98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5553,28 +6039,34 @@
       <c r="U99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V99" s="3">
+        <v>0</v>
+      </c>
+      <c r="W99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>600</v>
+        <v>-200</v>
       </c>
       <c r="E100" s="3">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="F100" s="3">
-        <v>0</v>
+        <v>500</v>
       </c>
       <c r="G100" s="3">
+        <v>0</v>
+      </c>
+      <c r="H100" s="3">
+        <v>0</v>
+      </c>
+      <c r="I100" s="3">
         <v>100</v>
-      </c>
-      <c r="H100" s="3">
-        <v>100</v>
-      </c>
-      <c r="I100" s="3">
-        <v>0</v>
       </c>
       <c r="J100" s="3">
         <v>100</v>
@@ -5583,17 +6075,17 @@
         <v>0</v>
       </c>
       <c r="L100" s="3">
+        <v>100</v>
+      </c>
+      <c r="M100" s="3">
+        <v>0</v>
+      </c>
+      <c r="N100" s="3">
         <v>-1400</v>
       </c>
-      <c r="M100" s="3">
+      <c r="O100" s="3">
         <v>1400</v>
       </c>
-      <c r="N100" s="3">
-        <v>0</v>
-      </c>
-      <c r="O100" s="3">
-        <v>0</v>
-      </c>
       <c r="P100" s="3">
         <v>0</v>
       </c>
@@ -5612,8 +6104,14 @@
       <c r="U100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V100" s="3">
+        <v>0</v>
+      </c>
+      <c r="W100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5671,26 +6169,32 @@
       <c r="U101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V101" s="3">
+        <v>0</v>
+      </c>
+      <c r="W101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="E102" s="3">
         <v>0</v>
       </c>
       <c r="F102" s="3">
+        <v>0</v>
+      </c>
+      <c r="G102" s="3">
+        <v>0</v>
+      </c>
+      <c r="H102" s="3">
         <v>100</v>
       </c>
-      <c r="G102" s="3">
-        <v>0</v>
-      </c>
-      <c r="H102" s="3">
-        <v>0</v>
-      </c>
       <c r="I102" s="3">
         <v>0</v>
       </c>
@@ -5728,6 +6232,12 @@
         <v>0</v>
       </c>
       <c r="U102" s="3">
+        <v>0</v>
+      </c>
+      <c r="V102" s="3">
+        <v>0</v>
+      </c>
+      <c r="W102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/CYAP_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/CYAP_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="250" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="244" uniqueCount="92">
   <si>
     <t>CYAP</t>
   </si>
@@ -1265,8 +1265,8 @@
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D17" s="3" t="s">
-        <v>4</v>
+      <c r="D17" s="3">
+        <v>100</v>
       </c>
       <c r="E17" s="3">
         <v>100</v>
@@ -1810,8 +1810,8 @@
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D26" s="3" t="s">
-        <v>4</v>
+      <c r="D26" s="3">
+        <v>-100</v>
       </c>
       <c r="E26" s="3">
         <v>-100</v>
@@ -1875,8 +1875,8 @@
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D27" s="3" t="s">
-        <v>4</v>
+      <c r="D27" s="3">
+        <v>-100</v>
       </c>
       <c r="E27" s="3">
         <v>0</v>
@@ -2265,8 +2265,8 @@
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D33" s="3" t="s">
-        <v>4</v>
+      <c r="D33" s="3">
+        <v>-100</v>
       </c>
       <c r="E33" s="3">
         <v>0</v>
@@ -2395,8 +2395,8 @@
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D35" s="3" t="s">
-        <v>4</v>
+      <c r="D35" s="3">
+        <v>-100</v>
       </c>
       <c r="E35" s="3">
         <v>0</v>
@@ -4935,8 +4935,8 @@
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D81" s="3" t="s">
-        <v>4</v>
+      <c r="D81" s="3">
+        <v>-100</v>
       </c>
       <c r="E81" s="3">
         <v>0</v>

--- a/AAII_Financials/Quarterly/CYAP_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/CYAP_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="244" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="258" uniqueCount="92">
   <si>
     <t>CYAP</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:W102"/>
+  <dimension ref="A5:X102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,101 +665,104 @@
     <col min="1" max="1" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="22" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44681</v>
+      </c>
+      <c r="E7" s="2">
         <v>44592</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44500</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44408</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44316</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44227</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44135</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44043</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43951</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43861</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43769</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43677</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43585</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43496</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43404</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43312</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43220</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42947</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42855</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>42766</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>42674</v>
       </c>
     </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -823,8 +826,11 @@
       <c r="W8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -888,8 +894,11 @@
       <c r="W9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -953,8 +962,11 @@
       <c r="W10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -978,8 +990,9 @@
       <c r="U11" s="3"/>
       <c r="V11" s="3"/>
       <c r="W11" s="3"/>
-    </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X11" s="3"/>
+    </row>
+    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -1043,8 +1056,11 @@
       <c r="W12" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1108,8 +1124,11 @@
       <c r="W13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1161,20 +1180,23 @@
       <c r="S14" s="3">
         <v>0</v>
       </c>
-      <c r="T14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="U14" s="3">
-        <v>0</v>
-      </c>
-      <c r="V14" s="3" t="s">
-        <v>4</v>
+      <c r="T14" s="3">
+        <v>0</v>
+      </c>
+      <c r="U14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="V14" s="3">
+        <v>0</v>
       </c>
       <c r="W14" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X14" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1238,8 +1260,11 @@
       <c r="W15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1260,8 +1285,9 @@
       <c r="U16" s="3"/>
       <c r="V16" s="3"/>
       <c r="W16" s="3"/>
-    </row>
-    <row r="17" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X16" s="3"/>
+    </row>
+    <row r="17" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
@@ -1272,10 +1298,10 @@
         <v>100</v>
       </c>
       <c r="F17" s="3">
+        <v>100</v>
+      </c>
+      <c r="G17" s="3">
         <v>300</v>
-      </c>
-      <c r="G17" s="3">
-        <v>100</v>
       </c>
       <c r="H17" s="3">
         <v>100</v>
@@ -1290,7 +1316,7 @@
         <v>100</v>
       </c>
       <c r="L17" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M17" s="3">
         <v>0</v>
@@ -1325,8 +1351,11 @@
       <c r="W17" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X17" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1337,10 +1366,10 @@
         <v>-100</v>
       </c>
       <c r="F18" s="3">
+        <v>-100</v>
+      </c>
+      <c r="G18" s="3">
         <v>-300</v>
-      </c>
-      <c r="G18" s="3">
-        <v>-100</v>
       </c>
       <c r="H18" s="3">
         <v>-100</v>
@@ -1355,7 +1384,7 @@
         <v>-100</v>
       </c>
       <c r="L18" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="M18" s="3">
         <v>0</v>
@@ -1390,8 +1419,11 @@
       <c r="W18" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X18" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1415,8 +1447,9 @@
       <c r="U19" s="3"/>
       <c r="V19" s="3"/>
       <c r="W19" s="3"/>
-    </row>
-    <row r="20" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X19" s="3"/>
+    </row>
+    <row r="20" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1480,8 +1513,11 @@
       <c r="W20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1512,11 +1548,11 @@
       <c r="L21" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M21" s="3">
-        <v>0</v>
-      </c>
-      <c r="N21" s="3" t="s">
-        <v>4</v>
+      <c r="M21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N21" s="3">
+        <v>0</v>
       </c>
       <c r="O21" s="3" t="s">
         <v>4</v>
@@ -1545,8 +1581,11 @@
       <c r="W21" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="22" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X21" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1610,8 +1649,11 @@
       <c r="W22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
@@ -1622,10 +1664,10 @@
         <v>-100</v>
       </c>
       <c r="F23" s="3">
+        <v>-100</v>
+      </c>
+      <c r="G23" s="3">
         <v>-300</v>
-      </c>
-      <c r="G23" s="3">
-        <v>-100</v>
       </c>
       <c r="H23" s="3">
         <v>-100</v>
@@ -1640,7 +1682,7 @@
         <v>-100</v>
       </c>
       <c r="L23" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="M23" s="3">
         <v>0</v>
@@ -1675,8 +1717,11 @@
       <c r="W23" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X23" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1740,8 +1785,11 @@
       <c r="W24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1805,8 +1853,11 @@
       <c r="W25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
@@ -1817,10 +1868,10 @@
         <v>-100</v>
       </c>
       <c r="F26" s="3">
+        <v>-100</v>
+      </c>
+      <c r="G26" s="3">
         <v>-300</v>
-      </c>
-      <c r="G26" s="3">
-        <v>-100</v>
       </c>
       <c r="H26" s="3">
         <v>-100</v>
@@ -1835,7 +1886,7 @@
         <v>-100</v>
       </c>
       <c r="L26" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="M26" s="3">
         <v>0</v>
@@ -1870,8 +1921,11 @@
       <c r="W26" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X26" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
@@ -1879,13 +1933,13 @@
         <v>-100</v>
       </c>
       <c r="E27" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="F27" s="3">
+        <v>0</v>
+      </c>
+      <c r="G27" s="3">
         <v>-300</v>
-      </c>
-      <c r="G27" s="3">
-        <v>-100</v>
       </c>
       <c r="H27" s="3">
         <v>-100</v>
@@ -1900,7 +1954,7 @@
         <v>-100</v>
       </c>
       <c r="L27" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="M27" s="3">
         <v>0</v>
@@ -1935,8 +1989,11 @@
       <c r="W27" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X27" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2000,8 +2057,11 @@
       <c r="W28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2065,8 +2125,11 @@
       <c r="W29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2130,8 +2193,11 @@
       <c r="W30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2195,8 +2261,11 @@
       <c r="W31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -2260,8 +2329,11 @@
       <c r="W32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
@@ -2269,13 +2341,13 @@
         <v>-100</v>
       </c>
       <c r="E33" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="F33" s="3">
+        <v>0</v>
+      </c>
+      <c r="G33" s="3">
         <v>-300</v>
-      </c>
-      <c r="G33" s="3">
-        <v>-100</v>
       </c>
       <c r="H33" s="3">
         <v>-100</v>
@@ -2290,7 +2362,7 @@
         <v>-100</v>
       </c>
       <c r="L33" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="M33" s="3">
         <v>0</v>
@@ -2325,8 +2397,11 @@
       <c r="W33" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X33" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2390,8 +2465,11 @@
       <c r="W34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
@@ -2399,13 +2477,13 @@
         <v>-100</v>
       </c>
       <c r="E35" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="F35" s="3">
+        <v>0</v>
+      </c>
+      <c r="G35" s="3">
         <v>-300</v>
-      </c>
-      <c r="G35" s="3">
-        <v>-100</v>
       </c>
       <c r="H35" s="3">
         <v>-100</v>
@@ -2420,7 +2498,7 @@
         <v>-100</v>
       </c>
       <c r="L35" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="M35" s="3">
         <v>0</v>
@@ -2455,78 +2533,84 @@
       <c r="W35" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="37" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X35" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44681</v>
+      </c>
+      <c r="E38" s="2">
         <v>44592</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44500</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44408</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44316</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44227</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44135</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44043</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43951</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43861</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43769</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43677</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43585</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43496</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43404</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43312</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43220</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42947</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42855</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>42766</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>42674</v>
       </c>
     </row>
-    <row r="39" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2550,8 +2634,9 @@
       <c r="U39" s="3"/>
       <c r="V39" s="3"/>
       <c r="W39" s="3"/>
-    </row>
-    <row r="40" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X39" s="3"/>
+    </row>
+    <row r="40" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2575,8 +2660,9 @@
       <c r="U40" s="3"/>
       <c r="V40" s="3"/>
       <c r="W40" s="3"/>
-    </row>
-    <row r="41" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X40" s="3"/>
+    </row>
+    <row r="41" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
@@ -2584,25 +2670,25 @@
         <v>0</v>
       </c>
       <c r="E41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F41" s="3">
         <v>100</v>
       </c>
       <c r="G41" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H41" s="3">
+        <v>0</v>
+      </c>
+      <c r="I41" s="3">
         <v>100</v>
       </c>
-      <c r="I41" s="3">
-        <v>0</v>
-      </c>
       <c r="J41" s="3">
         <v>0</v>
       </c>
-      <c r="K41" s="3" t="s">
-        <v>4</v>
+      <c r="K41" s="3">
+        <v>0</v>
       </c>
       <c r="L41" s="3" t="s">
         <v>4</v>
@@ -2619,8 +2705,8 @@
       <c r="P41" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Q41" s="3">
-        <v>0</v>
+      <c r="Q41" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="R41" s="3">
         <v>0</v>
@@ -2640,8 +2726,11 @@
       <c r="W41" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2705,8 +2794,11 @@
       <c r="W42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2770,8 +2862,11 @@
       <c r="W43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2835,8 +2930,11 @@
       <c r="W44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2882,14 +2980,14 @@
       <c r="Q45" s="3">
         <v>0</v>
       </c>
-      <c r="R45" s="3" t="s">
-        <v>4</v>
+      <c r="R45" s="3">
+        <v>0</v>
       </c>
       <c r="S45" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="T45" s="3">
-        <v>0</v>
+      <c r="T45" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="U45" s="3">
         <v>0</v>
@@ -2900,8 +2998,11 @@
       <c r="W45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -2909,20 +3010,20 @@
         <v>0</v>
       </c>
       <c r="E46" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F46" s="3">
         <v>100</v>
       </c>
       <c r="G46" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H46" s="3">
+        <v>0</v>
+      </c>
+      <c r="I46" s="3">
         <v>100</v>
       </c>
-      <c r="I46" s="3">
-        <v>0</v>
-      </c>
       <c r="J46" s="3">
         <v>0</v>
       </c>
@@ -2947,14 +3048,14 @@
       <c r="Q46" s="3">
         <v>0</v>
       </c>
-      <c r="R46" s="3" t="s">
-        <v>4</v>
+      <c r="R46" s="3">
+        <v>0</v>
       </c>
       <c r="S46" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="T46" s="3">
-        <v>0</v>
+      <c r="T46" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="U46" s="3">
         <v>0</v>
@@ -2965,8 +3066,11 @@
       <c r="W46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3030,37 +3134,40 @@
       <c r="W47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="D48" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E48" s="3">
+      <c r="D48" s="3">
+        <v>0</v>
+      </c>
+      <c r="E48" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F48" s="3">
         <v>500</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>300</v>
       </c>
-      <c r="G48" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="H48" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="I48" s="3">
+      <c r="I48" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J48" s="3">
         <v>1400</v>
       </c>
-      <c r="J48" s="3">
-        <v>0</v>
-      </c>
-      <c r="K48" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="L48" s="3">
-        <v>1400</v>
+      <c r="K48" s="3">
+        <v>0</v>
+      </c>
+      <c r="L48" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="M48" s="3">
         <v>1400</v>
@@ -3068,23 +3175,23 @@
       <c r="N48" s="3">
         <v>1400</v>
       </c>
-      <c r="O48" s="3" t="s">
-        <v>4</v>
+      <c r="O48" s="3">
+        <v>1400</v>
       </c>
       <c r="P48" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Q48" s="3">
-        <v>0</v>
-      </c>
-      <c r="R48" s="3" t="s">
-        <v>4</v>
+      <c r="Q48" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R48" s="3">
+        <v>0</v>
       </c>
       <c r="S48" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="T48" s="3">
-        <v>0</v>
+      <c r="T48" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="U48" s="3">
         <v>0</v>
@@ -3095,8 +3202,11 @@
       <c r="W48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3104,28 +3214,28 @@
         <v>1800</v>
       </c>
       <c r="E49" s="3">
+        <v>1800</v>
+      </c>
+      <c r="F49" s="3">
         <v>1600</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>1400</v>
-      </c>
-      <c r="G49" s="3">
-        <v>1700</v>
       </c>
       <c r="H49" s="3">
         <v>1700</v>
       </c>
-      <c r="I49" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J49" s="3">
-        <v>1400</v>
+      <c r="I49" s="3">
+        <v>1700</v>
+      </c>
+      <c r="J49" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K49" s="3">
         <v>1400</v>
       </c>
-      <c r="L49" s="3" t="s">
-        <v>4</v>
+      <c r="L49" s="3">
+        <v>1400</v>
       </c>
       <c r="M49" s="3" t="s">
         <v>4</v>
@@ -3133,12 +3243,12 @@
       <c r="N49" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="O49" s="3">
+      <c r="O49" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P49" s="3">
         <v>1400</v>
       </c>
-      <c r="P49" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="Q49" s="3" t="s">
         <v>4</v>
       </c>
@@ -3148,8 +3258,8 @@
       <c r="S49" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="T49" s="3">
-        <v>0</v>
+      <c r="T49" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="U49" s="3">
         <v>0</v>
@@ -3160,8 +3270,11 @@
       <c r="W49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3225,8 +3338,11 @@
       <c r="W50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3290,31 +3406,34 @@
       <c r="W51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
         <v>0</v>
       </c>
-      <c r="E52" s="3">
-        <v>0</v>
-      </c>
-      <c r="F52" s="3">
-        <v>0</v>
-      </c>
-      <c r="G52" s="3">
-        <v>0</v>
-      </c>
-      <c r="H52" s="3">
-        <v>0</v>
-      </c>
-      <c r="I52" s="3">
-        <v>0</v>
-      </c>
-      <c r="J52" s="3">
-        <v>0</v>
+      <c r="E52" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F52" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G52" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H52" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I52" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J52" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K52" s="3">
         <v>0</v>
@@ -3355,8 +3474,11 @@
       <c r="W52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3420,8 +3542,11 @@
       <c r="W53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
@@ -3429,19 +3554,19 @@
         <v>1800</v>
       </c>
       <c r="E54" s="3">
+        <v>1800</v>
+      </c>
+      <c r="F54" s="3">
         <v>2200</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>1800</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>1700</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>1800</v>
-      </c>
-      <c r="I54" s="3">
-        <v>1400</v>
       </c>
       <c r="J54" s="3">
         <v>1400</v>
@@ -3462,19 +3587,19 @@
         <v>1400</v>
       </c>
       <c r="P54" s="3">
-        <v>0</v>
+        <v>1400</v>
       </c>
       <c r="Q54" s="3">
         <v>0</v>
       </c>
-      <c r="R54" s="3" t="s">
-        <v>4</v>
+      <c r="R54" s="3">
+        <v>0</v>
       </c>
       <c r="S54" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="T54" s="3">
-        <v>0</v>
+      <c r="T54" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="U54" s="3">
         <v>0</v>
@@ -3485,8 +3610,11 @@
       <c r="W54" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="55" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X54" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3510,8 +3638,9 @@
       <c r="U55" s="3"/>
       <c r="V55" s="3"/>
       <c r="W55" s="3"/>
-    </row>
-    <row r="56" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X55" s="3"/>
+    </row>
+    <row r="56" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3535,8 +3664,9 @@
       <c r="U56" s="3"/>
       <c r="V56" s="3"/>
       <c r="W56" s="3"/>
-    </row>
-    <row r="57" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X56" s="3"/>
+    </row>
+    <row r="57" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -3544,19 +3674,19 @@
         <v>200</v>
       </c>
       <c r="E57" s="3">
+        <v>200</v>
+      </c>
+      <c r="F57" s="3">
         <v>300</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>200</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>100</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>200</v>
-      </c>
-      <c r="I57" s="3">
-        <v>100</v>
       </c>
       <c r="J57" s="3">
         <v>100</v>
@@ -3582,14 +3712,14 @@
       <c r="Q57" s="3">
         <v>100</v>
       </c>
-      <c r="R57" s="3" t="s">
-        <v>4</v>
+      <c r="R57" s="3">
+        <v>100</v>
       </c>
       <c r="S57" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="T57" s="3">
-        <v>100</v>
+      <c r="T57" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="U57" s="3">
         <v>100</v>
@@ -3600,8 +3730,11 @@
       <c r="W57" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="58" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X57" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="58" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3614,26 +3747,26 @@
       <c r="F58" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G58" s="3">
+      <c r="G58" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H58" s="3">
         <v>800</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>600</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>400</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>300</v>
-      </c>
-      <c r="K58" s="3">
-        <v>200</v>
       </c>
       <c r="L58" s="3">
         <v>200</v>
       </c>
       <c r="M58" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="N58" s="3">
         <v>100</v>
@@ -3647,14 +3780,14 @@
       <c r="Q58" s="3">
         <v>100</v>
       </c>
-      <c r="R58" s="3" t="s">
-        <v>4</v>
+      <c r="R58" s="3">
+        <v>100</v>
       </c>
       <c r="S58" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="T58" s="3">
-        <v>100</v>
+      <c r="T58" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="U58" s="3">
         <v>100</v>
@@ -3665,8 +3798,11 @@
       <c r="W58" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="59" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X58" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="59" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -3679,8 +3815,8 @@
       <c r="F59" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G59" s="3">
-        <v>0</v>
+      <c r="G59" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="H59" s="3">
         <v>0</v>
@@ -3730,8 +3866,11 @@
       <c r="W59" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X59" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -3739,31 +3878,31 @@
         <v>200</v>
       </c>
       <c r="E60" s="3">
+        <v>200</v>
+      </c>
+      <c r="F60" s="3">
         <v>300</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>200</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>900</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>800</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>500</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>100</v>
-      </c>
-      <c r="K60" s="3">
-        <v>300</v>
       </c>
       <c r="L60" s="3">
         <v>300</v>
       </c>
       <c r="M60" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="N60" s="3">
         <v>200</v>
@@ -3777,14 +3916,14 @@
       <c r="Q60" s="3">
         <v>200</v>
       </c>
-      <c r="R60" s="3" t="s">
-        <v>4</v>
+      <c r="R60" s="3">
+        <v>200</v>
       </c>
       <c r="S60" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="T60" s="3">
-        <v>200</v>
+      <c r="T60" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="U60" s="3">
         <v>200</v>
@@ -3795,35 +3934,38 @@
       <c r="W60" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="61" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X60" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="61" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>200</v>
+      </c>
+      <c r="E61" s="3">
         <v>400</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>600</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>500</v>
       </c>
-      <c r="G61" s="3">
-        <v>0</v>
-      </c>
       <c r="H61" s="3">
+        <v>0</v>
+      </c>
+      <c r="I61" s="3">
         <v>100</v>
       </c>
-      <c r="I61" s="3">
-        <v>0</v>
-      </c>
       <c r="J61" s="3">
+        <v>0</v>
+      </c>
+      <c r="K61" s="3">
         <v>300</v>
       </c>
-      <c r="K61" s="3">
-        <v>0</v>
-      </c>
       <c r="L61" s="3">
         <v>0</v>
       </c>
@@ -3860,8 +4002,11 @@
       <c r="W61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -3871,11 +4016,11 @@
       <c r="E62" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F62" s="3">
-        <v>0</v>
-      </c>
-      <c r="G62" s="3" t="s">
-        <v>4</v>
+      <c r="F62" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G62" s="3">
+        <v>0</v>
       </c>
       <c r="H62" s="3" t="s">
         <v>4</v>
@@ -3886,23 +4031,23 @@
       <c r="J62" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K62" s="3">
-        <v>0</v>
-      </c>
-      <c r="L62" s="3" t="s">
-        <v>4</v>
+      <c r="K62" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L62" s="3">
+        <v>0</v>
       </c>
       <c r="M62" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N62" s="3">
-        <v>0</v>
+      <c r="N62" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="O62" s="3">
         <v>0</v>
       </c>
-      <c r="P62" s="3" t="s">
-        <v>4</v>
+      <c r="P62" s="3">
+        <v>0</v>
       </c>
       <c r="Q62" s="3" t="s">
         <v>4</v>
@@ -3913,8 +4058,8 @@
       <c r="S62" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="T62" s="3">
-        <v>0</v>
+      <c r="T62" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="U62" s="3">
         <v>0</v>
@@ -3925,8 +4070,11 @@
       <c r="W62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3990,8 +4138,11 @@
       <c r="W63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4055,8 +4206,11 @@
       <c r="W64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4120,40 +4274,43 @@
       <c r="W65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>400</v>
+      </c>
+      <c r="E66" s="3">
         <v>500</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>1100</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>800</v>
-      </c>
-      <c r="G66" s="3">
-        <v>900</v>
       </c>
       <c r="H66" s="3">
         <v>900</v>
       </c>
       <c r="I66" s="3">
+        <v>900</v>
+      </c>
+      <c r="J66" s="3">
         <v>500</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>400</v>
-      </c>
-      <c r="K66" s="3">
-        <v>300</v>
       </c>
       <c r="L66" s="3">
         <v>300</v>
       </c>
       <c r="M66" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="N66" s="3">
         <v>200</v>
@@ -4167,14 +4324,14 @@
       <c r="Q66" s="3">
         <v>200</v>
       </c>
-      <c r="R66" s="3" t="s">
-        <v>4</v>
+      <c r="R66" s="3">
+        <v>200</v>
       </c>
       <c r="S66" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="T66" s="3">
-        <v>200</v>
+      <c r="T66" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="U66" s="3">
         <v>200</v>
@@ -4185,8 +4342,11 @@
       <c r="W66" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="67" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X66" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="67" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4210,8 +4370,9 @@
       <c r="U67" s="3"/>
       <c r="V67" s="3"/>
       <c r="W67" s="3"/>
-    </row>
-    <row r="68" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X67" s="3"/>
+    </row>
+    <row r="68" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4275,8 +4436,11 @@
       <c r="W68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4340,8 +4504,11 @@
       <c r="W69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4405,8 +4572,11 @@
       <c r="W70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4470,40 +4640,43 @@
       <c r="W71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-9600</v>
+      </c>
+      <c r="E72" s="3">
         <v>-9500</v>
-      </c>
-      <c r="E72" s="3">
-        <v>-9400</v>
       </c>
       <c r="F72" s="3">
         <v>-9400</v>
       </c>
       <c r="G72" s="3">
+        <v>-9400</v>
+      </c>
+      <c r="H72" s="3">
         <v>-9100</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-9000</v>
-      </c>
-      <c r="I72" s="3">
-        <v>-8900</v>
       </c>
       <c r="J72" s="3">
         <v>-8900</v>
       </c>
       <c r="K72" s="3">
-        <v>-8700</v>
+        <v>-8900</v>
       </c>
       <c r="L72" s="3">
         <v>-8700</v>
       </c>
       <c r="M72" s="3">
-        <v>-8600</v>
+        <v>-8700</v>
       </c>
       <c r="N72" s="3">
         <v>-8600</v>
@@ -4517,14 +4690,14 @@
       <c r="Q72" s="3">
         <v>-8600</v>
       </c>
-      <c r="R72" s="3" t="s">
-        <v>4</v>
+      <c r="R72" s="3">
+        <v>-8600</v>
       </c>
       <c r="S72" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="T72" s="3">
-        <v>-8600</v>
+      <c r="T72" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="U72" s="3">
         <v>-8600</v>
@@ -4535,8 +4708,11 @@
       <c r="W72" s="3">
         <v>-8600</v>
       </c>
-    </row>
-    <row r="73" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X72" s="3">
+        <v>-8600</v>
+      </c>
+    </row>
+    <row r="73" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4600,8 +4776,11 @@
       <c r="W73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4665,8 +4844,11 @@
       <c r="W74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4730,25 +4912,28 @@
       <c r="W75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>1400</v>
+      </c>
+      <c r="E76" s="3">
         <v>1300</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>1100</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>1000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>800</v>
-      </c>
-      <c r="H76" s="3">
-        <v>900</v>
       </c>
       <c r="I76" s="3">
         <v>900</v>
@@ -4757,34 +4942,34 @@
         <v>900</v>
       </c>
       <c r="K76" s="3">
+        <v>900</v>
+      </c>
+      <c r="L76" s="3">
         <v>1000</v>
-      </c>
-      <c r="L76" s="3">
-        <v>1100</v>
       </c>
       <c r="M76" s="3">
         <v>1100</v>
       </c>
       <c r="N76" s="3">
-        <v>1200</v>
+        <v>1100</v>
       </c>
       <c r="O76" s="3">
         <v>1200</v>
       </c>
       <c r="P76" s="3">
-        <v>-200</v>
+        <v>1200</v>
       </c>
       <c r="Q76" s="3">
         <v>-200</v>
       </c>
-      <c r="R76" s="3" t="s">
-        <v>4</v>
+      <c r="R76" s="3">
+        <v>-200</v>
       </c>
       <c r="S76" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="T76" s="3">
-        <v>-200</v>
+      <c r="T76" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="U76" s="3">
         <v>-200</v>
@@ -4795,8 +4980,11 @@
       <c r="W76" s="3">
         <v>-200</v>
       </c>
-    </row>
-    <row r="77" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X76" s="3">
+        <v>-200</v>
+      </c>
+    </row>
+    <row r="77" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4860,78 +5048,84 @@
       <c r="W77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44681</v>
+      </c>
+      <c r="E80" s="2">
         <v>44592</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44500</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44408</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44316</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44227</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44135</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44043</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43951</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43861</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43769</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43677</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43585</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43496</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43404</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43312</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43220</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42947</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42855</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>42766</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>42674</v>
       </c>
     </row>
-    <row r="81" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
@@ -4939,13 +5133,13 @@
         <v>-100</v>
       </c>
       <c r="E81" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="F81" s="3">
+        <v>0</v>
+      </c>
+      <c r="G81" s="3">
         <v>-300</v>
-      </c>
-      <c r="G81" s="3">
-        <v>-100</v>
       </c>
       <c r="H81" s="3">
         <v>-100</v>
@@ -4960,7 +5154,7 @@
         <v>-100</v>
       </c>
       <c r="L81" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="M81" s="3">
         <v>0</v>
@@ -4995,8 +5189,11 @@
       <c r="W81" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="82" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X81" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5020,8 +5217,9 @@
       <c r="U82" s="3"/>
       <c r="V82" s="3"/>
       <c r="W82" s="3"/>
-    </row>
-    <row r="83" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X82" s="3"/>
+    </row>
+    <row r="83" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -5085,8 +5283,11 @@
       <c r="W83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5150,8 +5351,11 @@
       <c r="W84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5215,8 +5419,11 @@
       <c r="W85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5280,8 +5487,11 @@
       <c r="W86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5345,8 +5555,11 @@
       <c r="W87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5410,38 +5623,41 @@
       <c r="W88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>0</v>
+      </c>
+      <c r="E89" s="3">
         <v>-200</v>
-      </c>
-      <c r="E89" s="3">
-        <v>100</v>
       </c>
       <c r="F89" s="3">
         <v>100</v>
       </c>
       <c r="G89" s="3">
+        <v>100</v>
+      </c>
+      <c r="H89" s="3">
         <v>-600</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>400</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-100</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>100</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-100</v>
       </c>
-      <c r="L89" s="3">
-        <v>0</v>
-      </c>
       <c r="M89" s="3">
         <v>0</v>
       </c>
@@ -5475,8 +5691,11 @@
       <c r="W89" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5500,20 +5719,21 @@
       <c r="U90" s="3"/>
       <c r="V90" s="3"/>
       <c r="W90" s="3"/>
-    </row>
-    <row r="91" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X90" s="3"/>
+    </row>
+    <row r="91" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="D91" s="3">
+      <c r="D91" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E91" s="3">
         <v>300</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-400</v>
       </c>
-      <c r="F91" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="G91" s="3" t="s">
         <v>4</v>
       </c>
@@ -5526,8 +5746,8 @@
       <c r="J91" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K91" s="3">
-        <v>0</v>
+      <c r="K91" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="L91" s="3">
         <v>0</v>
@@ -5565,8 +5785,11 @@
       <c r="W91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5630,8 +5853,11 @@
       <c r="W92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5695,50 +5921,53 @@
       <c r="W93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>0</v>
+      </c>
+      <c r="E94" s="3">
         <v>300</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-400</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-500</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>500</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-300</v>
       </c>
-      <c r="I94" s="3">
-        <v>0</v>
-      </c>
       <c r="J94" s="3">
+        <v>0</v>
+      </c>
+      <c r="K94" s="3">
         <v>-100</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>100</v>
       </c>
-      <c r="L94" s="3">
-        <v>0</v>
-      </c>
       <c r="M94" s="3">
         <v>0</v>
       </c>
       <c r="N94" s="3">
+        <v>0</v>
+      </c>
+      <c r="O94" s="3">
         <v>1300</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-1400</v>
       </c>
-      <c r="P94" s="3">
-        <v>0</v>
-      </c>
       <c r="Q94" s="3">
         <v>0</v>
       </c>
@@ -5760,8 +5989,11 @@
       <c r="W94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5785,8 +6017,9 @@
       <c r="U95" s="3"/>
       <c r="V95" s="3"/>
       <c r="W95" s="3"/>
-    </row>
-    <row r="96" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X95" s="3"/>
+    </row>
+    <row r="96" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5850,8 +6083,11 @@
       <c r="W96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5915,8 +6151,11 @@
       <c r="W97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5980,8 +6219,11 @@
       <c r="W98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6045,50 +6287,53 @@
       <c r="W99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>0</v>
+      </c>
+      <c r="E100" s="3">
         <v>-200</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>300</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>500</v>
       </c>
-      <c r="G100" s="3">
-        <v>0</v>
-      </c>
       <c r="H100" s="3">
         <v>0</v>
       </c>
       <c r="I100" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J100" s="3">
         <v>100</v>
       </c>
       <c r="K100" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L100" s="3">
+        <v>0</v>
+      </c>
+      <c r="M100" s="3">
         <v>100</v>
       </c>
-      <c r="M100" s="3">
-        <v>0</v>
-      </c>
       <c r="N100" s="3">
+        <v>0</v>
+      </c>
+      <c r="O100" s="3">
         <v>-1400</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>1400</v>
       </c>
-      <c r="P100" s="3">
-        <v>0</v>
-      </c>
       <c r="Q100" s="3">
         <v>0</v>
       </c>
@@ -6110,8 +6355,11 @@
       <c r="W100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -6175,17 +6423,20 @@
       <c r="W101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>0</v>
+      </c>
+      <c r="E102" s="3">
         <v>-100</v>
       </c>
-      <c r="E102" s="3">
-        <v>0</v>
-      </c>
       <c r="F102" s="3">
         <v>0</v>
       </c>
@@ -6193,11 +6444,11 @@
         <v>0</v>
       </c>
       <c r="H102" s="3">
+        <v>0</v>
+      </c>
+      <c r="I102" s="3">
         <v>100</v>
       </c>
-      <c r="I102" s="3">
-        <v>0</v>
-      </c>
       <c r="J102" s="3">
         <v>0</v>
       </c>
@@ -6238,6 +6489,9 @@
         <v>0</v>
       </c>
       <c r="W102" s="3">
+        <v>0</v>
+      </c>
+      <c r="X102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/CYAP_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/CYAP_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="258" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="277" uniqueCount="92">
   <si>
     <t>CYAP</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:X102"/>
+  <dimension ref="A5:Z102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,104 +665,112 @@
     <col min="1" max="1" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="23" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="16384" width="9.140625" style="1"/>
+    <col min="22" max="22" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="25" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:26" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44865</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44773</v>
+      </c>
+      <c r="F7" s="2">
         <v>44681</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44592</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>44500</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>44408</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>44316</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>44227</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>44135</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>44043</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>43951</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>43861</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>43769</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>43677</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>43585</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="S7" s="2">
         <v>43496</v>
       </c>
-      <c r="R7" s="2">
+      <c r="T7" s="2">
         <v>43404</v>
       </c>
-      <c r="S7" s="2">
+      <c r="U7" s="2">
         <v>43312</v>
       </c>
-      <c r="T7" s="2">
+      <c r="V7" s="2">
         <v>43220</v>
       </c>
-      <c r="U7" s="2">
+      <c r="W7" s="2">
         <v>42947</v>
       </c>
-      <c r="V7" s="2">
+      <c r="X7" s="2">
         <v>42855</v>
       </c>
-      <c r="W7" s="2">
+      <c r="Y7" s="2">
         <v>42766</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Z7" s="2">
         <v>42674</v>
       </c>
     </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -829,8 +837,14 @@
       <c r="X8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y8" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -897,8 +911,14 @@
       <c r="X9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Z9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -965,8 +985,14 @@
       <c r="X10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Z10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -991,8 +1017,10 @@
       <c r="V11" s="3"/>
       <c r="W11" s="3"/>
       <c r="X11" s="3"/>
-    </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y11" s="3"/>
+      <c r="Z11" s="3"/>
+    </row>
+    <row r="12" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -1059,8 +1087,14 @@
       <c r="X12" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y12" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Z12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1127,8 +1161,14 @@
       <c r="X13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y13" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1183,8 +1223,8 @@
       <c r="T14" s="3">
         <v>0</v>
       </c>
-      <c r="U14" s="3" t="s">
-        <v>4</v>
+      <c r="U14" s="3">
+        <v>0</v>
       </c>
       <c r="V14" s="3">
         <v>0</v>
@@ -1192,11 +1232,17 @@
       <c r="W14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="X14" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="X14" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Z14" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1263,8 +1309,14 @@
       <c r="X15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y15" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:26" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1286,28 +1338,30 @@
       <c r="V16" s="3"/>
       <c r="W16" s="3"/>
       <c r="X16" s="3"/>
-    </row>
-    <row r="17" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y16" s="3"/>
+      <c r="Z16" s="3"/>
+    </row>
+    <row r="17" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E17" s="3">
-        <v>100</v>
+        <v>1300</v>
       </c>
       <c r="F17" s="3">
         <v>100</v>
       </c>
       <c r="G17" s="3">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="H17" s="3">
         <v>100</v>
       </c>
       <c r="I17" s="3">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="J17" s="3">
         <v>100</v>
@@ -1319,10 +1373,10 @@
         <v>100</v>
       </c>
       <c r="M17" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N17" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="O17" s="3">
         <v>0</v>
@@ -1354,8 +1408,14 @@
       <c r="X17" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y17" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z17" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1363,19 +1423,19 @@
         <v>4</v>
       </c>
       <c r="E18" s="3">
-        <v>-100</v>
+        <v>-1300</v>
       </c>
       <c r="F18" s="3">
         <v>-100</v>
       </c>
       <c r="G18" s="3">
-        <v>-300</v>
+        <v>-100</v>
       </c>
       <c r="H18" s="3">
         <v>-100</v>
       </c>
       <c r="I18" s="3">
-        <v>-100</v>
+        <v>-300</v>
       </c>
       <c r="J18" s="3">
         <v>-100</v>
@@ -1387,10 +1447,10 @@
         <v>-100</v>
       </c>
       <c r="M18" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="N18" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="O18" s="3">
         <v>0</v>
@@ -1422,8 +1482,14 @@
       <c r="X18" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y18" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z18" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1448,8 +1514,10 @@
       <c r="V19" s="3"/>
       <c r="W19" s="3"/>
       <c r="X19" s="3"/>
-    </row>
-    <row r="20" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y19" s="3"/>
+      <c r="Z19" s="3"/>
+    </row>
+    <row r="20" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1516,8 +1584,14 @@
       <c r="X20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y20" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1551,14 +1625,14 @@
       <c r="M21" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N21" s="3">
-        <v>0</v>
+      <c r="N21" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="O21" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="P21" s="3" t="s">
-        <v>4</v>
+      <c r="P21" s="3">
+        <v>0</v>
       </c>
       <c r="Q21" s="3" t="s">
         <v>4</v>
@@ -1584,8 +1658,14 @@
       <c r="X21" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="22" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Z21" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1652,28 +1732,34 @@
       <c r="X22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y22" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="E23" s="3">
-        <v>-100</v>
+        <v>-1300</v>
       </c>
       <c r="F23" s="3">
         <v>-100</v>
       </c>
       <c r="G23" s="3">
-        <v>-300</v>
+        <v>-100</v>
       </c>
       <c r="H23" s="3">
         <v>-100</v>
       </c>
       <c r="I23" s="3">
-        <v>-100</v>
+        <v>-300</v>
       </c>
       <c r="J23" s="3">
         <v>-100</v>
@@ -1685,10 +1771,10 @@
         <v>-100</v>
       </c>
       <c r="M23" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="N23" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="O23" s="3">
         <v>0</v>
@@ -1720,8 +1806,14 @@
       <c r="X23" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y23" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z23" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1788,8 +1880,14 @@
       <c r="X24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y24" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1856,28 +1954,34 @@
       <c r="X25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y25" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="E26" s="3">
-        <v>-100</v>
+        <v>-1300</v>
       </c>
       <c r="F26" s="3">
         <v>-100</v>
       </c>
       <c r="G26" s="3">
-        <v>-300</v>
+        <v>-100</v>
       </c>
       <c r="H26" s="3">
         <v>-100</v>
       </c>
       <c r="I26" s="3">
-        <v>-100</v>
+        <v>-300</v>
       </c>
       <c r="J26" s="3">
         <v>-100</v>
@@ -1889,10 +1993,10 @@
         <v>-100</v>
       </c>
       <c r="M26" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="N26" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="O26" s="3">
         <v>0</v>
@@ -1924,28 +2028,34 @@
       <c r="X26" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y26" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z26" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>0</v>
+      </c>
+      <c r="E27" s="3">
+        <v>-1300</v>
+      </c>
+      <c r="F27" s="3">
         <v>-100</v>
       </c>
-      <c r="E27" s="3">
+      <c r="G27" s="3">
         <v>-100</v>
       </c>
-      <c r="F27" s="3">
-        <v>0</v>
-      </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
+        <v>0</v>
+      </c>
+      <c r="I27" s="3">
         <v>-300</v>
-      </c>
-      <c r="H27" s="3">
-        <v>-100</v>
-      </c>
-      <c r="I27" s="3">
-        <v>-100</v>
       </c>
       <c r="J27" s="3">
         <v>-100</v>
@@ -1957,10 +2067,10 @@
         <v>-100</v>
       </c>
       <c r="M27" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="N27" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="O27" s="3">
         <v>0</v>
@@ -1992,8 +2102,14 @@
       <c r="X27" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y27" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z27" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2060,8 +2176,14 @@
       <c r="X28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y28" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2128,8 +2250,14 @@
       <c r="X29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y29" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2196,8 +2324,14 @@
       <c r="X30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y30" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2264,8 +2398,14 @@
       <c r="X31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y31" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -2332,28 +2472,34 @@
       <c r="X32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y32" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>0</v>
+      </c>
+      <c r="E33" s="3">
+        <v>-1300</v>
+      </c>
+      <c r="F33" s="3">
         <v>-100</v>
       </c>
-      <c r="E33" s="3">
+      <c r="G33" s="3">
         <v>-100</v>
       </c>
-      <c r="F33" s="3">
-        <v>0</v>
-      </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
+        <v>0</v>
+      </c>
+      <c r="I33" s="3">
         <v>-300</v>
-      </c>
-      <c r="H33" s="3">
-        <v>-100</v>
-      </c>
-      <c r="I33" s="3">
-        <v>-100</v>
       </c>
       <c r="J33" s="3">
         <v>-100</v>
@@ -2365,10 +2511,10 @@
         <v>-100</v>
       </c>
       <c r="M33" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="N33" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="O33" s="3">
         <v>0</v>
@@ -2400,8 +2546,14 @@
       <c r="X33" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y33" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z33" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2468,28 +2620,34 @@
       <c r="X34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y34" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>0</v>
+      </c>
+      <c r="E35" s="3">
+        <v>-1300</v>
+      </c>
+      <c r="F35" s="3">
         <v>-100</v>
       </c>
-      <c r="E35" s="3">
+      <c r="G35" s="3">
         <v>-100</v>
       </c>
-      <c r="F35" s="3">
-        <v>0</v>
-      </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
+        <v>0</v>
+      </c>
+      <c r="I35" s="3">
         <v>-300</v>
-      </c>
-      <c r="H35" s="3">
-        <v>-100</v>
-      </c>
-      <c r="I35" s="3">
-        <v>-100</v>
       </c>
       <c r="J35" s="3">
         <v>-100</v>
@@ -2501,10 +2659,10 @@
         <v>-100</v>
       </c>
       <c r="M35" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="N35" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="O35" s="3">
         <v>0</v>
@@ -2536,81 +2694,93 @@
       <c r="X35" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="37" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y35" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z35" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44865</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44773</v>
+      </c>
+      <c r="F38" s="2">
         <v>44681</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44592</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>44500</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>44408</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>44316</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>44227</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>44135</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>44043</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>43951</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>43861</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>43769</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>43677</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>43585</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="S38" s="2">
         <v>43496</v>
       </c>
-      <c r="R38" s="2">
+      <c r="T38" s="2">
         <v>43404</v>
       </c>
-      <c r="S38" s="2">
+      <c r="U38" s="2">
         <v>43312</v>
       </c>
-      <c r="T38" s="2">
+      <c r="V38" s="2">
         <v>43220</v>
       </c>
-      <c r="U38" s="2">
+      <c r="W38" s="2">
         <v>42947</v>
       </c>
-      <c r="V38" s="2">
+      <c r="X38" s="2">
         <v>42855</v>
       </c>
-      <c r="W38" s="2">
+      <c r="Y38" s="2">
         <v>42766</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Z38" s="2">
         <v>42674</v>
       </c>
     </row>
-    <row r="39" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2635,8 +2805,10 @@
       <c r="V39" s="3"/>
       <c r="W39" s="3"/>
       <c r="X39" s="3"/>
-    </row>
-    <row r="40" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y39" s="3"/>
+      <c r="Z39" s="3"/>
+    </row>
+    <row r="40" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2661,8 +2833,10 @@
       <c r="V40" s="3"/>
       <c r="W40" s="3"/>
       <c r="X40" s="3"/>
-    </row>
-    <row r="41" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y40" s="3"/>
+      <c r="Z40" s="3"/>
+    </row>
+    <row r="41" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
@@ -2673,13 +2847,13 @@
         <v>0</v>
       </c>
       <c r="F41" s="3">
+        <v>0</v>
+      </c>
+      <c r="G41" s="3">
+        <v>0</v>
+      </c>
+      <c r="H41" s="3">
         <v>100</v>
-      </c>
-      <c r="G41" s="3">
-        <v>100</v>
-      </c>
-      <c r="H41" s="3">
-        <v>0</v>
       </c>
       <c r="I41" s="3">
         <v>100</v>
@@ -2688,13 +2862,13 @@
         <v>0</v>
       </c>
       <c r="K41" s="3">
-        <v>0</v>
-      </c>
-      <c r="L41" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M41" s="3" t="s">
-        <v>4</v>
+        <v>100</v>
+      </c>
+      <c r="L41" s="3">
+        <v>0</v>
+      </c>
+      <c r="M41" s="3">
+        <v>0</v>
       </c>
       <c r="N41" s="3" t="s">
         <v>4</v>
@@ -2708,11 +2882,11 @@
       <c r="Q41" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="R41" s="3">
-        <v>0</v>
-      </c>
-      <c r="S41" s="3">
-        <v>0</v>
+      <c r="R41" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S41" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="T41" s="3">
         <v>0</v>
@@ -2729,8 +2903,14 @@
       <c r="X41" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y41" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2797,8 +2977,14 @@
       <c r="X42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y42" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2865,8 +3051,14 @@
       <c r="X43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y43" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2933,8 +3125,14 @@
       <c r="X44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y44" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2983,17 +3181,17 @@
       <c r="R45" s="3">
         <v>0</v>
       </c>
-      <c r="S45" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="T45" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="U45" s="3">
-        <v>0</v>
-      </c>
-      <c r="V45" s="3">
-        <v>0</v>
+      <c r="S45" s="3">
+        <v>0</v>
+      </c>
+      <c r="T45" s="3">
+        <v>0</v>
+      </c>
+      <c r="U45" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="V45" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="W45" s="3">
         <v>0</v>
@@ -3001,8 +3199,14 @@
       <c r="X45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y45" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -3013,13 +3217,13 @@
         <v>0</v>
       </c>
       <c r="F46" s="3">
+        <v>0</v>
+      </c>
+      <c r="G46" s="3">
+        <v>0</v>
+      </c>
+      <c r="H46" s="3">
         <v>100</v>
-      </c>
-      <c r="G46" s="3">
-        <v>100</v>
-      </c>
-      <c r="H46" s="3">
-        <v>0</v>
       </c>
       <c r="I46" s="3">
         <v>100</v>
@@ -3028,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="K46" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L46" s="3">
         <v>0</v>
@@ -3051,17 +3255,17 @@
       <c r="R46" s="3">
         <v>0</v>
       </c>
-      <c r="S46" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="T46" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="U46" s="3">
-        <v>0</v>
-      </c>
-      <c r="V46" s="3">
-        <v>0</v>
+      <c r="S46" s="3">
+        <v>0</v>
+      </c>
+      <c r="T46" s="3">
+        <v>0</v>
+      </c>
+      <c r="U46" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="V46" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="W46" s="3">
         <v>0</v>
@@ -3069,8 +3273,14 @@
       <c r="X46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y46" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3137,67 +3347,73 @@
       <c r="X47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y47" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="D48" s="3">
-        <v>0</v>
-      </c>
-      <c r="E48" s="3" t="s">
-        <v>4</v>
+      <c r="D48" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E48" s="3">
+        <v>0</v>
       </c>
       <c r="F48" s="3">
+        <v>0</v>
+      </c>
+      <c r="G48" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H48" s="3">
         <v>500</v>
       </c>
-      <c r="G48" s="3">
+      <c r="I48" s="3">
         <v>300</v>
       </c>
-      <c r="H48" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I48" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J48" s="3">
+      <c r="J48" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K48" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L48" s="3">
         <v>1400</v>
       </c>
-      <c r="K48" s="3">
-        <v>0</v>
-      </c>
-      <c r="L48" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="M48" s="3">
-        <v>1400</v>
-      </c>
-      <c r="N48" s="3">
-        <v>1400</v>
+        <v>0</v>
+      </c>
+      <c r="N48" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="O48" s="3">
         <v>1400</v>
       </c>
-      <c r="P48" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q48" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="R48" s="3">
-        <v>0</v>
+      <c r="P48" s="3">
+        <v>1400</v>
+      </c>
+      <c r="Q48" s="3">
+        <v>1400</v>
+      </c>
+      <c r="R48" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="S48" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="T48" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="U48" s="3">
-        <v>0</v>
-      </c>
-      <c r="V48" s="3">
-        <v>0</v>
+      <c r="T48" s="3">
+        <v>0</v>
+      </c>
+      <c r="U48" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="V48" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="W48" s="3">
         <v>0</v>
@@ -3205,67 +3421,73 @@
       <c r="X48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y48" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>400</v>
+      </c>
+      <c r="E49" s="3">
+        <v>400</v>
+      </c>
+      <c r="F49" s="3">
         <v>1800</v>
       </c>
-      <c r="E49" s="3">
+      <c r="G49" s="3">
         <v>1800</v>
       </c>
-      <c r="F49" s="3">
+      <c r="H49" s="3">
         <v>1600</v>
       </c>
-      <c r="G49" s="3">
+      <c r="I49" s="3">
         <v>1400</v>
       </c>
-      <c r="H49" s="3">
+      <c r="J49" s="3">
         <v>1700</v>
       </c>
-      <c r="I49" s="3">
+      <c r="K49" s="3">
         <v>1700</v>
       </c>
-      <c r="J49" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M49" s="3">
         <v>1400</v>
       </c>
-      <c r="L49" s="3">
+      <c r="N49" s="3">
         <v>1400</v>
       </c>
-      <c r="M49" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="N49" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="O49" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="P49" s="3">
+      <c r="P49" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q49" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R49" s="3">
         <v>1400</v>
       </c>
-      <c r="Q49" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="R49" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="S49" s="3" t="s">
         <v>4</v>
       </c>
       <c r="T49" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="U49" s="3">
-        <v>0</v>
-      </c>
-      <c r="V49" s="3">
-        <v>0</v>
+      <c r="U49" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="V49" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="W49" s="3">
         <v>0</v>
@@ -3273,8 +3495,14 @@
       <c r="X49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y49" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3341,8 +3569,14 @@
       <c r="X50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y50" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3409,19 +3643,25 @@
       <c r="X51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y51" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="D52" s="3">
-        <v>0</v>
+      <c r="D52" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E52" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F52" s="3" t="s">
-        <v>4</v>
+      <c r="F52" s="3">
+        <v>0</v>
       </c>
       <c r="G52" s="3" t="s">
         <v>4</v>
@@ -3435,11 +3675,11 @@
       <c r="J52" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K52" s="3">
-        <v>0</v>
-      </c>
-      <c r="L52" s="3">
-        <v>0</v>
+      <c r="K52" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L52" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="M52" s="3">
         <v>0</v>
@@ -3477,8 +3717,14 @@
       <c r="X52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y52" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3545,34 +3791,40 @@
       <c r="X53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y53" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>400</v>
+      </c>
+      <c r="E54" s="3">
+        <v>400</v>
+      </c>
+      <c r="F54" s="3">
         <v>1800</v>
-      </c>
-      <c r="E54" s="3">
-        <v>1800</v>
-      </c>
-      <c r="F54" s="3">
-        <v>2200</v>
       </c>
       <c r="G54" s="3">
         <v>1800</v>
       </c>
       <c r="H54" s="3">
-        <v>1700</v>
+        <v>2200</v>
       </c>
       <c r="I54" s="3">
         <v>1800</v>
       </c>
       <c r="J54" s="3">
-        <v>1400</v>
+        <v>1700</v>
       </c>
       <c r="K54" s="3">
-        <v>1400</v>
+        <v>1800</v>
       </c>
       <c r="L54" s="3">
         <v>1400</v>
@@ -3590,22 +3842,22 @@
         <v>1400</v>
       </c>
       <c r="Q54" s="3">
-        <v>0</v>
+        <v>1400</v>
       </c>
       <c r="R54" s="3">
-        <v>0</v>
-      </c>
-      <c r="S54" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="T54" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="U54" s="3">
-        <v>0</v>
-      </c>
-      <c r="V54" s="3">
-        <v>0</v>
+        <v>1400</v>
+      </c>
+      <c r="S54" s="3">
+        <v>0</v>
+      </c>
+      <c r="T54" s="3">
+        <v>0</v>
+      </c>
+      <c r="U54" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="V54" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="W54" s="3">
         <v>0</v>
@@ -3613,8 +3865,14 @@
       <c r="X54" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="55" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y54" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z54" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3639,8 +3897,10 @@
       <c r="V55" s="3"/>
       <c r="W55" s="3"/>
       <c r="X55" s="3"/>
-    </row>
-    <row r="56" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y55" s="3"/>
+      <c r="Z55" s="3"/>
+    </row>
+    <row r="56" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3665,25 +3925,27 @@
       <c r="V56" s="3"/>
       <c r="W56" s="3"/>
       <c r="X56" s="3"/>
-    </row>
-    <row r="57" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y56" s="3"/>
+      <c r="Z56" s="3"/>
+    </row>
+    <row r="57" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>100</v>
+      </c>
+      <c r="E57" s="3">
+        <v>100</v>
+      </c>
+      <c r="F57" s="3">
         <v>200</v>
-      </c>
-      <c r="E57" s="3">
-        <v>200</v>
-      </c>
-      <c r="F57" s="3">
-        <v>300</v>
       </c>
       <c r="G57" s="3">
         <v>200</v>
       </c>
       <c r="H57" s="3">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="I57" s="3">
         <v>200</v>
@@ -3692,7 +3954,7 @@
         <v>100</v>
       </c>
       <c r="K57" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="L57" s="3">
         <v>100</v>
@@ -3715,17 +3977,17 @@
       <c r="R57" s="3">
         <v>100</v>
       </c>
-      <c r="S57" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="T57" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="U57" s="3">
+      <c r="S57" s="3">
         <v>100</v>
       </c>
-      <c r="V57" s="3">
+      <c r="T57" s="3">
         <v>100</v>
+      </c>
+      <c r="U57" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="V57" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="W57" s="3">
         <v>100</v>
@@ -3733,8 +3995,14 @@
       <c r="X57" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="58" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y57" s="3">
+        <v>100</v>
+      </c>
+      <c r="Z57" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="58" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3750,29 +4018,29 @@
       <c r="G58" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="H58" s="3">
+      <c r="H58" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I58" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J58" s="3">
         <v>800</v>
       </c>
-      <c r="I58" s="3">
+      <c r="K58" s="3">
         <v>600</v>
       </c>
-      <c r="J58" s="3">
+      <c r="L58" s="3">
         <v>400</v>
       </c>
-      <c r="K58" s="3">
+      <c r="M58" s="3">
         <v>300</v>
       </c>
-      <c r="L58" s="3">
+      <c r="N58" s="3">
         <v>200</v>
       </c>
-      <c r="M58" s="3">
+      <c r="O58" s="3">
         <v>200</v>
-      </c>
-      <c r="N58" s="3">
-        <v>100</v>
-      </c>
-      <c r="O58" s="3">
-        <v>100</v>
       </c>
       <c r="P58" s="3">
         <v>100</v>
@@ -3783,17 +4051,17 @@
       <c r="R58" s="3">
         <v>100</v>
       </c>
-      <c r="S58" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="T58" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="U58" s="3">
+      <c r="S58" s="3">
         <v>100</v>
       </c>
-      <c r="V58" s="3">
+      <c r="T58" s="3">
         <v>100</v>
+      </c>
+      <c r="U58" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="V58" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="W58" s="3">
         <v>100</v>
@@ -3801,8 +4069,14 @@
       <c r="X58" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="59" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y58" s="3">
+        <v>100</v>
+      </c>
+      <c r="Z58" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="59" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -3818,11 +4092,11 @@
       <c r="G59" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="H59" s="3">
-        <v>0</v>
-      </c>
-      <c r="I59" s="3">
-        <v>0</v>
+      <c r="H59" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I59" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="J59" s="3">
         <v>0</v>
@@ -3869,46 +4143,52 @@
       <c r="X59" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y59" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z59" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>100</v>
+      </c>
+      <c r="E60" s="3">
+        <v>100</v>
+      </c>
+      <c r="F60" s="3">
         <v>200</v>
-      </c>
-      <c r="E60" s="3">
-        <v>200</v>
-      </c>
-      <c r="F60" s="3">
-        <v>300</v>
       </c>
       <c r="G60" s="3">
         <v>200</v>
       </c>
       <c r="H60" s="3">
+        <v>300</v>
+      </c>
+      <c r="I60" s="3">
+        <v>200</v>
+      </c>
+      <c r="J60" s="3">
         <v>900</v>
       </c>
-      <c r="I60" s="3">
+      <c r="K60" s="3">
         <v>800</v>
       </c>
-      <c r="J60" s="3">
+      <c r="L60" s="3">
         <v>500</v>
       </c>
-      <c r="K60" s="3">
+      <c r="M60" s="3">
         <v>100</v>
       </c>
-      <c r="L60" s="3">
+      <c r="N60" s="3">
         <v>300</v>
       </c>
-      <c r="M60" s="3">
+      <c r="O60" s="3">
         <v>300</v>
-      </c>
-      <c r="N60" s="3">
-        <v>200</v>
-      </c>
-      <c r="O60" s="3">
-        <v>200</v>
       </c>
       <c r="P60" s="3">
         <v>200</v>
@@ -3919,17 +4199,17 @@
       <c r="R60" s="3">
         <v>200</v>
       </c>
-      <c r="S60" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="T60" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="U60" s="3">
+      <c r="S60" s="3">
         <v>200</v>
       </c>
-      <c r="V60" s="3">
+      <c r="T60" s="3">
         <v>200</v>
+      </c>
+      <c r="U60" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="V60" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="W60" s="3">
         <v>200</v>
@@ -3937,41 +4217,47 @@
       <c r="X60" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="61" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y60" s="3">
+        <v>200</v>
+      </c>
+      <c r="Z60" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="61" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>100</v>
+      </c>
+      <c r="E61" s="3">
+        <v>100</v>
+      </c>
+      <c r="F61" s="3">
         <v>200</v>
       </c>
-      <c r="E61" s="3">
+      <c r="G61" s="3">
         <v>400</v>
       </c>
-      <c r="F61" s="3">
+      <c r="H61" s="3">
         <v>600</v>
       </c>
-      <c r="G61" s="3">
+      <c r="I61" s="3">
         <v>500</v>
       </c>
-      <c r="H61" s="3">
-        <v>0</v>
-      </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
+        <v>0</v>
+      </c>
+      <c r="K61" s="3">
         <v>100</v>
       </c>
-      <c r="J61" s="3">
-        <v>0</v>
-      </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
+        <v>0</v>
+      </c>
+      <c r="M61" s="3">
         <v>300</v>
       </c>
-      <c r="L61" s="3">
-        <v>0</v>
-      </c>
-      <c r="M61" s="3">
-        <v>0</v>
-      </c>
       <c r="N61" s="3">
         <v>0</v>
       </c>
@@ -4005,8 +4291,14 @@
       <c r="X61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y61" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -4019,14 +4311,14 @@
       <c r="F62" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G62" s="3">
-        <v>0</v>
+      <c r="G62" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="H62" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="I62" s="3" t="s">
-        <v>4</v>
+      <c r="I62" s="3">
+        <v>0</v>
       </c>
       <c r="J62" s="3" t="s">
         <v>4</v>
@@ -4034,26 +4326,26 @@
       <c r="K62" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="L62" s="3">
-        <v>0</v>
+      <c r="L62" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="M62" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N62" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="O62" s="3">
-        <v>0</v>
-      </c>
-      <c r="P62" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q62" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="R62" s="3" t="s">
-        <v>4</v>
+      <c r="N62" s="3">
+        <v>0</v>
+      </c>
+      <c r="O62" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P62" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q62" s="3">
+        <v>0</v>
+      </c>
+      <c r="R62" s="3">
+        <v>0</v>
       </c>
       <c r="S62" s="3" t="s">
         <v>4</v>
@@ -4061,11 +4353,11 @@
       <c r="T62" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="U62" s="3">
-        <v>0</v>
-      </c>
-      <c r="V62" s="3">
-        <v>0</v>
+      <c r="U62" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="V62" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="W62" s="3">
         <v>0</v>
@@ -4073,8 +4365,14 @@
       <c r="X62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y62" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4141,8 +4439,14 @@
       <c r="X63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y63" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4209,8 +4513,14 @@
       <c r="X64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y64" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4277,46 +4587,52 @@
       <c r="X65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y65" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>200</v>
+      </c>
+      <c r="E66" s="3">
+        <v>200</v>
+      </c>
+      <c r="F66" s="3">
         <v>400</v>
       </c>
-      <c r="E66" s="3">
+      <c r="G66" s="3">
         <v>500</v>
       </c>
-      <c r="F66" s="3">
+      <c r="H66" s="3">
         <v>1100</v>
       </c>
-      <c r="G66" s="3">
+      <c r="I66" s="3">
         <v>800</v>
       </c>
-      <c r="H66" s="3">
+      <c r="J66" s="3">
         <v>900</v>
       </c>
-      <c r="I66" s="3">
+      <c r="K66" s="3">
         <v>900</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>500</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>400</v>
       </c>
-      <c r="L66" s="3">
+      <c r="N66" s="3">
         <v>300</v>
       </c>
-      <c r="M66" s="3">
+      <c r="O66" s="3">
         <v>300</v>
-      </c>
-      <c r="N66" s="3">
-        <v>200</v>
-      </c>
-      <c r="O66" s="3">
-        <v>200</v>
       </c>
       <c r="P66" s="3">
         <v>200</v>
@@ -4327,17 +4643,17 @@
       <c r="R66" s="3">
         <v>200</v>
       </c>
-      <c r="S66" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="T66" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="U66" s="3">
+      <c r="S66" s="3">
         <v>200</v>
       </c>
-      <c r="V66" s="3">
+      <c r="T66" s="3">
         <v>200</v>
+      </c>
+      <c r="U66" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="V66" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="W66" s="3">
         <v>200</v>
@@ -4345,8 +4661,14 @@
       <c r="X66" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="67" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y66" s="3">
+        <v>200</v>
+      </c>
+      <c r="Z66" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="67" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4371,8 +4693,10 @@
       <c r="V67" s="3"/>
       <c r="W67" s="3"/>
       <c r="X67" s="3"/>
-    </row>
-    <row r="68" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y67" s="3"/>
+      <c r="Z67" s="3"/>
+    </row>
+    <row r="68" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4439,8 +4763,14 @@
       <c r="X68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y68" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4507,8 +4837,14 @@
       <c r="X69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y69" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4575,8 +4911,14 @@
       <c r="X70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y70" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4643,46 +4985,52 @@
       <c r="X71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y71" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-10900</v>
+      </c>
+      <c r="E72" s="3">
+        <v>-10900</v>
+      </c>
+      <c r="F72" s="3">
         <v>-9600</v>
       </c>
-      <c r="E72" s="3">
+      <c r="G72" s="3">
         <v>-9500</v>
       </c>
-      <c r="F72" s="3">
+      <c r="H72" s="3">
         <v>-9400</v>
       </c>
-      <c r="G72" s="3">
+      <c r="I72" s="3">
         <v>-9400</v>
       </c>
-      <c r="H72" s="3">
+      <c r="J72" s="3">
         <v>-9100</v>
       </c>
-      <c r="I72" s="3">
+      <c r="K72" s="3">
         <v>-9000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>-8900</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>-8900</v>
       </c>
-      <c r="L72" s="3">
+      <c r="N72" s="3">
         <v>-8700</v>
       </c>
-      <c r="M72" s="3">
+      <c r="O72" s="3">
         <v>-8700</v>
-      </c>
-      <c r="N72" s="3">
-        <v>-8600</v>
-      </c>
-      <c r="O72" s="3">
-        <v>-8600</v>
       </c>
       <c r="P72" s="3">
         <v>-8600</v>
@@ -4693,17 +5041,17 @@
       <c r="R72" s="3">
         <v>-8600</v>
       </c>
-      <c r="S72" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="T72" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="U72" s="3">
+      <c r="S72" s="3">
         <v>-8600</v>
       </c>
-      <c r="V72" s="3">
+      <c r="T72" s="3">
         <v>-8600</v>
+      </c>
+      <c r="U72" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="V72" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="W72" s="3">
         <v>-8600</v>
@@ -4711,8 +5059,14 @@
       <c r="X72" s="3">
         <v>-8600</v>
       </c>
-    </row>
-    <row r="73" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y72" s="3">
+        <v>-8600</v>
+      </c>
+      <c r="Z72" s="3">
+        <v>-8600</v>
+      </c>
+    </row>
+    <row r="73" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4779,8 +5133,14 @@
       <c r="X73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y73" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4847,8 +5207,14 @@
       <c r="X74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y74" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4915,67 +5281,73 @@
       <c r="X75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y75" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>200</v>
+      </c>
+      <c r="E76" s="3">
+        <v>200</v>
+      </c>
+      <c r="F76" s="3">
         <v>1400</v>
       </c>
-      <c r="E76" s="3">
+      <c r="G76" s="3">
         <v>1300</v>
       </c>
-      <c r="F76" s="3">
+      <c r="H76" s="3">
         <v>1100</v>
       </c>
-      <c r="G76" s="3">
+      <c r="I76" s="3">
         <v>1000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="J76" s="3">
         <v>800</v>
-      </c>
-      <c r="I76" s="3">
-        <v>900</v>
-      </c>
-      <c r="J76" s="3">
-        <v>900</v>
       </c>
       <c r="K76" s="3">
         <v>900</v>
       </c>
       <c r="L76" s="3">
+        <v>900</v>
+      </c>
+      <c r="M76" s="3">
+        <v>900</v>
+      </c>
+      <c r="N76" s="3">
         <v>1000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="O76" s="3">
         <v>1100</v>
       </c>
-      <c r="N76" s="3">
+      <c r="P76" s="3">
         <v>1100</v>
       </c>
-      <c r="O76" s="3">
+      <c r="Q76" s="3">
         <v>1200</v>
       </c>
-      <c r="P76" s="3">
+      <c r="R76" s="3">
         <v>1200</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="S76" s="3">
         <v>-200</v>
       </c>
-      <c r="R76" s="3">
+      <c r="T76" s="3">
         <v>-200</v>
       </c>
-      <c r="S76" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="T76" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="U76" s="3">
-        <v>-200</v>
-      </c>
-      <c r="V76" s="3">
-        <v>-200</v>
+      <c r="U76" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="V76" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="W76" s="3">
         <v>-200</v>
@@ -4983,8 +5355,14 @@
       <c r="X76" s="3">
         <v>-200</v>
       </c>
-    </row>
-    <row r="77" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y76" s="3">
+        <v>-200</v>
+      </c>
+      <c r="Z76" s="3">
+        <v>-200</v>
+      </c>
+    </row>
+    <row r="77" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5051,101 +5429,113 @@
       <c r="X77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y77" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44865</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44773</v>
+      </c>
+      <c r="F80" s="2">
         <v>44681</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44592</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>44500</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>44408</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>44316</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>44227</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>44135</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>44043</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>43951</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>43861</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>43769</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>43677</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>43585</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="S80" s="2">
         <v>43496</v>
       </c>
-      <c r="R80" s="2">
+      <c r="T80" s="2">
         <v>43404</v>
       </c>
-      <c r="S80" s="2">
+      <c r="U80" s="2">
         <v>43312</v>
       </c>
-      <c r="T80" s="2">
+      <c r="V80" s="2">
         <v>43220</v>
       </c>
-      <c r="U80" s="2">
+      <c r="W80" s="2">
         <v>42947</v>
       </c>
-      <c r="V80" s="2">
+      <c r="X80" s="2">
         <v>42855</v>
       </c>
-      <c r="W80" s="2">
+      <c r="Y80" s="2">
         <v>42766</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Z80" s="2">
         <v>42674</v>
       </c>
     </row>
-    <row r="81" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>0</v>
+      </c>
+      <c r="E81" s="3">
+        <v>-1300</v>
+      </c>
+      <c r="F81" s="3">
         <v>-100</v>
       </c>
-      <c r="E81" s="3">
+      <c r="G81" s="3">
         <v>-100</v>
       </c>
-      <c r="F81" s="3">
-        <v>0</v>
-      </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
+        <v>0</v>
+      </c>
+      <c r="I81" s="3">
         <v>-300</v>
-      </c>
-      <c r="H81" s="3">
-        <v>-100</v>
-      </c>
-      <c r="I81" s="3">
-        <v>-100</v>
       </c>
       <c r="J81" s="3">
         <v>-100</v>
@@ -5157,10 +5547,10 @@
         <v>-100</v>
       </c>
       <c r="M81" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="N81" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="O81" s="3">
         <v>0</v>
@@ -5192,8 +5582,14 @@
       <c r="X81" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="82" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y81" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z81" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5218,8 +5614,10 @@
       <c r="V82" s="3"/>
       <c r="W82" s="3"/>
       <c r="X82" s="3"/>
-    </row>
-    <row r="83" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y82" s="3"/>
+      <c r="Z82" s="3"/>
+    </row>
+    <row r="83" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -5286,8 +5684,14 @@
       <c r="X83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y83" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5354,8 +5758,14 @@
       <c r="X84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y84" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5422,8 +5832,14 @@
       <c r="X85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y85" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5490,8 +5906,14 @@
       <c r="X86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y86" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5558,8 +5980,14 @@
       <c r="X87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y87" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5626,8 +6054,14 @@
       <c r="X88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y88" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -5635,34 +6069,34 @@
         <v>0</v>
       </c>
       <c r="E89" s="3">
+        <v>-100</v>
+      </c>
+      <c r="F89" s="3">
+        <v>0</v>
+      </c>
+      <c r="G89" s="3">
         <v>-200</v>
       </c>
-      <c r="F89" s="3">
+      <c r="H89" s="3">
         <v>100</v>
       </c>
-      <c r="G89" s="3">
+      <c r="I89" s="3">
         <v>100</v>
       </c>
-      <c r="H89" s="3">
+      <c r="J89" s="3">
         <v>-600</v>
       </c>
-      <c r="I89" s="3">
+      <c r="K89" s="3">
         <v>400</v>
-      </c>
-      <c r="J89" s="3">
-        <v>-100</v>
-      </c>
-      <c r="K89" s="3">
-        <v>100</v>
       </c>
       <c r="L89" s="3">
         <v>-100</v>
       </c>
       <c r="M89" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N89" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="O89" s="3">
         <v>0</v>
@@ -5694,8 +6128,14 @@
       <c r="X89" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y89" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5720,26 +6160,28 @@
       <c r="V90" s="3"/>
       <c r="W90" s="3"/>
       <c r="X90" s="3"/>
-    </row>
-    <row r="91" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y90" s="3"/>
+      <c r="Z90" s="3"/>
+    </row>
+    <row r="91" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E91" s="3">
+      <c r="E91" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F91" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G91" s="3">
         <v>300</v>
       </c>
-      <c r="F91" s="3">
+      <c r="H91" s="3">
         <v>-400</v>
       </c>
-      <c r="G91" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H91" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="I91" s="3" t="s">
         <v>4</v>
       </c>
@@ -5749,11 +6191,11 @@
       <c r="K91" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="L91" s="3">
-        <v>0</v>
-      </c>
-      <c r="M91" s="3">
-        <v>0</v>
+      <c r="L91" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M91" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="N91" s="3">
         <v>0</v>
@@ -5788,8 +6230,14 @@
       <c r="X91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y91" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5856,8 +6304,14 @@
       <c r="X92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y92" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5924,8 +6378,14 @@
       <c r="X93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y93" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -5933,47 +6393,47 @@
         <v>0</v>
       </c>
       <c r="E94" s="3">
+        <v>0</v>
+      </c>
+      <c r="F94" s="3">
+        <v>0</v>
+      </c>
+      <c r="G94" s="3">
         <v>300</v>
       </c>
-      <c r="F94" s="3">
+      <c r="H94" s="3">
         <v>-400</v>
       </c>
-      <c r="G94" s="3">
+      <c r="I94" s="3">
         <v>-500</v>
       </c>
-      <c r="H94" s="3">
+      <c r="J94" s="3">
         <v>500</v>
       </c>
-      <c r="I94" s="3">
+      <c r="K94" s="3">
         <v>-300</v>
       </c>
-      <c r="J94" s="3">
-        <v>0</v>
-      </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
+        <v>0</v>
+      </c>
+      <c r="M94" s="3">
         <v>-100</v>
       </c>
-      <c r="L94" s="3">
+      <c r="N94" s="3">
         <v>100</v>
       </c>
-      <c r="M94" s="3">
-        <v>0</v>
-      </c>
-      <c r="N94" s="3">
-        <v>0</v>
-      </c>
       <c r="O94" s="3">
+        <v>0</v>
+      </c>
+      <c r="P94" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q94" s="3">
         <v>1300</v>
       </c>
-      <c r="P94" s="3">
+      <c r="R94" s="3">
         <v>-1400</v>
       </c>
-      <c r="Q94" s="3">
-        <v>0</v>
-      </c>
-      <c r="R94" s="3">
-        <v>0</v>
-      </c>
       <c r="S94" s="3">
         <v>0</v>
       </c>
@@ -5992,8 +6452,14 @@
       <c r="X94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y94" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6018,8 +6484,10 @@
       <c r="V95" s="3"/>
       <c r="W95" s="3"/>
       <c r="X95" s="3"/>
-    </row>
-    <row r="96" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y95" s="3"/>
+      <c r="Z95" s="3"/>
+    </row>
+    <row r="96" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -6086,8 +6554,14 @@
       <c r="X96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y96" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6154,8 +6628,14 @@
       <c r="X97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y97" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6222,8 +6702,14 @@
       <c r="X98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y98" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6290,8 +6776,14 @@
       <c r="X99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y99" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -6299,28 +6791,28 @@
         <v>0</v>
       </c>
       <c r="E100" s="3">
+        <v>100</v>
+      </c>
+      <c r="F100" s="3">
+        <v>0</v>
+      </c>
+      <c r="G100" s="3">
         <v>-200</v>
       </c>
-      <c r="F100" s="3">
+      <c r="H100" s="3">
         <v>300</v>
       </c>
-      <c r="G100" s="3">
+      <c r="I100" s="3">
         <v>500</v>
       </c>
-      <c r="H100" s="3">
-        <v>0</v>
-      </c>
-      <c r="I100" s="3">
-        <v>0</v>
-      </c>
       <c r="J100" s="3">
+        <v>0</v>
+      </c>
+      <c r="K100" s="3">
+        <v>0</v>
+      </c>
+      <c r="L100" s="3">
         <v>100</v>
-      </c>
-      <c r="K100" s="3">
-        <v>100</v>
-      </c>
-      <c r="L100" s="3">
-        <v>0</v>
       </c>
       <c r="M100" s="3">
         <v>100</v>
@@ -6329,17 +6821,17 @@
         <v>0</v>
       </c>
       <c r="O100" s="3">
+        <v>100</v>
+      </c>
+      <c r="P100" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q100" s="3">
         <v>-1400</v>
       </c>
-      <c r="P100" s="3">
+      <c r="R100" s="3">
         <v>1400</v>
       </c>
-      <c r="Q100" s="3">
-        <v>0</v>
-      </c>
-      <c r="R100" s="3">
-        <v>0</v>
-      </c>
       <c r="S100" s="3">
         <v>0</v>
       </c>
@@ -6358,8 +6850,14 @@
       <c r="X100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y100" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -6426,8 +6924,14 @@
       <c r="X101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y101" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -6435,26 +6939,26 @@
         <v>0</v>
       </c>
       <c r="E102" s="3">
+        <v>0</v>
+      </c>
+      <c r="F102" s="3">
+        <v>0</v>
+      </c>
+      <c r="G102" s="3">
         <v>-100</v>
       </c>
-      <c r="F102" s="3">
-        <v>0</v>
-      </c>
-      <c r="G102" s="3">
-        <v>0</v>
-      </c>
       <c r="H102" s="3">
         <v>0</v>
       </c>
       <c r="I102" s="3">
+        <v>0</v>
+      </c>
+      <c r="J102" s="3">
+        <v>0</v>
+      </c>
+      <c r="K102" s="3">
         <v>100</v>
       </c>
-      <c r="J102" s="3">
-        <v>0</v>
-      </c>
-      <c r="K102" s="3">
-        <v>0</v>
-      </c>
       <c r="L102" s="3">
         <v>0</v>
       </c>
@@ -6492,6 +6996,12 @@
         <v>0</v>
       </c>
       <c r="X102" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y102" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/CYAP_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/CYAP_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="277" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="282" uniqueCount="92">
   <si>
     <t>CYAP</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Z102"/>
+  <dimension ref="A5:AA102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,112 +665,116 @@
     <col min="1" max="1" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="25" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="26" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:27" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44957</v>
+      </c>
+      <c r="E7" s="2">
         <v>44865</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44773</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44681</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44592</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44500</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44408</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44316</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44227</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44135</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44043</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43951</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43861</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43769</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43677</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43585</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43496</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43404</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43312</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43220</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>42947</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>42855</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>42766</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>42674</v>
       </c>
     </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -843,8 +847,11 @@
       <c r="Z8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -917,8 +924,11 @@
       <c r="Z9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -991,8 +1001,11 @@
       <c r="Z10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -1019,8 +1032,9 @@
       <c r="X11" s="3"/>
       <c r="Y11" s="3"/>
       <c r="Z11" s="3"/>
-    </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA11" s="3"/>
+    </row>
+    <row r="12" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -1093,8 +1107,11 @@
       <c r="Z12" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1167,8 +1184,11 @@
       <c r="Z13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1229,20 +1249,23 @@
       <c r="V14" s="3">
         <v>0</v>
       </c>
-      <c r="W14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="X14" s="3">
-        <v>0</v>
-      </c>
-      <c r="Y14" s="3" t="s">
-        <v>4</v>
+      <c r="W14" s="3">
+        <v>0</v>
+      </c>
+      <c r="X14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Y14" s="3">
+        <v>0</v>
       </c>
       <c r="Z14" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA14" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1315,8 +1338,11 @@
       <c r="Z15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:27" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1340,19 +1366,20 @@
       <c r="X16" s="3"/>
       <c r="Y16" s="3"/>
       <c r="Z16" s="3"/>
-    </row>
-    <row r="17" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA16" s="3"/>
+    </row>
+    <row r="17" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E17" s="3">
+        <v>0</v>
+      </c>
+      <c r="F17" s="3">
         <v>1300</v>
-      </c>
-      <c r="F17" s="3">
-        <v>100</v>
       </c>
       <c r="G17" s="3">
         <v>100</v>
@@ -1361,10 +1388,10 @@
         <v>100</v>
       </c>
       <c r="I17" s="3">
+        <v>100</v>
+      </c>
+      <c r="J17" s="3">
         <v>300</v>
-      </c>
-      <c r="J17" s="3">
-        <v>100</v>
       </c>
       <c r="K17" s="3">
         <v>100</v>
@@ -1379,7 +1406,7 @@
         <v>100</v>
       </c>
       <c r="O17" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="P17" s="3">
         <v>0</v>
@@ -1414,8 +1441,11 @@
       <c r="Z17" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA17" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1423,10 +1453,10 @@
         <v>4</v>
       </c>
       <c r="E18" s="3">
+        <v>0</v>
+      </c>
+      <c r="F18" s="3">
         <v>-1300</v>
-      </c>
-      <c r="F18" s="3">
-        <v>-100</v>
       </c>
       <c r="G18" s="3">
         <v>-100</v>
@@ -1435,10 +1465,10 @@
         <v>-100</v>
       </c>
       <c r="I18" s="3">
+        <v>-100</v>
+      </c>
+      <c r="J18" s="3">
         <v>-300</v>
-      </c>
-      <c r="J18" s="3">
-        <v>-100</v>
       </c>
       <c r="K18" s="3">
         <v>-100</v>
@@ -1453,7 +1483,7 @@
         <v>-100</v>
       </c>
       <c r="O18" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="P18" s="3">
         <v>0</v>
@@ -1488,8 +1518,11 @@
       <c r="Z18" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA18" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1516,8 +1549,9 @@
       <c r="X19" s="3"/>
       <c r="Y19" s="3"/>
       <c r="Z19" s="3"/>
-    </row>
-    <row r="20" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA19" s="3"/>
+    </row>
+    <row r="20" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1590,8 +1624,11 @@
       <c r="Z20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1631,11 +1668,11 @@
       <c r="O21" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="P21" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q21" s="3" t="s">
-        <v>4</v>
+      <c r="P21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q21" s="3">
+        <v>0</v>
       </c>
       <c r="R21" s="3" t="s">
         <v>4</v>
@@ -1664,8 +1701,11 @@
       <c r="Z21" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="22" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA21" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1738,19 +1778,22 @@
       <c r="Z22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="E23" s="3">
+        <v>0</v>
+      </c>
+      <c r="F23" s="3">
         <v>-1300</v>
-      </c>
-      <c r="F23" s="3">
-        <v>-100</v>
       </c>
       <c r="G23" s="3">
         <v>-100</v>
@@ -1759,10 +1802,10 @@
         <v>-100</v>
       </c>
       <c r="I23" s="3">
+        <v>-100</v>
+      </c>
+      <c r="J23" s="3">
         <v>-300</v>
-      </c>
-      <c r="J23" s="3">
-        <v>-100</v>
       </c>
       <c r="K23" s="3">
         <v>-100</v>
@@ -1777,7 +1820,7 @@
         <v>-100</v>
       </c>
       <c r="O23" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="P23" s="3">
         <v>0</v>
@@ -1812,8 +1855,11 @@
       <c r="Z23" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA23" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1886,8 +1932,11 @@
       <c r="Z24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1960,19 +2009,22 @@
       <c r="Z25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="E26" s="3">
+        <v>0</v>
+      </c>
+      <c r="F26" s="3">
         <v>-1300</v>
-      </c>
-      <c r="F26" s="3">
-        <v>-100</v>
       </c>
       <c r="G26" s="3">
         <v>-100</v>
@@ -1981,10 +2033,10 @@
         <v>-100</v>
       </c>
       <c r="I26" s="3">
+        <v>-100</v>
+      </c>
+      <c r="J26" s="3">
         <v>-300</v>
-      </c>
-      <c r="J26" s="3">
-        <v>-100</v>
       </c>
       <c r="K26" s="3">
         <v>-100</v>
@@ -1999,7 +2051,7 @@
         <v>-100</v>
       </c>
       <c r="O26" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="P26" s="3">
         <v>0</v>
@@ -2034,31 +2086,34 @@
       <c r="Z26" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA26" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="E27" s="3">
+        <v>0</v>
+      </c>
+      <c r="F27" s="3">
         <v>-1300</v>
-      </c>
-      <c r="F27" s="3">
-        <v>-100</v>
       </c>
       <c r="G27" s="3">
         <v>-100</v>
       </c>
       <c r="H27" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="I27" s="3">
+        <v>0</v>
+      </c>
+      <c r="J27" s="3">
         <v>-300</v>
-      </c>
-      <c r="J27" s="3">
-        <v>-100</v>
       </c>
       <c r="K27" s="3">
         <v>-100</v>
@@ -2073,7 +2128,7 @@
         <v>-100</v>
       </c>
       <c r="O27" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="P27" s="3">
         <v>0</v>
@@ -2108,8 +2163,11 @@
       <c r="Z27" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA27" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2182,8 +2240,11 @@
       <c r="Z28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2256,8 +2317,11 @@
       <c r="Z29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2330,8 +2394,11 @@
       <c r="Z30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2404,8 +2471,11 @@
       <c r="Z31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -2478,31 +2548,34 @@
       <c r="Z32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="E33" s="3">
+        <v>0</v>
+      </c>
+      <c r="F33" s="3">
         <v>-1300</v>
-      </c>
-      <c r="F33" s="3">
-        <v>-100</v>
       </c>
       <c r="G33" s="3">
         <v>-100</v>
       </c>
       <c r="H33" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="I33" s="3">
+        <v>0</v>
+      </c>
+      <c r="J33" s="3">
         <v>-300</v>
-      </c>
-      <c r="J33" s="3">
-        <v>-100</v>
       </c>
       <c r="K33" s="3">
         <v>-100</v>
@@ -2517,7 +2590,7 @@
         <v>-100</v>
       </c>
       <c r="O33" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="P33" s="3">
         <v>0</v>
@@ -2552,8 +2625,11 @@
       <c r="Z33" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA33" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2626,31 +2702,34 @@
       <c r="Z34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="E35" s="3">
+        <v>0</v>
+      </c>
+      <c r="F35" s="3">
         <v>-1300</v>
-      </c>
-      <c r="F35" s="3">
-        <v>-100</v>
       </c>
       <c r="G35" s="3">
         <v>-100</v>
       </c>
       <c r="H35" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="I35" s="3">
+        <v>0</v>
+      </c>
+      <c r="J35" s="3">
         <v>-300</v>
-      </c>
-      <c r="J35" s="3">
-        <v>-100</v>
       </c>
       <c r="K35" s="3">
         <v>-100</v>
@@ -2665,7 +2744,7 @@
         <v>-100</v>
       </c>
       <c r="O35" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="P35" s="3">
         <v>0</v>
@@ -2700,87 +2779,93 @@
       <c r="Z35" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="37" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA35" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44957</v>
+      </c>
+      <c r="E38" s="2">
         <v>44865</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44773</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44681</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44592</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44500</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44408</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44316</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44227</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44135</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44043</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43951</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43861</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43769</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43677</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43585</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43496</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43404</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43312</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43220</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>42947</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>42855</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>42766</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>42674</v>
       </c>
     </row>
-    <row r="39" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2807,8 +2892,9 @@
       <c r="X39" s="3"/>
       <c r="Y39" s="3"/>
       <c r="Z39" s="3"/>
-    </row>
-    <row r="40" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA39" s="3"/>
+    </row>
+    <row r="40" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2835,8 +2921,9 @@
       <c r="X40" s="3"/>
       <c r="Y40" s="3"/>
       <c r="Z40" s="3"/>
-    </row>
-    <row r="41" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA40" s="3"/>
+    </row>
+    <row r="41" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
@@ -2853,25 +2940,25 @@
         <v>0</v>
       </c>
       <c r="H41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I41" s="3">
         <v>100</v>
       </c>
       <c r="J41" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K41" s="3">
+        <v>0</v>
+      </c>
+      <c r="L41" s="3">
         <v>100</v>
       </c>
-      <c r="L41" s="3">
-        <v>0</v>
-      </c>
       <c r="M41" s="3">
         <v>0</v>
       </c>
-      <c r="N41" s="3" t="s">
-        <v>4</v>
+      <c r="N41" s="3">
+        <v>0</v>
       </c>
       <c r="O41" s="3" t="s">
         <v>4</v>
@@ -2888,8 +2975,8 @@
       <c r="S41" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="T41" s="3">
-        <v>0</v>
+      <c r="T41" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="U41" s="3">
         <v>0</v>
@@ -2909,8 +2996,11 @@
       <c r="Z41" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2983,8 +3073,11 @@
       <c r="Z42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -3057,8 +3150,11 @@
       <c r="Z43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -3131,8 +3227,11 @@
       <c r="Z44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -3187,14 +3286,14 @@
       <c r="T45" s="3">
         <v>0</v>
       </c>
-      <c r="U45" s="3" t="s">
-        <v>4</v>
+      <c r="U45" s="3">
+        <v>0</v>
       </c>
       <c r="V45" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="W45" s="3">
-        <v>0</v>
+      <c r="W45" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="X45" s="3">
         <v>0</v>
@@ -3205,8 +3304,11 @@
       <c r="Z45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -3223,20 +3325,20 @@
         <v>0</v>
       </c>
       <c r="H46" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I46" s="3">
         <v>100</v>
       </c>
       <c r="J46" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K46" s="3">
+        <v>0</v>
+      </c>
+      <c r="L46" s="3">
         <v>100</v>
       </c>
-      <c r="L46" s="3">
-        <v>0</v>
-      </c>
       <c r="M46" s="3">
         <v>0</v>
       </c>
@@ -3261,14 +3363,14 @@
       <c r="T46" s="3">
         <v>0</v>
       </c>
-      <c r="U46" s="3" t="s">
-        <v>4</v>
+      <c r="U46" s="3">
+        <v>0</v>
       </c>
       <c r="V46" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="W46" s="3">
-        <v>0</v>
+      <c r="W46" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="X46" s="3">
         <v>0</v>
@@ -3279,8 +3381,11 @@
       <c r="Z46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3353,46 +3458,49 @@
       <c r="Z47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E48" s="3">
-        <v>0</v>
+      <c r="E48" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="F48" s="3">
         <v>0</v>
       </c>
-      <c r="G48" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H48" s="3">
+      <c r="G48" s="3">
+        <v>0</v>
+      </c>
+      <c r="H48" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I48" s="3">
         <v>500</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>300</v>
       </c>
-      <c r="J48" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="K48" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="L48" s="3">
+      <c r="L48" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M48" s="3">
         <v>1400</v>
       </c>
-      <c r="M48" s="3">
-        <v>0</v>
-      </c>
-      <c r="N48" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="O48" s="3">
-        <v>1400</v>
+      <c r="N48" s="3">
+        <v>0</v>
+      </c>
+      <c r="O48" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="P48" s="3">
         <v>1400</v>
@@ -3400,23 +3508,23 @@
       <c r="Q48" s="3">
         <v>1400</v>
       </c>
-      <c r="R48" s="3" t="s">
-        <v>4</v>
+      <c r="R48" s="3">
+        <v>1400</v>
       </c>
       <c r="S48" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="T48" s="3">
-        <v>0</v>
-      </c>
-      <c r="U48" s="3" t="s">
-        <v>4</v>
+      <c r="T48" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="U48" s="3">
+        <v>0</v>
       </c>
       <c r="V48" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="W48" s="3">
-        <v>0</v>
+      <c r="W48" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="X48" s="3">
         <v>0</v>
@@ -3427,46 +3535,49 @@
       <c r="Z48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="E49" s="3">
         <v>400</v>
       </c>
       <c r="F49" s="3">
-        <v>1800</v>
+        <v>400</v>
       </c>
       <c r="G49" s="3">
         <v>1800</v>
       </c>
       <c r="H49" s="3">
+        <v>1800</v>
+      </c>
+      <c r="I49" s="3">
         <v>1600</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>1400</v>
-      </c>
-      <c r="J49" s="3">
-        <v>1700</v>
       </c>
       <c r="K49" s="3">
         <v>1700</v>
       </c>
-      <c r="L49" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M49" s="3">
-        <v>1400</v>
+      <c r="L49" s="3">
+        <v>1700</v>
+      </c>
+      <c r="M49" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="N49" s="3">
         <v>1400</v>
       </c>
-      <c r="O49" s="3" t="s">
-        <v>4</v>
+      <c r="O49" s="3">
+        <v>1400</v>
       </c>
       <c r="P49" s="3" t="s">
         <v>4</v>
@@ -3474,12 +3585,12 @@
       <c r="Q49" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="R49" s="3">
+      <c r="R49" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S49" s="3">
         <v>1400</v>
       </c>
-      <c r="S49" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="T49" s="3" t="s">
         <v>4</v>
       </c>
@@ -3489,8 +3600,8 @@
       <c r="V49" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="W49" s="3">
-        <v>0</v>
+      <c r="W49" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="X49" s="3">
         <v>0</v>
@@ -3501,8 +3612,11 @@
       <c r="Z49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3575,8 +3689,11 @@
       <c r="Z50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3649,8 +3766,11 @@
       <c r="Z51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -3660,11 +3780,11 @@
       <c r="E52" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F52" s="3">
-        <v>0</v>
-      </c>
-      <c r="G52" s="3" t="s">
-        <v>4</v>
+      <c r="F52" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G52" s="3">
+        <v>0</v>
       </c>
       <c r="H52" s="3" t="s">
         <v>4</v>
@@ -3681,8 +3801,8 @@
       <c r="L52" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M52" s="3">
-        <v>0</v>
+      <c r="M52" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="N52" s="3">
         <v>0</v>
@@ -3723,8 +3843,11 @@
       <c r="Z52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3797,37 +3920,40 @@
       <c r="Z53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="E54" s="3">
         <v>400</v>
       </c>
       <c r="F54" s="3">
-        <v>1800</v>
+        <v>400</v>
       </c>
       <c r="G54" s="3">
         <v>1800</v>
       </c>
       <c r="H54" s="3">
+        <v>1800</v>
+      </c>
+      <c r="I54" s="3">
         <v>2200</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>1800</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>1700</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>1800</v>
-      </c>
-      <c r="L54" s="3">
-        <v>1400</v>
       </c>
       <c r="M54" s="3">
         <v>1400</v>
@@ -3848,19 +3974,19 @@
         <v>1400</v>
       </c>
       <c r="S54" s="3">
-        <v>0</v>
+        <v>1400</v>
       </c>
       <c r="T54" s="3">
         <v>0</v>
       </c>
-      <c r="U54" s="3" t="s">
-        <v>4</v>
+      <c r="U54" s="3">
+        <v>0</v>
       </c>
       <c r="V54" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="W54" s="3">
-        <v>0</v>
+      <c r="W54" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="X54" s="3">
         <v>0</v>
@@ -3871,8 +3997,11 @@
       <c r="Z54" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="55" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA54" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3899,8 +4028,9 @@
       <c r="X55" s="3"/>
       <c r="Y55" s="3"/>
       <c r="Z55" s="3"/>
-    </row>
-    <row r="56" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA55" s="3"/>
+    </row>
+    <row r="56" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3927,8 +4057,9 @@
       <c r="X56" s="3"/>
       <c r="Y56" s="3"/>
       <c r="Z56" s="3"/>
-    </row>
-    <row r="57" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA56" s="3"/>
+    </row>
+    <row r="57" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -3939,25 +4070,25 @@
         <v>100</v>
       </c>
       <c r="F57" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="G57" s="3">
         <v>200</v>
       </c>
       <c r="H57" s="3">
+        <v>200</v>
+      </c>
+      <c r="I57" s="3">
         <v>300</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>200</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>100</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>200</v>
-      </c>
-      <c r="L57" s="3">
-        <v>100</v>
       </c>
       <c r="M57" s="3">
         <v>100</v>
@@ -3983,14 +4114,14 @@
       <c r="T57" s="3">
         <v>100</v>
       </c>
-      <c r="U57" s="3" t="s">
-        <v>4</v>
+      <c r="U57" s="3">
+        <v>100</v>
       </c>
       <c r="V57" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="W57" s="3">
-        <v>100</v>
+      <c r="W57" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="X57" s="3">
         <v>100</v>
@@ -4001,8 +4132,11 @@
       <c r="Z57" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="58" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA57" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="58" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -4024,26 +4158,26 @@
       <c r="I58" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="J58" s="3">
+      <c r="J58" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K58" s="3">
         <v>800</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>600</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>400</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>300</v>
-      </c>
-      <c r="N58" s="3">
-        <v>200</v>
       </c>
       <c r="O58" s="3">
         <v>200</v>
       </c>
       <c r="P58" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="Q58" s="3">
         <v>100</v>
@@ -4057,14 +4191,14 @@
       <c r="T58" s="3">
         <v>100</v>
       </c>
-      <c r="U58" s="3" t="s">
-        <v>4</v>
+      <c r="U58" s="3">
+        <v>100</v>
       </c>
       <c r="V58" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="W58" s="3">
-        <v>100</v>
+      <c r="W58" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="X58" s="3">
         <v>100</v>
@@ -4075,8 +4209,11 @@
       <c r="Z58" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="59" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA58" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="59" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -4098,8 +4235,8 @@
       <c r="I59" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="J59" s="3">
-        <v>0</v>
+      <c r="J59" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K59" s="3">
         <v>0</v>
@@ -4149,8 +4286,11 @@
       <c r="Z59" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA59" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -4161,37 +4301,37 @@
         <v>100</v>
       </c>
       <c r="F60" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="G60" s="3">
         <v>200</v>
       </c>
       <c r="H60" s="3">
+        <v>200</v>
+      </c>
+      <c r="I60" s="3">
         <v>300</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>200</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>900</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>800</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>500</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>100</v>
-      </c>
-      <c r="N60" s="3">
-        <v>300</v>
       </c>
       <c r="O60" s="3">
         <v>300</v>
       </c>
       <c r="P60" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="Q60" s="3">
         <v>200</v>
@@ -4205,14 +4345,14 @@
       <c r="T60" s="3">
         <v>200</v>
       </c>
-      <c r="U60" s="3" t="s">
-        <v>4</v>
+      <c r="U60" s="3">
+        <v>200</v>
       </c>
       <c r="V60" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="W60" s="3">
-        <v>200</v>
+      <c r="W60" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="X60" s="3">
         <v>200</v>
@@ -4223,44 +4363,47 @@
       <c r="Z60" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="61" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA60" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="61" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="E61" s="3">
         <v>100</v>
       </c>
       <c r="F61" s="3">
+        <v>100</v>
+      </c>
+      <c r="G61" s="3">
         <v>200</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>400</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>600</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>500</v>
       </c>
-      <c r="J61" s="3">
-        <v>0</v>
-      </c>
       <c r="K61" s="3">
+        <v>0</v>
+      </c>
+      <c r="L61" s="3">
         <v>100</v>
       </c>
-      <c r="L61" s="3">
-        <v>0</v>
-      </c>
       <c r="M61" s="3">
+        <v>0</v>
+      </c>
+      <c r="N61" s="3">
         <v>300</v>
       </c>
-      <c r="N61" s="3">
-        <v>0</v>
-      </c>
       <c r="O61" s="3">
         <v>0</v>
       </c>
@@ -4297,8 +4440,11 @@
       <c r="Z61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -4317,11 +4463,11 @@
       <c r="H62" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="I62" s="3">
-        <v>0</v>
-      </c>
-      <c r="J62" s="3" t="s">
-        <v>4</v>
+      <c r="I62" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J62" s="3">
+        <v>0</v>
       </c>
       <c r="K62" s="3" t="s">
         <v>4</v>
@@ -4332,23 +4478,23 @@
       <c r="M62" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N62" s="3">
-        <v>0</v>
-      </c>
-      <c r="O62" s="3" t="s">
-        <v>4</v>
+      <c r="N62" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O62" s="3">
+        <v>0</v>
       </c>
       <c r="P62" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Q62" s="3">
-        <v>0</v>
+      <c r="Q62" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="R62" s="3">
         <v>0</v>
       </c>
-      <c r="S62" s="3" t="s">
-        <v>4</v>
+      <c r="S62" s="3">
+        <v>0</v>
       </c>
       <c r="T62" s="3" t="s">
         <v>4</v>
@@ -4359,8 +4505,8 @@
       <c r="V62" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="W62" s="3">
-        <v>0</v>
+      <c r="W62" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="X62" s="3">
         <v>0</v>
@@ -4371,8 +4517,11 @@
       <c r="Z62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4445,8 +4594,11 @@
       <c r="Z63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4519,8 +4671,11 @@
       <c r="Z64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4593,49 +4748,52 @@
       <c r="Z65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="E66" s="3">
         <v>200</v>
       </c>
       <c r="F66" s="3">
+        <v>200</v>
+      </c>
+      <c r="G66" s="3">
         <v>400</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>500</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>1100</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>800</v>
-      </c>
-      <c r="J66" s="3">
-        <v>900</v>
       </c>
       <c r="K66" s="3">
         <v>900</v>
       </c>
       <c r="L66" s="3">
+        <v>900</v>
+      </c>
+      <c r="M66" s="3">
         <v>500</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>400</v>
-      </c>
-      <c r="N66" s="3">
-        <v>300</v>
       </c>
       <c r="O66" s="3">
         <v>300</v>
       </c>
       <c r="P66" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="Q66" s="3">
         <v>200</v>
@@ -4649,14 +4807,14 @@
       <c r="T66" s="3">
         <v>200</v>
       </c>
-      <c r="U66" s="3" t="s">
-        <v>4</v>
+      <c r="U66" s="3">
+        <v>200</v>
       </c>
       <c r="V66" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="W66" s="3">
-        <v>200</v>
+      <c r="W66" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="X66" s="3">
         <v>200</v>
@@ -4667,8 +4825,11 @@
       <c r="Z66" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="67" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA66" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="67" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4695,8 +4856,9 @@
       <c r="X67" s="3"/>
       <c r="Y67" s="3"/>
       <c r="Z67" s="3"/>
-    </row>
-    <row r="68" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA67" s="3"/>
+    </row>
+    <row r="68" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4769,8 +4931,11 @@
       <c r="Z68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4843,8 +5008,11 @@
       <c r="Z69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4917,8 +5085,11 @@
       <c r="Z70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4991,49 +5162,52 @@
       <c r="Z71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-10900</v>
+        <v>-11000</v>
       </c>
       <c r="E72" s="3">
         <v>-10900</v>
       </c>
       <c r="F72" s="3">
+        <v>-10900</v>
+      </c>
+      <c r="G72" s="3">
         <v>-9600</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-9500</v>
-      </c>
-      <c r="H72" s="3">
-        <v>-9400</v>
       </c>
       <c r="I72" s="3">
         <v>-9400</v>
       </c>
       <c r="J72" s="3">
+        <v>-9400</v>
+      </c>
+      <c r="K72" s="3">
         <v>-9100</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-9000</v>
-      </c>
-      <c r="L72" s="3">
-        <v>-8900</v>
       </c>
       <c r="M72" s="3">
         <v>-8900</v>
       </c>
       <c r="N72" s="3">
-        <v>-8700</v>
+        <v>-8900</v>
       </c>
       <c r="O72" s="3">
         <v>-8700</v>
       </c>
       <c r="P72" s="3">
-        <v>-8600</v>
+        <v>-8700</v>
       </c>
       <c r="Q72" s="3">
         <v>-8600</v>
@@ -5047,14 +5221,14 @@
       <c r="T72" s="3">
         <v>-8600</v>
       </c>
-      <c r="U72" s="3" t="s">
-        <v>4</v>
+      <c r="U72" s="3">
+        <v>-8600</v>
       </c>
       <c r="V72" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="W72" s="3">
-        <v>-8600</v>
+      <c r="W72" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="X72" s="3">
         <v>-8600</v>
@@ -5065,8 +5239,11 @@
       <c r="Z72" s="3">
         <v>-8600</v>
       </c>
-    </row>
-    <row r="73" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA72" s="3">
+        <v>-8600</v>
+      </c>
+    </row>
+    <row r="73" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5139,8 +5316,11 @@
       <c r="Z73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5213,8 +5393,11 @@
       <c r="Z74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5287,8 +5470,11 @@
       <c r="Z75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
@@ -5299,22 +5485,22 @@
         <v>200</v>
       </c>
       <c r="F76" s="3">
+        <v>200</v>
+      </c>
+      <c r="G76" s="3">
         <v>1400</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>1300</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>1100</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>1000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>800</v>
-      </c>
-      <c r="K76" s="3">
-        <v>900</v>
       </c>
       <c r="L76" s="3">
         <v>900</v>
@@ -5323,34 +5509,34 @@
         <v>900</v>
       </c>
       <c r="N76" s="3">
+        <v>900</v>
+      </c>
+      <c r="O76" s="3">
         <v>1000</v>
-      </c>
-      <c r="O76" s="3">
-        <v>1100</v>
       </c>
       <c r="P76" s="3">
         <v>1100</v>
       </c>
       <c r="Q76" s="3">
-        <v>1200</v>
+        <v>1100</v>
       </c>
       <c r="R76" s="3">
         <v>1200</v>
       </c>
       <c r="S76" s="3">
-        <v>-200</v>
+        <v>1200</v>
       </c>
       <c r="T76" s="3">
         <v>-200</v>
       </c>
-      <c r="U76" s="3" t="s">
-        <v>4</v>
+      <c r="U76" s="3">
+        <v>-200</v>
       </c>
       <c r="V76" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="W76" s="3">
-        <v>-200</v>
+      <c r="W76" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="X76" s="3">
         <v>-200</v>
@@ -5361,8 +5547,11 @@
       <c r="Z76" s="3">
         <v>-200</v>
       </c>
-    </row>
-    <row r="77" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA76" s="3">
+        <v>-200</v>
+      </c>
+    </row>
+    <row r="77" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5435,110 +5624,116 @@
       <c r="Z77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44957</v>
+      </c>
+      <c r="E80" s="2">
         <v>44865</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44773</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44681</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44592</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44500</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44408</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44316</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44227</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44135</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44043</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43951</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43861</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43769</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43677</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43585</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43496</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43404</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43312</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43220</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>42947</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>42855</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>42766</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>42674</v>
       </c>
     </row>
-    <row r="81" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="E81" s="3">
+        <v>0</v>
+      </c>
+      <c r="F81" s="3">
         <v>-1300</v>
-      </c>
-      <c r="F81" s="3">
-        <v>-100</v>
       </c>
       <c r="G81" s="3">
         <v>-100</v>
       </c>
       <c r="H81" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="I81" s="3">
+        <v>0</v>
+      </c>
+      <c r="J81" s="3">
         <v>-300</v>
-      </c>
-      <c r="J81" s="3">
-        <v>-100</v>
       </c>
       <c r="K81" s="3">
         <v>-100</v>
@@ -5553,7 +5748,7 @@
         <v>-100</v>
       </c>
       <c r="O81" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="P81" s="3">
         <v>0</v>
@@ -5588,8 +5783,11 @@
       <c r="Z81" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="82" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA81" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5616,8 +5814,9 @@
       <c r="X82" s="3"/>
       <c r="Y82" s="3"/>
       <c r="Z82" s="3"/>
-    </row>
-    <row r="83" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA82" s="3"/>
+    </row>
+    <row r="83" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -5690,8 +5889,11 @@
       <c r="Z83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5764,8 +5966,11 @@
       <c r="Z84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5838,8 +6043,11 @@
       <c r="Z85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5912,8 +6120,11 @@
       <c r="Z86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5986,8 +6197,11 @@
       <c r="Z87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6060,47 +6274,50 @@
       <c r="Z88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="E89" s="3">
+        <v>0</v>
+      </c>
+      <c r="F89" s="3">
         <v>-100</v>
       </c>
-      <c r="F89" s="3">
-        <v>0</v>
-      </c>
       <c r="G89" s="3">
+        <v>0</v>
+      </c>
+      <c r="H89" s="3">
         <v>-200</v>
-      </c>
-      <c r="H89" s="3">
-        <v>100</v>
       </c>
       <c r="I89" s="3">
         <v>100</v>
       </c>
       <c r="J89" s="3">
+        <v>100</v>
+      </c>
+      <c r="K89" s="3">
         <v>-600</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>400</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-100</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>100</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-100</v>
       </c>
-      <c r="O89" s="3">
-        <v>0</v>
-      </c>
       <c r="P89" s="3">
         <v>0</v>
       </c>
@@ -6134,8 +6351,11 @@
       <c r="Z89" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6162,31 +6382,32 @@
       <c r="X90" s="3"/>
       <c r="Y90" s="3"/>
       <c r="Z90" s="3"/>
-    </row>
-    <row r="91" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA90" s="3"/>
+    </row>
+    <row r="91" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="D91" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E91" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F91" s="3" t="s">
-        <v>4</v>
+      <c r="D91" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E91" s="3">
+        <v>0</v>
+      </c>
+      <c r="F91" s="3">
+        <v>0</v>
       </c>
       <c r="G91" s="3">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="H91" s="3">
+        <v>-300</v>
+      </c>
+      <c r="I91" s="3">
         <v>-400</v>
       </c>
-      <c r="I91" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J91" s="3" t="s">
-        <v>4</v>
+      <c r="J91" s="3">
+        <v>0</v>
       </c>
       <c r="K91" s="3" t="s">
         <v>4</v>
@@ -6197,8 +6418,8 @@
       <c r="M91" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N91" s="3">
-        <v>0</v>
+      <c r="N91" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="O91" s="3">
         <v>0</v>
@@ -6236,8 +6457,11 @@
       <c r="Z91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6310,8 +6534,11 @@
       <c r="Z92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6384,13 +6611,16 @@
       <c r="Z93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="E94" s="3">
         <v>0</v>
@@ -6399,44 +6629,44 @@
         <v>0</v>
       </c>
       <c r="G94" s="3">
+        <v>0</v>
+      </c>
+      <c r="H94" s="3">
         <v>300</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-400</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-500</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>500</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-300</v>
       </c>
-      <c r="L94" s="3">
-        <v>0</v>
-      </c>
       <c r="M94" s="3">
+        <v>0</v>
+      </c>
+      <c r="N94" s="3">
         <v>-100</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>100</v>
       </c>
-      <c r="O94" s="3">
-        <v>0</v>
-      </c>
       <c r="P94" s="3">
         <v>0</v>
       </c>
       <c r="Q94" s="3">
+        <v>0</v>
+      </c>
+      <c r="R94" s="3">
         <v>1300</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-1400</v>
       </c>
-      <c r="S94" s="3">
-        <v>0</v>
-      </c>
       <c r="T94" s="3">
         <v>0</v>
       </c>
@@ -6458,8 +6688,11 @@
       <c r="Z94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6486,8 +6719,9 @@
       <c r="X95" s="3"/>
       <c r="Y95" s="3"/>
       <c r="Z95" s="3"/>
-    </row>
-    <row r="96" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA95" s="3"/>
+    </row>
+    <row r="96" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -6560,8 +6794,11 @@
       <c r="Z96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6634,8 +6871,11 @@
       <c r="Z97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6708,8 +6948,11 @@
       <c r="Z98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6782,59 +7025,62 @@
       <c r="Z99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E100" s="3">
+        <v>0</v>
+      </c>
+      <c r="F100" s="3">
         <v>100</v>
       </c>
-      <c r="F100" s="3">
-        <v>0</v>
-      </c>
       <c r="G100" s="3">
+        <v>0</v>
+      </c>
+      <c r="H100" s="3">
         <v>-200</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>300</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>500</v>
       </c>
-      <c r="J100" s="3">
-        <v>0</v>
-      </c>
       <c r="K100" s="3">
         <v>0</v>
       </c>
       <c r="L100" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="M100" s="3">
         <v>100</v>
       </c>
       <c r="N100" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="O100" s="3">
+        <v>0</v>
+      </c>
+      <c r="P100" s="3">
         <v>100</v>
       </c>
-      <c r="P100" s="3">
-        <v>0</v>
-      </c>
       <c r="Q100" s="3">
+        <v>0</v>
+      </c>
+      <c r="R100" s="3">
         <v>-1400</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>1400</v>
       </c>
-      <c r="S100" s="3">
-        <v>0</v>
-      </c>
       <c r="T100" s="3">
         <v>0</v>
       </c>
@@ -6856,8 +7102,11 @@
       <c r="Z100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -6930,8 +7179,11 @@
       <c r="Z101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -6945,11 +7197,11 @@
         <v>0</v>
       </c>
       <c r="G102" s="3">
+        <v>0</v>
+      </c>
+      <c r="H102" s="3">
         <v>-100</v>
       </c>
-      <c r="H102" s="3">
-        <v>0</v>
-      </c>
       <c r="I102" s="3">
         <v>0</v>
       </c>
@@ -6957,11 +7209,11 @@
         <v>0</v>
       </c>
       <c r="K102" s="3">
+        <v>0</v>
+      </c>
+      <c r="L102" s="3">
         <v>100</v>
       </c>
-      <c r="L102" s="3">
-        <v>0</v>
-      </c>
       <c r="M102" s="3">
         <v>0</v>
       </c>
@@ -7002,6 +7254,9 @@
         <v>0</v>
       </c>
       <c r="Z102" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/CYAP_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/CYAP_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="282" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="277" uniqueCount="92">
   <si>
     <t>CYAP</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AA102"/>
+  <dimension ref="A5:AB102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,116 +665,119 @@
     <col min="1" max="1" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="26" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="27" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:28" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45046</v>
+      </c>
+      <c r="E7" s="2">
         <v>44957</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44865</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44773</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44681</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44592</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44500</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44408</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44316</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44227</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44135</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>44043</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43951</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43861</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43769</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43677</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43585</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43496</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43404</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43312</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43220</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>42947</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>42855</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>42766</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AB7" s="2">
         <v>42674</v>
       </c>
     </row>
-    <row r="8" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -850,8 +853,11 @@
       <c r="AA8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -927,8 +933,11 @@
       <c r="AA9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -1004,8 +1013,11 @@
       <c r="AA10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -1033,8 +1045,9 @@
       <c r="Y11" s="3"/>
       <c r="Z11" s="3"/>
       <c r="AA11" s="3"/>
-    </row>
-    <row r="12" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB11" s="3"/>
+    </row>
+    <row r="12" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -1110,8 +1123,11 @@
       <c r="AA12" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1187,8 +1203,11 @@
       <c r="AA13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1252,20 +1271,23 @@
       <c r="W14" s="3">
         <v>0</v>
       </c>
-      <c r="X14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Y14" s="3">
-        <v>0</v>
-      </c>
-      <c r="Z14" s="3" t="s">
-        <v>4</v>
+      <c r="X14" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Z14" s="3">
+        <v>0</v>
       </c>
       <c r="AA14" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="15" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB14" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1341,8 +1363,11 @@
       <c r="AA15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:28" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1367,22 +1392,23 @@
       <c r="Y16" s="3"/>
       <c r="Z16" s="3"/>
       <c r="AA16" s="3"/>
-    </row>
-    <row r="17" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB16" s="3"/>
+    </row>
+    <row r="17" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>0</v>
+      </c>
+      <c r="E17" s="3">
         <v>100</v>
       </c>
-      <c r="E17" s="3">
-        <v>0</v>
-      </c>
       <c r="F17" s="3">
+        <v>0</v>
+      </c>
+      <c r="G17" s="3">
         <v>1300</v>
-      </c>
-      <c r="G17" s="3">
-        <v>100</v>
       </c>
       <c r="H17" s="3">
         <v>100</v>
@@ -1391,10 +1417,10 @@
         <v>100</v>
       </c>
       <c r="J17" s="3">
+        <v>100</v>
+      </c>
+      <c r="K17" s="3">
         <v>300</v>
-      </c>
-      <c r="K17" s="3">
-        <v>100</v>
       </c>
       <c r="L17" s="3">
         <v>100</v>
@@ -1409,7 +1435,7 @@
         <v>100</v>
       </c>
       <c r="P17" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Q17" s="3">
         <v>0</v>
@@ -1444,8 +1470,11 @@
       <c r="AA17" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB17" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1453,13 +1482,13 @@
         <v>4</v>
       </c>
       <c r="E18" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="F18" s="3">
+        <v>0</v>
+      </c>
+      <c r="G18" s="3">
         <v>-1300</v>
-      </c>
-      <c r="G18" s="3">
-        <v>-100</v>
       </c>
       <c r="H18" s="3">
         <v>-100</v>
@@ -1468,10 +1497,10 @@
         <v>-100</v>
       </c>
       <c r="J18" s="3">
+        <v>-100</v>
+      </c>
+      <c r="K18" s="3">
         <v>-300</v>
-      </c>
-      <c r="K18" s="3">
-        <v>-100</v>
       </c>
       <c r="L18" s="3">
         <v>-100</v>
@@ -1486,7 +1515,7 @@
         <v>-100</v>
       </c>
       <c r="P18" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="Q18" s="3">
         <v>0</v>
@@ -1521,8 +1550,11 @@
       <c r="AA18" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB18" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1550,8 +1582,9 @@
       <c r="Y19" s="3"/>
       <c r="Z19" s="3"/>
       <c r="AA19" s="3"/>
-    </row>
-    <row r="20" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB19" s="3"/>
+    </row>
+    <row r="20" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1627,8 +1660,11 @@
       <c r="AA20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1671,11 +1707,11 @@
       <c r="P21" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Q21" s="3">
-        <v>0</v>
-      </c>
-      <c r="R21" s="3" t="s">
-        <v>4</v>
+      <c r="Q21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R21" s="3">
+        <v>0</v>
       </c>
       <c r="S21" s="3" t="s">
         <v>4</v>
@@ -1704,8 +1740,11 @@
       <c r="AA21" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="22" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB21" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1781,22 +1820,25 @@
       <c r="AA22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>0</v>
+      </c>
+      <c r="E23" s="3">
         <v>-100</v>
       </c>
-      <c r="E23" s="3">
-        <v>0</v>
-      </c>
       <c r="F23" s="3">
+        <v>0</v>
+      </c>
+      <c r="G23" s="3">
         <v>-1300</v>
-      </c>
-      <c r="G23" s="3">
-        <v>-100</v>
       </c>
       <c r="H23" s="3">
         <v>-100</v>
@@ -1805,10 +1847,10 @@
         <v>-100</v>
       </c>
       <c r="J23" s="3">
+        <v>-100</v>
+      </c>
+      <c r="K23" s="3">
         <v>-300</v>
-      </c>
-      <c r="K23" s="3">
-        <v>-100</v>
       </c>
       <c r="L23" s="3">
         <v>-100</v>
@@ -1823,7 +1865,7 @@
         <v>-100</v>
       </c>
       <c r="P23" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="Q23" s="3">
         <v>0</v>
@@ -1858,8 +1900,11 @@
       <c r="AA23" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB23" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1935,8 +1980,11 @@
       <c r="AA24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2012,22 +2060,25 @@
       <c r="AA25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>0</v>
+      </c>
+      <c r="E26" s="3">
         <v>-100</v>
       </c>
-      <c r="E26" s="3">
-        <v>0</v>
-      </c>
       <c r="F26" s="3">
+        <v>0</v>
+      </c>
+      <c r="G26" s="3">
         <v>-1300</v>
-      </c>
-      <c r="G26" s="3">
-        <v>-100</v>
       </c>
       <c r="H26" s="3">
         <v>-100</v>
@@ -2036,10 +2087,10 @@
         <v>-100</v>
       </c>
       <c r="J26" s="3">
+        <v>-100</v>
+      </c>
+      <c r="K26" s="3">
         <v>-300</v>
-      </c>
-      <c r="K26" s="3">
-        <v>-100</v>
       </c>
       <c r="L26" s="3">
         <v>-100</v>
@@ -2054,7 +2105,7 @@
         <v>-100</v>
       </c>
       <c r="P26" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="Q26" s="3">
         <v>0</v>
@@ -2089,34 +2140,37 @@
       <c r="AA26" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB26" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>0</v>
+      </c>
+      <c r="E27" s="3">
         <v>-100</v>
       </c>
-      <c r="E27" s="3">
-        <v>0</v>
-      </c>
       <c r="F27" s="3">
+        <v>0</v>
+      </c>
+      <c r="G27" s="3">
         <v>-1300</v>
-      </c>
-      <c r="G27" s="3">
-        <v>-100</v>
       </c>
       <c r="H27" s="3">
         <v>-100</v>
       </c>
       <c r="I27" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="J27" s="3">
+        <v>0</v>
+      </c>
+      <c r="K27" s="3">
         <v>-300</v>
-      </c>
-      <c r="K27" s="3">
-        <v>-100</v>
       </c>
       <c r="L27" s="3">
         <v>-100</v>
@@ -2131,7 +2185,7 @@
         <v>-100</v>
       </c>
       <c r="P27" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="Q27" s="3">
         <v>0</v>
@@ -2166,8 +2220,11 @@
       <c r="AA27" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB27" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2243,8 +2300,11 @@
       <c r="AA28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2320,8 +2380,11 @@
       <c r="AA29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2397,8 +2460,11 @@
       <c r="AA30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2474,8 +2540,11 @@
       <c r="AA31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -2551,34 +2620,37 @@
       <c r="AA32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>0</v>
+      </c>
+      <c r="E33" s="3">
         <v>-100</v>
       </c>
-      <c r="E33" s="3">
-        <v>0</v>
-      </c>
       <c r="F33" s="3">
+        <v>0</v>
+      </c>
+      <c r="G33" s="3">
         <v>-1300</v>
-      </c>
-      <c r="G33" s="3">
-        <v>-100</v>
       </c>
       <c r="H33" s="3">
         <v>-100</v>
       </c>
       <c r="I33" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="J33" s="3">
+        <v>0</v>
+      </c>
+      <c r="K33" s="3">
         <v>-300</v>
-      </c>
-      <c r="K33" s="3">
-        <v>-100</v>
       </c>
       <c r="L33" s="3">
         <v>-100</v>
@@ -2593,7 +2665,7 @@
         <v>-100</v>
       </c>
       <c r="P33" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="Q33" s="3">
         <v>0</v>
@@ -2628,8 +2700,11 @@
       <c r="AA33" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB33" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2705,34 +2780,37 @@
       <c r="AA34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>0</v>
+      </c>
+      <c r="E35" s="3">
         <v>-100</v>
       </c>
-      <c r="E35" s="3">
-        <v>0</v>
-      </c>
       <c r="F35" s="3">
+        <v>0</v>
+      </c>
+      <c r="G35" s="3">
         <v>-1300</v>
-      </c>
-      <c r="G35" s="3">
-        <v>-100</v>
       </c>
       <c r="H35" s="3">
         <v>-100</v>
       </c>
       <c r="I35" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="J35" s="3">
+        <v>0</v>
+      </c>
+      <c r="K35" s="3">
         <v>-300</v>
-      </c>
-      <c r="K35" s="3">
-        <v>-100</v>
       </c>
       <c r="L35" s="3">
         <v>-100</v>
@@ -2747,7 +2825,7 @@
         <v>-100</v>
       </c>
       <c r="P35" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="Q35" s="3">
         <v>0</v>
@@ -2782,90 +2860,96 @@
       <c r="AA35" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="37" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB35" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45046</v>
+      </c>
+      <c r="E38" s="2">
         <v>44957</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44865</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44773</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44681</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44592</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44500</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44408</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44316</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44227</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44135</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>44043</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43951</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43861</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43769</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43677</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43585</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43496</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43404</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43312</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43220</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>42947</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>42855</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>42766</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AB38" s="2">
         <v>42674</v>
       </c>
     </row>
-    <row r="39" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2893,8 +2977,9 @@
       <c r="Y39" s="3"/>
       <c r="Z39" s="3"/>
       <c r="AA39" s="3"/>
-    </row>
-    <row r="40" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB39" s="3"/>
+    </row>
+    <row r="40" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2922,8 +3007,9 @@
       <c r="Y40" s="3"/>
       <c r="Z40" s="3"/>
       <c r="AA40" s="3"/>
-    </row>
-    <row r="41" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB40" s="3"/>
+    </row>
+    <row r="41" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
@@ -2943,25 +3029,25 @@
         <v>0</v>
       </c>
       <c r="I41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J41" s="3">
         <v>100</v>
       </c>
       <c r="K41" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L41" s="3">
+        <v>0</v>
+      </c>
+      <c r="M41" s="3">
         <v>100</v>
       </c>
-      <c r="M41" s="3">
-        <v>0</v>
-      </c>
       <c r="N41" s="3">
         <v>0</v>
       </c>
-      <c r="O41" s="3" t="s">
-        <v>4</v>
+      <c r="O41" s="3">
+        <v>0</v>
       </c>
       <c r="P41" s="3" t="s">
         <v>4</v>
@@ -2978,8 +3064,8 @@
       <c r="T41" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="U41" s="3">
-        <v>0</v>
+      <c r="U41" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="V41" s="3">
         <v>0</v>
@@ -2999,8 +3085,11 @@
       <c r="AA41" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -3076,8 +3165,11 @@
       <c r="AA42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -3153,8 +3245,11 @@
       <c r="AA43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -3230,8 +3325,11 @@
       <c r="AA44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -3289,14 +3387,14 @@
       <c r="U45" s="3">
         <v>0</v>
       </c>
-      <c r="V45" s="3" t="s">
-        <v>4</v>
+      <c r="V45" s="3">
+        <v>0</v>
       </c>
       <c r="W45" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="X45" s="3">
-        <v>0</v>
+      <c r="X45" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Y45" s="3">
         <v>0</v>
@@ -3307,8 +3405,11 @@
       <c r="AA45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -3328,20 +3429,20 @@
         <v>0</v>
       </c>
       <c r="I46" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J46" s="3">
         <v>100</v>
       </c>
       <c r="K46" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L46" s="3">
+        <v>0</v>
+      </c>
+      <c r="M46" s="3">
         <v>100</v>
       </c>
-      <c r="M46" s="3">
-        <v>0</v>
-      </c>
       <c r="N46" s="3">
         <v>0</v>
       </c>
@@ -3366,14 +3467,14 @@
       <c r="U46" s="3">
         <v>0</v>
       </c>
-      <c r="V46" s="3" t="s">
-        <v>4</v>
+      <c r="V46" s="3">
+        <v>0</v>
       </c>
       <c r="W46" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="X46" s="3">
-        <v>0</v>
+      <c r="X46" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Y46" s="3">
         <v>0</v>
@@ -3384,8 +3485,11 @@
       <c r="AA46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3461,8 +3565,11 @@
       <c r="AA47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -3472,38 +3579,38 @@
       <c r="E48" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F48" s="3">
-        <v>0</v>
+      <c r="F48" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="G48" s="3">
         <v>0</v>
       </c>
-      <c r="H48" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I48" s="3">
+      <c r="H48" s="3">
+        <v>0</v>
+      </c>
+      <c r="I48" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J48" s="3">
         <v>500</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>300</v>
       </c>
-      <c r="K48" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="L48" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M48" s="3">
+      <c r="M48" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N48" s="3">
         <v>1400</v>
       </c>
-      <c r="N48" s="3">
-        <v>0</v>
-      </c>
-      <c r="O48" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="P48" s="3">
-        <v>1400</v>
+      <c r="O48" s="3">
+        <v>0</v>
+      </c>
+      <c r="P48" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Q48" s="3">
         <v>1400</v>
@@ -3511,23 +3618,23 @@
       <c r="R48" s="3">
         <v>1400</v>
       </c>
-      <c r="S48" s="3" t="s">
-        <v>4</v>
+      <c r="S48" s="3">
+        <v>1400</v>
       </c>
       <c r="T48" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="U48" s="3">
-        <v>0</v>
-      </c>
-      <c r="V48" s="3" t="s">
-        <v>4</v>
+      <c r="U48" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="V48" s="3">
+        <v>0</v>
       </c>
       <c r="W48" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="X48" s="3">
-        <v>0</v>
+      <c r="X48" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Y48" s="3">
         <v>0</v>
@@ -3538,8 +3645,11 @@
       <c r="AA48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3547,40 +3657,40 @@
         <v>500</v>
       </c>
       <c r="E49" s="3">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="F49" s="3">
         <v>400</v>
       </c>
       <c r="G49" s="3">
-        <v>1800</v>
+        <v>400</v>
       </c>
       <c r="H49" s="3">
         <v>1800</v>
       </c>
       <c r="I49" s="3">
+        <v>1800</v>
+      </c>
+      <c r="J49" s="3">
         <v>1600</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>1400</v>
-      </c>
-      <c r="K49" s="3">
-        <v>1700</v>
       </c>
       <c r="L49" s="3">
         <v>1700</v>
       </c>
-      <c r="M49" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="N49" s="3">
-        <v>1400</v>
+      <c r="M49" s="3">
+        <v>1700</v>
+      </c>
+      <c r="N49" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="O49" s="3">
         <v>1400</v>
       </c>
-      <c r="P49" s="3" t="s">
-        <v>4</v>
+      <c r="P49" s="3">
+        <v>1400</v>
       </c>
       <c r="Q49" s="3" t="s">
         <v>4</v>
@@ -3588,12 +3698,12 @@
       <c r="R49" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="S49" s="3">
+      <c r="S49" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="T49" s="3">
         <v>1400</v>
       </c>
-      <c r="T49" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="U49" s="3" t="s">
         <v>4</v>
       </c>
@@ -3603,8 +3713,8 @@
       <c r="W49" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="X49" s="3">
-        <v>0</v>
+      <c r="X49" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Y49" s="3">
         <v>0</v>
@@ -3615,8 +3725,11 @@
       <c r="AA49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3692,8 +3805,11 @@
       <c r="AA50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3769,8 +3885,11 @@
       <c r="AA51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -3783,11 +3902,11 @@
       <c r="F52" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G52" s="3">
-        <v>0</v>
-      </c>
-      <c r="H52" s="3" t="s">
-        <v>4</v>
+      <c r="G52" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H52" s="3">
+        <v>0</v>
       </c>
       <c r="I52" s="3" t="s">
         <v>4</v>
@@ -3804,8 +3923,8 @@
       <c r="M52" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N52" s="3">
-        <v>0</v>
+      <c r="N52" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="O52" s="3">
         <v>0</v>
@@ -3846,8 +3965,11 @@
       <c r="AA52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3923,8 +4045,11 @@
       <c r="AA53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
@@ -3932,31 +4057,31 @@
         <v>500</v>
       </c>
       <c r="E54" s="3">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="F54" s="3">
         <v>400</v>
       </c>
       <c r="G54" s="3">
-        <v>1800</v>
+        <v>400</v>
       </c>
       <c r="H54" s="3">
         <v>1800</v>
       </c>
       <c r="I54" s="3">
+        <v>1800</v>
+      </c>
+      <c r="J54" s="3">
         <v>2200</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>1800</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>1700</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>1800</v>
-      </c>
-      <c r="M54" s="3">
-        <v>1400</v>
       </c>
       <c r="N54" s="3">
         <v>1400</v>
@@ -3977,19 +4102,19 @@
         <v>1400</v>
       </c>
       <c r="T54" s="3">
-        <v>0</v>
+        <v>1400</v>
       </c>
       <c r="U54" s="3">
         <v>0</v>
       </c>
-      <c r="V54" s="3" t="s">
-        <v>4</v>
+      <c r="V54" s="3">
+        <v>0</v>
       </c>
       <c r="W54" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="X54" s="3">
-        <v>0</v>
+      <c r="X54" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Y54" s="3">
         <v>0</v>
@@ -4000,8 +4125,11 @@
       <c r="AA54" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="55" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB54" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4029,8 +4157,9 @@
       <c r="Y55" s="3"/>
       <c r="Z55" s="3"/>
       <c r="AA55" s="3"/>
-    </row>
-    <row r="56" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB55" s="3"/>
+    </row>
+    <row r="56" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4058,8 +4187,9 @@
       <c r="Y56" s="3"/>
       <c r="Z56" s="3"/>
       <c r="AA56" s="3"/>
-    </row>
-    <row r="57" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB56" s="3"/>
+    </row>
+    <row r="57" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -4073,25 +4203,25 @@
         <v>100</v>
       </c>
       <c r="G57" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="H57" s="3">
         <v>200</v>
       </c>
       <c r="I57" s="3">
+        <v>200</v>
+      </c>
+      <c r="J57" s="3">
         <v>300</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>200</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>100</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>200</v>
-      </c>
-      <c r="M57" s="3">
-        <v>100</v>
       </c>
       <c r="N57" s="3">
         <v>100</v>
@@ -4117,14 +4247,14 @@
       <c r="U57" s="3">
         <v>100</v>
       </c>
-      <c r="V57" s="3" t="s">
-        <v>4</v>
+      <c r="V57" s="3">
+        <v>100</v>
       </c>
       <c r="W57" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="X57" s="3">
-        <v>100</v>
+      <c r="X57" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Y57" s="3">
         <v>100</v>
@@ -4135,52 +4265,55 @@
       <c r="AA57" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="58" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB57" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="58" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="D58" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E58" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F58" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G58" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H58" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I58" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J58" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K58" s="3">
+      <c r="D58" s="3">
+        <v>0</v>
+      </c>
+      <c r="E58" s="3">
+        <v>0</v>
+      </c>
+      <c r="F58" s="3">
+        <v>0</v>
+      </c>
+      <c r="G58" s="3">
+        <v>0</v>
+      </c>
+      <c r="H58" s="3">
+        <v>0</v>
+      </c>
+      <c r="I58" s="3">
+        <v>0</v>
+      </c>
+      <c r="J58" s="3">
+        <v>0</v>
+      </c>
+      <c r="K58" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L58" s="3">
         <v>800</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>600</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>400</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>300</v>
-      </c>
-      <c r="O58" s="3">
-        <v>200</v>
       </c>
       <c r="P58" s="3">
         <v>200</v>
       </c>
       <c r="Q58" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="R58" s="3">
         <v>100</v>
@@ -4194,14 +4327,14 @@
       <c r="U58" s="3">
         <v>100</v>
       </c>
-      <c r="V58" s="3" t="s">
-        <v>4</v>
+      <c r="V58" s="3">
+        <v>100</v>
       </c>
       <c r="W58" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="X58" s="3">
-        <v>100</v>
+      <c r="X58" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Y58" s="3">
         <v>100</v>
@@ -4212,34 +4345,37 @@
       <c r="AA58" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="59" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB58" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="59" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="D59" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E59" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F59" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G59" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H59" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I59" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J59" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K59" s="3">
-        <v>0</v>
+      <c r="D59" s="3">
+        <v>0</v>
+      </c>
+      <c r="E59" s="3">
+        <v>0</v>
+      </c>
+      <c r="F59" s="3">
+        <v>0</v>
+      </c>
+      <c r="G59" s="3">
+        <v>0</v>
+      </c>
+      <c r="H59" s="3">
+        <v>0</v>
+      </c>
+      <c r="I59" s="3">
+        <v>0</v>
+      </c>
+      <c r="J59" s="3">
+        <v>0</v>
+      </c>
+      <c r="K59" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="L59" s="3">
         <v>0</v>
@@ -4289,8 +4425,11 @@
       <c r="AA59" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB59" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -4304,37 +4443,37 @@
         <v>100</v>
       </c>
       <c r="G60" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="H60" s="3">
         <v>200</v>
       </c>
       <c r="I60" s="3">
+        <v>200</v>
+      </c>
+      <c r="J60" s="3">
         <v>300</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>200</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>900</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>800</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>500</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>100</v>
-      </c>
-      <c r="O60" s="3">
-        <v>300</v>
       </c>
       <c r="P60" s="3">
         <v>300</v>
       </c>
       <c r="Q60" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="R60" s="3">
         <v>200</v>
@@ -4348,14 +4487,14 @@
       <c r="U60" s="3">
         <v>200</v>
       </c>
-      <c r="V60" s="3" t="s">
-        <v>4</v>
+      <c r="V60" s="3">
+        <v>200</v>
       </c>
       <c r="W60" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="X60" s="3">
-        <v>200</v>
+      <c r="X60" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Y60" s="3">
         <v>200</v>
@@ -4366,8 +4505,11 @@
       <c r="AA60" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="61" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB60" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="61" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -4375,38 +4517,38 @@
         <v>200</v>
       </c>
       <c r="E61" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="F61" s="3">
         <v>100</v>
       </c>
       <c r="G61" s="3">
+        <v>100</v>
+      </c>
+      <c r="H61" s="3">
         <v>200</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>400</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>600</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>500</v>
       </c>
-      <c r="K61" s="3">
-        <v>0</v>
-      </c>
       <c r="L61" s="3">
+        <v>0</v>
+      </c>
+      <c r="M61" s="3">
         <v>100</v>
       </c>
-      <c r="M61" s="3">
-        <v>0</v>
-      </c>
       <c r="N61" s="3">
+        <v>0</v>
+      </c>
+      <c r="O61" s="3">
         <v>300</v>
       </c>
-      <c r="O61" s="3">
-        <v>0</v>
-      </c>
       <c r="P61" s="3">
         <v>0</v>
       </c>
@@ -4443,8 +4585,11 @@
       <c r="AA61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -4466,11 +4611,11 @@
       <c r="I62" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="J62" s="3">
-        <v>0</v>
-      </c>
-      <c r="K62" s="3" t="s">
-        <v>4</v>
+      <c r="J62" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K62" s="3">
+        <v>0</v>
       </c>
       <c r="L62" s="3" t="s">
         <v>4</v>
@@ -4481,23 +4626,23 @@
       <c r="N62" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="O62" s="3">
-        <v>0</v>
-      </c>
-      <c r="P62" s="3" t="s">
-        <v>4</v>
+      <c r="O62" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P62" s="3">
+        <v>0</v>
       </c>
       <c r="Q62" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="R62" s="3">
-        <v>0</v>
+      <c r="R62" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="S62" s="3">
         <v>0</v>
       </c>
-      <c r="T62" s="3" t="s">
-        <v>4</v>
+      <c r="T62" s="3">
+        <v>0</v>
       </c>
       <c r="U62" s="3" t="s">
         <v>4</v>
@@ -4508,8 +4653,8 @@
       <c r="W62" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="X62" s="3">
-        <v>0</v>
+      <c r="X62" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Y62" s="3">
         <v>0</v>
@@ -4520,8 +4665,11 @@
       <c r="AA62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4597,8 +4745,11 @@
       <c r="AA63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4674,8 +4825,11 @@
       <c r="AA64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4751,8 +4905,11 @@
       <c r="AA65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
@@ -4760,43 +4917,43 @@
         <v>300</v>
       </c>
       <c r="E66" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="F66" s="3">
         <v>200</v>
       </c>
       <c r="G66" s="3">
+        <v>200</v>
+      </c>
+      <c r="H66" s="3">
         <v>400</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>500</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>1100</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>800</v>
-      </c>
-      <c r="K66" s="3">
-        <v>900</v>
       </c>
       <c r="L66" s="3">
         <v>900</v>
       </c>
       <c r="M66" s="3">
+        <v>900</v>
+      </c>
+      <c r="N66" s="3">
         <v>500</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>400</v>
-      </c>
-      <c r="O66" s="3">
-        <v>300</v>
       </c>
       <c r="P66" s="3">
         <v>300</v>
       </c>
       <c r="Q66" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="R66" s="3">
         <v>200</v>
@@ -4810,14 +4967,14 @@
       <c r="U66" s="3">
         <v>200</v>
       </c>
-      <c r="V66" s="3" t="s">
-        <v>4</v>
+      <c r="V66" s="3">
+        <v>200</v>
       </c>
       <c r="W66" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="X66" s="3">
-        <v>200</v>
+      <c r="X66" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Y66" s="3">
         <v>200</v>
@@ -4828,8 +4985,11 @@
       <c r="AA66" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="67" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB66" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="67" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4857,8 +5017,9 @@
       <c r="Y67" s="3"/>
       <c r="Z67" s="3"/>
       <c r="AA67" s="3"/>
-    </row>
-    <row r="68" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB67" s="3"/>
+    </row>
+    <row r="68" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4934,8 +5095,11 @@
       <c r="AA68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5011,8 +5175,11 @@
       <c r="AA69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5088,8 +5255,11 @@
       <c r="AA70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5165,52 +5335,55 @@
       <c r="AA71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-10900</v>
+      </c>
+      <c r="E72" s="3">
         <v>-11000</v>
-      </c>
-      <c r="E72" s="3">
-        <v>-10900</v>
       </c>
       <c r="F72" s="3">
         <v>-10900</v>
       </c>
       <c r="G72" s="3">
+        <v>-10900</v>
+      </c>
+      <c r="H72" s="3">
         <v>-9600</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-9500</v>
-      </c>
-      <c r="I72" s="3">
-        <v>-9400</v>
       </c>
       <c r="J72" s="3">
         <v>-9400</v>
       </c>
       <c r="K72" s="3">
+        <v>-9400</v>
+      </c>
+      <c r="L72" s="3">
         <v>-9100</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-9000</v>
-      </c>
-      <c r="M72" s="3">
-        <v>-8900</v>
       </c>
       <c r="N72" s="3">
         <v>-8900</v>
       </c>
       <c r="O72" s="3">
-        <v>-8700</v>
+        <v>-8900</v>
       </c>
       <c r="P72" s="3">
         <v>-8700</v>
       </c>
       <c r="Q72" s="3">
-        <v>-8600</v>
+        <v>-8700</v>
       </c>
       <c r="R72" s="3">
         <v>-8600</v>
@@ -5224,14 +5397,14 @@
       <c r="U72" s="3">
         <v>-8600</v>
       </c>
-      <c r="V72" s="3" t="s">
-        <v>4</v>
+      <c r="V72" s="3">
+        <v>-8600</v>
       </c>
       <c r="W72" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="X72" s="3">
-        <v>-8600</v>
+      <c r="X72" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Y72" s="3">
         <v>-8600</v>
@@ -5242,8 +5415,11 @@
       <c r="AA72" s="3">
         <v>-8600</v>
       </c>
-    </row>
-    <row r="73" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB72" s="3">
+        <v>-8600</v>
+      </c>
+    </row>
+    <row r="73" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5319,8 +5495,11 @@
       <c r="AA73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5396,8 +5575,11 @@
       <c r="AA74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5473,8 +5655,11 @@
       <c r="AA75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
@@ -5488,22 +5673,22 @@
         <v>200</v>
       </c>
       <c r="G76" s="3">
+        <v>200</v>
+      </c>
+      <c r="H76" s="3">
         <v>1400</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>1300</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>1100</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>1000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>800</v>
-      </c>
-      <c r="L76" s="3">
-        <v>900</v>
       </c>
       <c r="M76" s="3">
         <v>900</v>
@@ -5512,34 +5697,34 @@
         <v>900</v>
       </c>
       <c r="O76" s="3">
+        <v>900</v>
+      </c>
+      <c r="P76" s="3">
         <v>1000</v>
-      </c>
-      <c r="P76" s="3">
-        <v>1100</v>
       </c>
       <c r="Q76" s="3">
         <v>1100</v>
       </c>
       <c r="R76" s="3">
-        <v>1200</v>
+        <v>1100</v>
       </c>
       <c r="S76" s="3">
         <v>1200</v>
       </c>
       <c r="T76" s="3">
-        <v>-200</v>
+        <v>1200</v>
       </c>
       <c r="U76" s="3">
         <v>-200</v>
       </c>
-      <c r="V76" s="3" t="s">
-        <v>4</v>
+      <c r="V76" s="3">
+        <v>-200</v>
       </c>
       <c r="W76" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="X76" s="3">
-        <v>-200</v>
+      <c r="X76" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Y76" s="3">
         <v>-200</v>
@@ -5550,8 +5735,11 @@
       <c r="AA76" s="3">
         <v>-200</v>
       </c>
-    </row>
-    <row r="77" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB76" s="3">
+        <v>-200</v>
+      </c>
+    </row>
+    <row r="77" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5627,116 +5815,122 @@
       <c r="AA77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45046</v>
+      </c>
+      <c r="E80" s="2">
         <v>44957</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44865</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44773</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44681</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44592</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44500</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44408</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44316</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44227</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44135</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>44043</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43951</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43861</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43769</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43677</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43585</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43496</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43404</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43312</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43220</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>42947</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>42855</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>42766</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AB80" s="2">
         <v>42674</v>
       </c>
     </row>
-    <row r="81" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>0</v>
+      </c>
+      <c r="E81" s="3">
         <v>-100</v>
       </c>
-      <c r="E81" s="3">
-        <v>0</v>
-      </c>
       <c r="F81" s="3">
+        <v>0</v>
+      </c>
+      <c r="G81" s="3">
         <v>-1300</v>
-      </c>
-      <c r="G81" s="3">
-        <v>-100</v>
       </c>
       <c r="H81" s="3">
         <v>-100</v>
       </c>
       <c r="I81" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="J81" s="3">
+        <v>0</v>
+      </c>
+      <c r="K81" s="3">
         <v>-300</v>
-      </c>
-      <c r="K81" s="3">
-        <v>-100</v>
       </c>
       <c r="L81" s="3">
         <v>-100</v>
@@ -5751,7 +5945,7 @@
         <v>-100</v>
       </c>
       <c r="P81" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="Q81" s="3">
         <v>0</v>
@@ -5786,8 +5980,11 @@
       <c r="AA81" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="82" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB81" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5815,8 +6012,9 @@
       <c r="Y82" s="3"/>
       <c r="Z82" s="3"/>
       <c r="AA82" s="3"/>
-    </row>
-    <row r="83" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB82" s="3"/>
+    </row>
+    <row r="83" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -5892,8 +6090,11 @@
       <c r="AA83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5969,8 +6170,11 @@
       <c r="AA84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6046,8 +6250,11 @@
       <c r="AA85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6123,8 +6330,11 @@
       <c r="AA86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -6200,8 +6410,11 @@
       <c r="AA87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6277,50 +6490,53 @@
       <c r="AA88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>0</v>
+      </c>
+      <c r="E89" s="3">
         <v>-100</v>
       </c>
-      <c r="E89" s="3">
-        <v>0</v>
-      </c>
       <c r="F89" s="3">
+        <v>0</v>
+      </c>
+      <c r="G89" s="3">
         <v>-100</v>
       </c>
-      <c r="G89" s="3">
-        <v>0</v>
-      </c>
       <c r="H89" s="3">
+        <v>0</v>
+      </c>
+      <c r="I89" s="3">
         <v>-200</v>
-      </c>
-      <c r="I89" s="3">
-        <v>100</v>
       </c>
       <c r="J89" s="3">
         <v>100</v>
       </c>
       <c r="K89" s="3">
+        <v>100</v>
+      </c>
+      <c r="L89" s="3">
         <v>-600</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>400</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-100</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>100</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-100</v>
       </c>
-      <c r="P89" s="3">
-        <v>0</v>
-      </c>
       <c r="Q89" s="3">
         <v>0</v>
       </c>
@@ -6354,8 +6570,11 @@
       <c r="AA89" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6383,17 +6602,18 @@
       <c r="Y90" s="3"/>
       <c r="Z90" s="3"/>
       <c r="AA90" s="3"/>
-    </row>
-    <row r="91" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB90" s="3"/>
+    </row>
+    <row r="91" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>0</v>
+      </c>
+      <c r="E91" s="3">
         <v>-100</v>
       </c>
-      <c r="E91" s="3">
-        <v>0</v>
-      </c>
       <c r="F91" s="3">
         <v>0</v>
       </c>
@@ -6401,16 +6621,16 @@
         <v>0</v>
       </c>
       <c r="H91" s="3">
+        <v>0</v>
+      </c>
+      <c r="I91" s="3">
         <v>-300</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-400</v>
       </c>
-      <c r="J91" s="3">
-        <v>0</v>
-      </c>
-      <c r="K91" s="3" t="s">
-        <v>4</v>
+      <c r="K91" s="3">
+        <v>0</v>
       </c>
       <c r="L91" s="3" t="s">
         <v>4</v>
@@ -6421,8 +6641,8 @@
       <c r="N91" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="O91" s="3">
-        <v>0</v>
+      <c r="O91" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="P91" s="3">
         <v>0</v>
@@ -6460,8 +6680,11 @@
       <c r="AA91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6537,8 +6760,11 @@
       <c r="AA92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6614,17 +6840,20 @@
       <c r="AA93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>0</v>
+      </c>
+      <c r="E94" s="3">
         <v>-100</v>
       </c>
-      <c r="E94" s="3">
-        <v>0</v>
-      </c>
       <c r="F94" s="3">
         <v>0</v>
       </c>
@@ -6632,44 +6861,44 @@
         <v>0</v>
       </c>
       <c r="H94" s="3">
+        <v>0</v>
+      </c>
+      <c r="I94" s="3">
         <v>300</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-400</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-500</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>500</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-300</v>
       </c>
-      <c r="M94" s="3">
-        <v>0</v>
-      </c>
       <c r="N94" s="3">
+        <v>0</v>
+      </c>
+      <c r="O94" s="3">
         <v>-100</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>100</v>
       </c>
-      <c r="P94" s="3">
-        <v>0</v>
-      </c>
       <c r="Q94" s="3">
         <v>0</v>
       </c>
       <c r="R94" s="3">
+        <v>0</v>
+      </c>
+      <c r="S94" s="3">
         <v>1300</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-1400</v>
       </c>
-      <c r="T94" s="3">
-        <v>0</v>
-      </c>
       <c r="U94" s="3">
         <v>0</v>
       </c>
@@ -6691,8 +6920,11 @@
       <c r="AA94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6720,8 +6952,9 @@
       <c r="Y95" s="3"/>
       <c r="Z95" s="3"/>
       <c r="AA95" s="3"/>
-    </row>
-    <row r="96" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB95" s="3"/>
+    </row>
+    <row r="96" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -6797,8 +7030,11 @@
       <c r="AA96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6874,8 +7110,11 @@
       <c r="AA97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6951,8 +7190,11 @@
       <c r="AA98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -7028,62 +7270,65 @@
       <c r="AA99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>0</v>
+      </c>
+      <c r="E100" s="3">
         <v>100</v>
       </c>
-      <c r="E100" s="3">
-        <v>0</v>
-      </c>
       <c r="F100" s="3">
+        <v>0</v>
+      </c>
+      <c r="G100" s="3">
         <v>100</v>
       </c>
-      <c r="G100" s="3">
-        <v>0</v>
-      </c>
       <c r="H100" s="3">
+        <v>0</v>
+      </c>
+      <c r="I100" s="3">
         <v>-200</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>300</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>500</v>
       </c>
-      <c r="K100" s="3">
-        <v>0</v>
-      </c>
       <c r="L100" s="3">
         <v>0</v>
       </c>
       <c r="M100" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="N100" s="3">
         <v>100</v>
       </c>
       <c r="O100" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="P100" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q100" s="3">
         <v>100</v>
       </c>
-      <c r="Q100" s="3">
-        <v>0</v>
-      </c>
       <c r="R100" s="3">
+        <v>0</v>
+      </c>
+      <c r="S100" s="3">
         <v>-1400</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>1400</v>
       </c>
-      <c r="T100" s="3">
-        <v>0</v>
-      </c>
       <c r="U100" s="3">
         <v>0</v>
       </c>
@@ -7105,8 +7350,11 @@
       <c r="AA100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -7182,8 +7430,11 @@
       <c r="AA101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -7200,11 +7451,11 @@
         <v>0</v>
       </c>
       <c r="H102" s="3">
+        <v>0</v>
+      </c>
+      <c r="I102" s="3">
         <v>-100</v>
       </c>
-      <c r="I102" s="3">
-        <v>0</v>
-      </c>
       <c r="J102" s="3">
         <v>0</v>
       </c>
@@ -7212,11 +7463,11 @@
         <v>0</v>
       </c>
       <c r="L102" s="3">
+        <v>0</v>
+      </c>
+      <c r="M102" s="3">
         <v>100</v>
       </c>
-      <c r="M102" s="3">
-        <v>0</v>
-      </c>
       <c r="N102" s="3">
         <v>0</v>
       </c>
@@ -7257,6 +7508,9 @@
         <v>0</v>
       </c>
       <c r="AA102" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/CYAP_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/CYAP_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="277" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="283" uniqueCount="92">
   <si>
     <t>CYAP</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AB102"/>
+  <dimension ref="A5:AC102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,119 +665,123 @@
     <col min="1" max="1" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="27" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="29" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="28" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="30" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:29" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45138</v>
+      </c>
+      <c r="E7" s="2">
         <v>45046</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44957</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44865</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44773</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44681</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44592</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44500</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44408</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44316</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44227</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>44135</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>44043</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43951</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43861</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43769</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43677</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43585</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43496</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43404</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43312</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>43220</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>42947</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>42855</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AB7" s="2">
         <v>42766</v>
       </c>
-      <c r="AB7" s="2">
+      <c r="AC7" s="2">
         <v>42674</v>
       </c>
     </row>
-    <row r="8" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -856,8 +860,11 @@
       <c r="AB8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -936,8 +943,11 @@
       <c r="AB9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -1016,8 +1026,11 @@
       <c r="AB10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -1046,8 +1059,9 @@
       <c r="Z11" s="3"/>
       <c r="AA11" s="3"/>
       <c r="AB11" s="3"/>
-    </row>
-    <row r="12" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC11" s="3"/>
+    </row>
+    <row r="12" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -1126,8 +1140,11 @@
       <c r="AB12" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1206,8 +1223,11 @@
       <c r="AB13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1274,20 +1294,23 @@
       <c r="X14" s="3">
         <v>0</v>
       </c>
-      <c r="Y14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Z14" s="3">
-        <v>0</v>
-      </c>
-      <c r="AA14" s="3" t="s">
-        <v>4</v>
+      <c r="Y14" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AA14" s="3">
+        <v>0</v>
       </c>
       <c r="AB14" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="15" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC14" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1366,8 +1389,11 @@
       <c r="AB15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:29" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1393,8 +1419,9 @@
       <c r="Z16" s="3"/>
       <c r="AA16" s="3"/>
       <c r="AB16" s="3"/>
-    </row>
-    <row r="17" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC16" s="3"/>
+    </row>
+    <row r="17" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
@@ -1402,16 +1429,16 @@
         <v>0</v>
       </c>
       <c r="E17" s="3">
+        <v>0</v>
+      </c>
+      <c r="F17" s="3">
         <v>100</v>
       </c>
-      <c r="F17" s="3">
-        <v>0</v>
-      </c>
       <c r="G17" s="3">
+        <v>0</v>
+      </c>
+      <c r="H17" s="3">
         <v>1300</v>
-      </c>
-      <c r="H17" s="3">
-        <v>100</v>
       </c>
       <c r="I17" s="3">
         <v>100</v>
@@ -1420,10 +1447,10 @@
         <v>100</v>
       </c>
       <c r="K17" s="3">
+        <v>100</v>
+      </c>
+      <c r="L17" s="3">
         <v>300</v>
-      </c>
-      <c r="L17" s="3">
-        <v>100</v>
       </c>
       <c r="M17" s="3">
         <v>100</v>
@@ -1438,7 +1465,7 @@
         <v>100</v>
       </c>
       <c r="Q17" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="R17" s="3">
         <v>0</v>
@@ -1473,8 +1500,11 @@
       <c r="AB17" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC17" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1482,16 +1512,16 @@
         <v>4</v>
       </c>
       <c r="E18" s="3">
+        <v>0</v>
+      </c>
+      <c r="F18" s="3">
         <v>-100</v>
       </c>
-      <c r="F18" s="3">
-        <v>0</v>
-      </c>
       <c r="G18" s="3">
+        <v>0</v>
+      </c>
+      <c r="H18" s="3">
         <v>-1300</v>
-      </c>
-      <c r="H18" s="3">
-        <v>-100</v>
       </c>
       <c r="I18" s="3">
         <v>-100</v>
@@ -1500,10 +1530,10 @@
         <v>-100</v>
       </c>
       <c r="K18" s="3">
+        <v>-100</v>
+      </c>
+      <c r="L18" s="3">
         <v>-300</v>
-      </c>
-      <c r="L18" s="3">
-        <v>-100</v>
       </c>
       <c r="M18" s="3">
         <v>-100</v>
@@ -1518,7 +1548,7 @@
         <v>-100</v>
       </c>
       <c r="Q18" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="R18" s="3">
         <v>0</v>
@@ -1553,8 +1583,11 @@
       <c r="AB18" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC18" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1583,8 +1616,9 @@
       <c r="Z19" s="3"/>
       <c r="AA19" s="3"/>
       <c r="AB19" s="3"/>
-    </row>
-    <row r="20" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC19" s="3"/>
+    </row>
+    <row r="20" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1663,8 +1697,11 @@
       <c r="AB20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1710,11 +1747,11 @@
       <c r="Q21" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="R21" s="3">
-        <v>0</v>
-      </c>
-      <c r="S21" s="3" t="s">
-        <v>4</v>
+      <c r="R21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S21" s="3">
+        <v>0</v>
       </c>
       <c r="T21" s="3" t="s">
         <v>4</v>
@@ -1743,31 +1780,34 @@
       <c r="AB21" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="22" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC21" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
         <v>0</v>
       </c>
-      <c r="E22" s="3">
-        <v>0</v>
-      </c>
-      <c r="F22" s="3">
-        <v>0</v>
-      </c>
-      <c r="G22" s="3">
-        <v>0</v>
-      </c>
-      <c r="H22" s="3">
-        <v>0</v>
-      </c>
-      <c r="I22" s="3">
-        <v>0</v>
-      </c>
-      <c r="J22" s="3">
-        <v>0</v>
+      <c r="E22" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F22" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G22" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H22" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I22" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J22" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K22" s="3">
         <v>0</v>
@@ -1823,25 +1863,28 @@
       <c r="AB22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E23" s="3">
+        <v>0</v>
+      </c>
+      <c r="F23" s="3">
         <v>-100</v>
       </c>
-      <c r="F23" s="3">
-        <v>0</v>
-      </c>
       <c r="G23" s="3">
+        <v>0</v>
+      </c>
+      <c r="H23" s="3">
         <v>-1300</v>
-      </c>
-      <c r="H23" s="3">
-        <v>-100</v>
       </c>
       <c r="I23" s="3">
         <v>-100</v>
@@ -1850,10 +1893,10 @@
         <v>-100</v>
       </c>
       <c r="K23" s="3">
+        <v>-100</v>
+      </c>
+      <c r="L23" s="3">
         <v>-300</v>
-      </c>
-      <c r="L23" s="3">
-        <v>-100</v>
       </c>
       <c r="M23" s="3">
         <v>-100</v>
@@ -1868,7 +1911,7 @@
         <v>-100</v>
       </c>
       <c r="Q23" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="R23" s="3">
         <v>0</v>
@@ -1903,8 +1946,11 @@
       <c r="AB23" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC23" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1983,8 +2029,11 @@
       <c r="AB24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2063,25 +2112,28 @@
       <c r="AB25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E26" s="3">
+        <v>0</v>
+      </c>
+      <c r="F26" s="3">
         <v>-100</v>
       </c>
-      <c r="F26" s="3">
-        <v>0</v>
-      </c>
       <c r="G26" s="3">
+        <v>0</v>
+      </c>
+      <c r="H26" s="3">
         <v>-1300</v>
-      </c>
-      <c r="H26" s="3">
-        <v>-100</v>
       </c>
       <c r="I26" s="3">
         <v>-100</v>
@@ -2090,10 +2142,10 @@
         <v>-100</v>
       </c>
       <c r="K26" s="3">
+        <v>-100</v>
+      </c>
+      <c r="L26" s="3">
         <v>-300</v>
-      </c>
-      <c r="L26" s="3">
-        <v>-100</v>
       </c>
       <c r="M26" s="3">
         <v>-100</v>
@@ -2108,7 +2160,7 @@
         <v>-100</v>
       </c>
       <c r="Q26" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="R26" s="3">
         <v>0</v>
@@ -2143,37 +2195,40 @@
       <c r="AB26" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC26" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E27" s="3">
+        <v>0</v>
+      </c>
+      <c r="F27" s="3">
         <v>-100</v>
       </c>
-      <c r="F27" s="3">
-        <v>0</v>
-      </c>
       <c r="G27" s="3">
+        <v>0</v>
+      </c>
+      <c r="H27" s="3">
         <v>-1300</v>
-      </c>
-      <c r="H27" s="3">
-        <v>-100</v>
       </c>
       <c r="I27" s="3">
         <v>-100</v>
       </c>
       <c r="J27" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="K27" s="3">
+        <v>0</v>
+      </c>
+      <c r="L27" s="3">
         <v>-300</v>
-      </c>
-      <c r="L27" s="3">
-        <v>-100</v>
       </c>
       <c r="M27" s="3">
         <v>-100</v>
@@ -2188,7 +2243,7 @@
         <v>-100</v>
       </c>
       <c r="Q27" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="R27" s="3">
         <v>0</v>
@@ -2223,8 +2278,11 @@
       <c r="AB27" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC27" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2303,8 +2361,11 @@
       <c r="AB28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2383,8 +2444,11 @@
       <c r="AB29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2463,8 +2527,11 @@
       <c r="AB30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2543,8 +2610,11 @@
       <c r="AB31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -2623,37 +2693,40 @@
       <c r="AB32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E33" s="3">
+        <v>0</v>
+      </c>
+      <c r="F33" s="3">
         <v>-100</v>
       </c>
-      <c r="F33" s="3">
-        <v>0</v>
-      </c>
       <c r="G33" s="3">
+        <v>0</v>
+      </c>
+      <c r="H33" s="3">
         <v>-1300</v>
-      </c>
-      <c r="H33" s="3">
-        <v>-100</v>
       </c>
       <c r="I33" s="3">
         <v>-100</v>
       </c>
       <c r="J33" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="K33" s="3">
+        <v>0</v>
+      </c>
+      <c r="L33" s="3">
         <v>-300</v>
-      </c>
-      <c r="L33" s="3">
-        <v>-100</v>
       </c>
       <c r="M33" s="3">
         <v>-100</v>
@@ -2668,7 +2741,7 @@
         <v>-100</v>
       </c>
       <c r="Q33" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="R33" s="3">
         <v>0</v>
@@ -2703,8 +2776,11 @@
       <c r="AB33" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC33" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2783,37 +2859,40 @@
       <c r="AB34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E35" s="3">
+        <v>0</v>
+      </c>
+      <c r="F35" s="3">
         <v>-100</v>
       </c>
-      <c r="F35" s="3">
-        <v>0</v>
-      </c>
       <c r="G35" s="3">
+        <v>0</v>
+      </c>
+      <c r="H35" s="3">
         <v>-1300</v>
-      </c>
-      <c r="H35" s="3">
-        <v>-100</v>
       </c>
       <c r="I35" s="3">
         <v>-100</v>
       </c>
       <c r="J35" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="K35" s="3">
+        <v>0</v>
+      </c>
+      <c r="L35" s="3">
         <v>-300</v>
-      </c>
-      <c r="L35" s="3">
-        <v>-100</v>
       </c>
       <c r="M35" s="3">
         <v>-100</v>
@@ -2828,7 +2907,7 @@
         <v>-100</v>
       </c>
       <c r="Q35" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="R35" s="3">
         <v>0</v>
@@ -2863,93 +2942,99 @@
       <c r="AB35" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="37" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC35" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45138</v>
+      </c>
+      <c r="E38" s="2">
         <v>45046</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44957</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44865</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44773</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44681</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44592</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44500</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44408</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44316</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44227</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>44135</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>44043</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43951</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43861</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43769</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43677</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43585</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43496</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43404</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43312</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>43220</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>42947</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>42855</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AB38" s="2">
         <v>42766</v>
       </c>
-      <c r="AB38" s="2">
+      <c r="AC38" s="2">
         <v>42674</v>
       </c>
     </row>
-    <row r="39" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2978,8 +3063,9 @@
       <c r="Z39" s="3"/>
       <c r="AA39" s="3"/>
       <c r="AB39" s="3"/>
-    </row>
-    <row r="40" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC39" s="3"/>
+    </row>
+    <row r="40" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -3008,8 +3094,9 @@
       <c r="Z40" s="3"/>
       <c r="AA40" s="3"/>
       <c r="AB40" s="3"/>
-    </row>
-    <row r="41" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC40" s="3"/>
+    </row>
+    <row r="41" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
@@ -3032,25 +3119,25 @@
         <v>0</v>
       </c>
       <c r="J41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K41" s="3">
         <v>100</v>
       </c>
       <c r="L41" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M41" s="3">
+        <v>0</v>
+      </c>
+      <c r="N41" s="3">
         <v>100</v>
       </c>
-      <c r="N41" s="3">
-        <v>0</v>
-      </c>
       <c r="O41" s="3">
         <v>0</v>
       </c>
-      <c r="P41" s="3" t="s">
-        <v>4</v>
+      <c r="P41" s="3">
+        <v>0</v>
       </c>
       <c r="Q41" s="3" t="s">
         <v>4</v>
@@ -3067,8 +3154,8 @@
       <c r="U41" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="V41" s="3">
-        <v>0</v>
+      <c r="V41" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="W41" s="3">
         <v>0</v>
@@ -3088,8 +3175,11 @@
       <c r="AB41" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -3168,8 +3258,11 @@
       <c r="AB42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -3248,8 +3341,11 @@
       <c r="AB43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -3328,8 +3424,11 @@
       <c r="AB44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -3390,14 +3489,14 @@
       <c r="V45" s="3">
         <v>0</v>
       </c>
-      <c r="W45" s="3" t="s">
-        <v>4</v>
+      <c r="W45" s="3">
+        <v>0</v>
       </c>
       <c r="X45" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Y45" s="3">
-        <v>0</v>
+      <c r="Y45" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Z45" s="3">
         <v>0</v>
@@ -3408,8 +3507,11 @@
       <c r="AB45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -3432,20 +3534,20 @@
         <v>0</v>
       </c>
       <c r="J46" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K46" s="3">
         <v>100</v>
       </c>
       <c r="L46" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M46" s="3">
+        <v>0</v>
+      </c>
+      <c r="N46" s="3">
         <v>100</v>
       </c>
-      <c r="N46" s="3">
-        <v>0</v>
-      </c>
       <c r="O46" s="3">
         <v>0</v>
       </c>
@@ -3470,14 +3572,14 @@
       <c r="V46" s="3">
         <v>0</v>
       </c>
-      <c r="W46" s="3" t="s">
-        <v>4</v>
+      <c r="W46" s="3">
+        <v>0</v>
       </c>
       <c r="X46" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Y46" s="3">
-        <v>0</v>
+      <c r="Y46" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Z46" s="3">
         <v>0</v>
@@ -3488,8 +3590,11 @@
       <c r="AB46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3568,8 +3673,11 @@
       <c r="AB47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -3582,38 +3690,38 @@
       <c r="F48" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G48" s="3">
-        <v>0</v>
+      <c r="G48" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="H48" s="3">
         <v>0</v>
       </c>
-      <c r="I48" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J48" s="3">
+      <c r="I48" s="3">
+        <v>0</v>
+      </c>
+      <c r="J48" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K48" s="3">
         <v>500</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>300</v>
       </c>
-      <c r="L48" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="M48" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N48" s="3">
+      <c r="N48" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O48" s="3">
         <v>1400</v>
       </c>
-      <c r="O48" s="3">
-        <v>0</v>
-      </c>
-      <c r="P48" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q48" s="3">
-        <v>1400</v>
+      <c r="P48" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q48" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="R48" s="3">
         <v>1400</v>
@@ -3621,23 +3729,23 @@
       <c r="S48" s="3">
         <v>1400</v>
       </c>
-      <c r="T48" s="3" t="s">
-        <v>4</v>
+      <c r="T48" s="3">
+        <v>1400</v>
       </c>
       <c r="U48" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="V48" s="3">
-        <v>0</v>
-      </c>
-      <c r="W48" s="3" t="s">
-        <v>4</v>
+      <c r="V48" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="W48" s="3">
+        <v>0</v>
       </c>
       <c r="X48" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Y48" s="3">
-        <v>0</v>
+      <c r="Y48" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Z48" s="3">
         <v>0</v>
@@ -3648,8 +3756,11 @@
       <c r="AB48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3660,40 +3771,40 @@
         <v>500</v>
       </c>
       <c r="F49" s="3">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="G49" s="3">
         <v>400</v>
       </c>
       <c r="H49" s="3">
-        <v>1800</v>
+        <v>400</v>
       </c>
       <c r="I49" s="3">
         <v>1800</v>
       </c>
       <c r="J49" s="3">
+        <v>1800</v>
+      </c>
+      <c r="K49" s="3">
         <v>1600</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>1400</v>
-      </c>
-      <c r="L49" s="3">
-        <v>1700</v>
       </c>
       <c r="M49" s="3">
         <v>1700</v>
       </c>
-      <c r="N49" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="O49" s="3">
-        <v>1400</v>
+      <c r="N49" s="3">
+        <v>1700</v>
+      </c>
+      <c r="O49" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="P49" s="3">
         <v>1400</v>
       </c>
-      <c r="Q49" s="3" t="s">
-        <v>4</v>
+      <c r="Q49" s="3">
+        <v>1400</v>
       </c>
       <c r="R49" s="3" t="s">
         <v>4</v>
@@ -3701,12 +3812,12 @@
       <c r="S49" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="T49" s="3">
+      <c r="T49" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="U49" s="3">
         <v>1400</v>
       </c>
-      <c r="U49" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="V49" s="3" t="s">
         <v>4</v>
       </c>
@@ -3716,8 +3827,8 @@
       <c r="X49" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Y49" s="3">
-        <v>0</v>
+      <c r="Y49" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Z49" s="3">
         <v>0</v>
@@ -3728,8 +3839,11 @@
       <c r="AB49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3808,8 +3922,11 @@
       <c r="AB50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3888,8 +4005,11 @@
       <c r="AB51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -3905,11 +4025,11 @@
       <c r="G52" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="H52" s="3">
-        <v>0</v>
-      </c>
-      <c r="I52" s="3" t="s">
-        <v>4</v>
+      <c r="H52" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I52" s="3">
+        <v>0</v>
       </c>
       <c r="J52" s="3" t="s">
         <v>4</v>
@@ -3926,8 +4046,8 @@
       <c r="N52" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="O52" s="3">
-        <v>0</v>
+      <c r="O52" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="P52" s="3">
         <v>0</v>
@@ -3968,8 +4088,11 @@
       <c r="AB52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -4048,8 +4171,11 @@
       <c r="AB53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
@@ -4060,31 +4186,31 @@
         <v>500</v>
       </c>
       <c r="F54" s="3">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="G54" s="3">
         <v>400</v>
       </c>
       <c r="H54" s="3">
-        <v>1800</v>
+        <v>400</v>
       </c>
       <c r="I54" s="3">
         <v>1800</v>
       </c>
       <c r="J54" s="3">
+        <v>1800</v>
+      </c>
+      <c r="K54" s="3">
         <v>2200</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>1800</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>1700</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>1800</v>
-      </c>
-      <c r="N54" s="3">
-        <v>1400</v>
       </c>
       <c r="O54" s="3">
         <v>1400</v>
@@ -4105,19 +4231,19 @@
         <v>1400</v>
       </c>
       <c r="U54" s="3">
-        <v>0</v>
+        <v>1400</v>
       </c>
       <c r="V54" s="3">
         <v>0</v>
       </c>
-      <c r="W54" s="3" t="s">
-        <v>4</v>
+      <c r="W54" s="3">
+        <v>0</v>
       </c>
       <c r="X54" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Y54" s="3">
-        <v>0</v>
+      <c r="Y54" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Z54" s="3">
         <v>0</v>
@@ -4128,8 +4254,11 @@
       <c r="AB54" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="55" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC54" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4158,8 +4287,9 @@
       <c r="Z55" s="3"/>
       <c r="AA55" s="3"/>
       <c r="AB55" s="3"/>
-    </row>
-    <row r="56" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC55" s="3"/>
+    </row>
+    <row r="56" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4188,13 +4318,14 @@
       <c r="Z56" s="3"/>
       <c r="AA56" s="3"/>
       <c r="AB56" s="3"/>
-    </row>
-    <row r="57" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC56" s="3"/>
+    </row>
+    <row r="57" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E57" s="3">
         <v>100</v>
@@ -4206,25 +4337,25 @@
         <v>100</v>
       </c>
       <c r="H57" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="I57" s="3">
         <v>200</v>
       </c>
       <c r="J57" s="3">
+        <v>200</v>
+      </c>
+      <c r="K57" s="3">
         <v>300</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>200</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>100</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>200</v>
-      </c>
-      <c r="N57" s="3">
-        <v>100</v>
       </c>
       <c r="O57" s="3">
         <v>100</v>
@@ -4250,14 +4381,14 @@
       <c r="V57" s="3">
         <v>100</v>
       </c>
-      <c r="W57" s="3" t="s">
-        <v>4</v>
+      <c r="W57" s="3">
+        <v>100</v>
       </c>
       <c r="X57" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Y57" s="3">
-        <v>100</v>
+      <c r="Y57" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Z57" s="3">
         <v>100</v>
@@ -4268,8 +4399,11 @@
       <c r="AB57" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="58" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC57" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="58" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -4294,29 +4428,29 @@
       <c r="J58" s="3">
         <v>0</v>
       </c>
-      <c r="K58" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="L58" s="3">
+      <c r="K58" s="3">
+        <v>0</v>
+      </c>
+      <c r="L58" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M58" s="3">
         <v>800</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>600</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>400</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>300</v>
-      </c>
-      <c r="P58" s="3">
-        <v>200</v>
       </c>
       <c r="Q58" s="3">
         <v>200</v>
       </c>
       <c r="R58" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="S58" s="3">
         <v>100</v>
@@ -4330,14 +4464,14 @@
       <c r="V58" s="3">
         <v>100</v>
       </c>
-      <c r="W58" s="3" t="s">
-        <v>4</v>
+      <c r="W58" s="3">
+        <v>100</v>
       </c>
       <c r="X58" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Y58" s="3">
-        <v>100</v>
+      <c r="Y58" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Z58" s="3">
         <v>100</v>
@@ -4348,8 +4482,11 @@
       <c r="AB58" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="59" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC58" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="59" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -4374,11 +4511,11 @@
       <c r="J59" s="3">
         <v>0</v>
       </c>
-      <c r="K59" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="L59" s="3">
-        <v>0</v>
+      <c r="K59" s="3">
+        <v>0</v>
+      </c>
+      <c r="L59" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="M59" s="3">
         <v>0</v>
@@ -4428,13 +4565,16 @@
       <c r="AB59" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC59" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E60" s="3">
         <v>100</v>
@@ -4446,37 +4586,37 @@
         <v>100</v>
       </c>
       <c r="H60" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="I60" s="3">
         <v>200</v>
       </c>
       <c r="J60" s="3">
+        <v>200</v>
+      </c>
+      <c r="K60" s="3">
         <v>300</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>200</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>900</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>800</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>500</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>100</v>
-      </c>
-      <c r="P60" s="3">
-        <v>300</v>
       </c>
       <c r="Q60" s="3">
         <v>300</v>
       </c>
       <c r="R60" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="S60" s="3">
         <v>200</v>
@@ -4490,14 +4630,14 @@
       <c r="V60" s="3">
         <v>200</v>
       </c>
-      <c r="W60" s="3" t="s">
-        <v>4</v>
+      <c r="W60" s="3">
+        <v>200</v>
       </c>
       <c r="X60" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Y60" s="3">
-        <v>200</v>
+      <c r="Y60" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Z60" s="3">
         <v>200</v>
@@ -4508,8 +4648,11 @@
       <c r="AB60" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="61" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC60" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="61" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -4520,38 +4663,38 @@
         <v>200</v>
       </c>
       <c r="F61" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="G61" s="3">
         <v>100</v>
       </c>
       <c r="H61" s="3">
+        <v>100</v>
+      </c>
+      <c r="I61" s="3">
         <v>200</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>400</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>600</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>500</v>
       </c>
-      <c r="L61" s="3">
-        <v>0</v>
-      </c>
       <c r="M61" s="3">
+        <v>0</v>
+      </c>
+      <c r="N61" s="3">
         <v>100</v>
       </c>
-      <c r="N61" s="3">
-        <v>0</v>
-      </c>
       <c r="O61" s="3">
+        <v>0</v>
+      </c>
+      <c r="P61" s="3">
         <v>300</v>
       </c>
-      <c r="P61" s="3">
-        <v>0</v>
-      </c>
       <c r="Q61" s="3">
         <v>0</v>
       </c>
@@ -4588,37 +4731,40 @@
       <c r="AB61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="D62" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E62" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F62" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G62" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H62" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I62" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J62" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K62" s="3">
-        <v>0</v>
-      </c>
-      <c r="L62" s="3" t="s">
-        <v>4</v>
+      <c r="D62" s="3">
+        <v>0</v>
+      </c>
+      <c r="E62" s="3">
+        <v>0</v>
+      </c>
+      <c r="F62" s="3">
+        <v>0</v>
+      </c>
+      <c r="G62" s="3">
+        <v>0</v>
+      </c>
+      <c r="H62" s="3">
+        <v>0</v>
+      </c>
+      <c r="I62" s="3">
+        <v>0</v>
+      </c>
+      <c r="J62" s="3">
+        <v>0</v>
+      </c>
+      <c r="K62" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L62" s="3">
+        <v>0</v>
       </c>
       <c r="M62" s="3" t="s">
         <v>4</v>
@@ -4629,23 +4775,23 @@
       <c r="O62" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="P62" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q62" s="3" t="s">
-        <v>4</v>
+      <c r="P62" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q62" s="3">
+        <v>0</v>
       </c>
       <c r="R62" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="S62" s="3">
-        <v>0</v>
+      <c r="S62" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="T62" s="3">
         <v>0</v>
       </c>
-      <c r="U62" s="3" t="s">
-        <v>4</v>
+      <c r="U62" s="3">
+        <v>0</v>
       </c>
       <c r="V62" s="3" t="s">
         <v>4</v>
@@ -4656,8 +4802,8 @@
       <c r="X62" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Y62" s="3">
-        <v>0</v>
+      <c r="Y62" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Z62" s="3">
         <v>0</v>
@@ -4668,8 +4814,11 @@
       <c r="AB62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4748,8 +4897,11 @@
       <c r="AB63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4828,8 +4980,11 @@
       <c r="AB64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4908,55 +5063,58 @@
       <c r="AB65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="E66" s="3">
         <v>300</v>
       </c>
       <c r="F66" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="G66" s="3">
         <v>200</v>
       </c>
       <c r="H66" s="3">
+        <v>200</v>
+      </c>
+      <c r="I66" s="3">
         <v>400</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>500</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>1100</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>800</v>
-      </c>
-      <c r="L66" s="3">
-        <v>900</v>
       </c>
       <c r="M66" s="3">
         <v>900</v>
       </c>
       <c r="N66" s="3">
+        <v>900</v>
+      </c>
+      <c r="O66" s="3">
         <v>500</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>400</v>
-      </c>
-      <c r="P66" s="3">
-        <v>300</v>
       </c>
       <c r="Q66" s="3">
         <v>300</v>
       </c>
       <c r="R66" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="S66" s="3">
         <v>200</v>
@@ -4970,14 +5128,14 @@
       <c r="V66" s="3">
         <v>200</v>
       </c>
-      <c r="W66" s="3" t="s">
-        <v>4</v>
+      <c r="W66" s="3">
+        <v>200</v>
       </c>
       <c r="X66" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Y66" s="3">
-        <v>200</v>
+      <c r="Y66" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Z66" s="3">
         <v>200</v>
@@ -4988,8 +5146,11 @@
       <c r="AB66" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="67" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC66" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="67" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -5018,8 +5179,9 @@
       <c r="Z67" s="3"/>
       <c r="AA67" s="3"/>
       <c r="AB67" s="3"/>
-    </row>
-    <row r="68" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC67" s="3"/>
+    </row>
+    <row r="68" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -5098,8 +5260,11 @@
       <c r="AB68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5178,8 +5343,11 @@
       <c r="AB69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5258,8 +5426,11 @@
       <c r="AB70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5338,8 +5509,11 @@
       <c r="AB71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
@@ -5347,46 +5521,46 @@
         <v>-10900</v>
       </c>
       <c r="E72" s="3">
+        <v>-10900</v>
+      </c>
+      <c r="F72" s="3">
         <v>-11000</v>
-      </c>
-      <c r="F72" s="3">
-        <v>-10900</v>
       </c>
       <c r="G72" s="3">
         <v>-10900</v>
       </c>
       <c r="H72" s="3">
+        <v>-10900</v>
+      </c>
+      <c r="I72" s="3">
         <v>-9600</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-9500</v>
-      </c>
-      <c r="J72" s="3">
-        <v>-9400</v>
       </c>
       <c r="K72" s="3">
         <v>-9400</v>
       </c>
       <c r="L72" s="3">
+        <v>-9400</v>
+      </c>
+      <c r="M72" s="3">
         <v>-9100</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-9000</v>
-      </c>
-      <c r="N72" s="3">
-        <v>-8900</v>
       </c>
       <c r="O72" s="3">
         <v>-8900</v>
       </c>
       <c r="P72" s="3">
-        <v>-8700</v>
+        <v>-8900</v>
       </c>
       <c r="Q72" s="3">
         <v>-8700</v>
       </c>
       <c r="R72" s="3">
-        <v>-8600</v>
+        <v>-8700</v>
       </c>
       <c r="S72" s="3">
         <v>-8600</v>
@@ -5400,14 +5574,14 @@
       <c r="V72" s="3">
         <v>-8600</v>
       </c>
-      <c r="W72" s="3" t="s">
-        <v>4</v>
+      <c r="W72" s="3">
+        <v>-8600</v>
       </c>
       <c r="X72" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Y72" s="3">
-        <v>-8600</v>
+      <c r="Y72" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Z72" s="3">
         <v>-8600</v>
@@ -5418,8 +5592,11 @@
       <c r="AB72" s="3">
         <v>-8600</v>
       </c>
-    </row>
-    <row r="73" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC72" s="3">
+        <v>-8600</v>
+      </c>
+    </row>
+    <row r="73" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5498,8 +5675,11 @@
       <c r="AB73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5578,8 +5758,11 @@
       <c r="AB74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5658,13 +5841,16 @@
       <c r="AB75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="E76" s="3">
         <v>200</v>
@@ -5676,22 +5862,22 @@
         <v>200</v>
       </c>
       <c r="H76" s="3">
+        <v>200</v>
+      </c>
+      <c r="I76" s="3">
         <v>1400</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>1300</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>1100</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>1000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>800</v>
-      </c>
-      <c r="M76" s="3">
-        <v>900</v>
       </c>
       <c r="N76" s="3">
         <v>900</v>
@@ -5700,34 +5886,34 @@
         <v>900</v>
       </c>
       <c r="P76" s="3">
+        <v>900</v>
+      </c>
+      <c r="Q76" s="3">
         <v>1000</v>
-      </c>
-      <c r="Q76" s="3">
-        <v>1100</v>
       </c>
       <c r="R76" s="3">
         <v>1100</v>
       </c>
       <c r="S76" s="3">
-        <v>1200</v>
+        <v>1100</v>
       </c>
       <c r="T76" s="3">
         <v>1200</v>
       </c>
       <c r="U76" s="3">
-        <v>-200</v>
+        <v>1200</v>
       </c>
       <c r="V76" s="3">
         <v>-200</v>
       </c>
-      <c r="W76" s="3" t="s">
-        <v>4</v>
+      <c r="W76" s="3">
+        <v>-200</v>
       </c>
       <c r="X76" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Y76" s="3">
-        <v>-200</v>
+      <c r="Y76" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Z76" s="3">
         <v>-200</v>
@@ -5738,8 +5924,11 @@
       <c r="AB76" s="3">
         <v>-200</v>
       </c>
-    </row>
-    <row r="77" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC76" s="3">
+        <v>-200</v>
+      </c>
+    </row>
+    <row r="77" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5818,122 +6007,128 @@
       <c r="AB77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45138</v>
+      </c>
+      <c r="E80" s="2">
         <v>45046</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44957</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44865</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44773</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44681</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44592</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44500</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44408</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44316</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44227</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>44135</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>44043</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43951</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43861</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43769</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43677</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43585</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43496</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43404</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43312</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>43220</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>42947</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>42855</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AB80" s="2">
         <v>42766</v>
       </c>
-      <c r="AB80" s="2">
+      <c r="AC80" s="2">
         <v>42674</v>
       </c>
     </row>
-    <row r="81" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E81" s="3">
+        <v>0</v>
+      </c>
+      <c r="F81" s="3">
         <v>-100</v>
       </c>
-      <c r="F81" s="3">
-        <v>0</v>
-      </c>
       <c r="G81" s="3">
+        <v>0</v>
+      </c>
+      <c r="H81" s="3">
         <v>-1300</v>
-      </c>
-      <c r="H81" s="3">
-        <v>-100</v>
       </c>
       <c r="I81" s="3">
         <v>-100</v>
       </c>
       <c r="J81" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="K81" s="3">
+        <v>0</v>
+      </c>
+      <c r="L81" s="3">
         <v>-300</v>
-      </c>
-      <c r="L81" s="3">
-        <v>-100</v>
       </c>
       <c r="M81" s="3">
         <v>-100</v>
@@ -5948,7 +6143,7 @@
         <v>-100</v>
       </c>
       <c r="Q81" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="R81" s="3">
         <v>0</v>
@@ -5983,8 +6178,11 @@
       <c r="AB81" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="82" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC81" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -6013,8 +6211,9 @@
       <c r="Z82" s="3"/>
       <c r="AA82" s="3"/>
       <c r="AB82" s="3"/>
-    </row>
-    <row r="83" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC82" s="3"/>
+    </row>
+    <row r="83" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -6093,8 +6292,11 @@
       <c r="AB83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -6173,8 +6375,11 @@
       <c r="AB84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6253,8 +6458,11 @@
       <c r="AB85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6333,8 +6541,11 @@
       <c r="AB86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -6413,8 +6624,11 @@
       <c r="AB87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6493,8 +6707,11 @@
       <c r="AB88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -6502,44 +6719,44 @@
         <v>0</v>
       </c>
       <c r="E89" s="3">
+        <v>0</v>
+      </c>
+      <c r="F89" s="3">
         <v>-100</v>
       </c>
-      <c r="F89" s="3">
-        <v>0</v>
-      </c>
       <c r="G89" s="3">
+        <v>0</v>
+      </c>
+      <c r="H89" s="3">
         <v>-100</v>
       </c>
-      <c r="H89" s="3">
-        <v>0</v>
-      </c>
       <c r="I89" s="3">
+        <v>0</v>
+      </c>
+      <c r="J89" s="3">
         <v>-200</v>
-      </c>
-      <c r="J89" s="3">
-        <v>100</v>
       </c>
       <c r="K89" s="3">
         <v>100</v>
       </c>
       <c r="L89" s="3">
+        <v>100</v>
+      </c>
+      <c r="M89" s="3">
         <v>-600</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>400</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-100</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>100</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-100</v>
       </c>
-      <c r="Q89" s="3">
-        <v>0</v>
-      </c>
       <c r="R89" s="3">
         <v>0</v>
       </c>
@@ -6573,8 +6790,11 @@
       <c r="AB89" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6603,8 +6823,9 @@
       <c r="Z90" s="3"/>
       <c r="AA90" s="3"/>
       <c r="AB90" s="3"/>
-    </row>
-    <row r="91" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC90" s="3"/>
+    </row>
+    <row r="91" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -6612,11 +6833,11 @@
         <v>0</v>
       </c>
       <c r="E91" s="3">
+        <v>0</v>
+      </c>
+      <c r="F91" s="3">
         <v>-100</v>
       </c>
-      <c r="F91" s="3">
-        <v>0</v>
-      </c>
       <c r="G91" s="3">
         <v>0</v>
       </c>
@@ -6624,16 +6845,16 @@
         <v>0</v>
       </c>
       <c r="I91" s="3">
+        <v>0</v>
+      </c>
+      <c r="J91" s="3">
         <v>-300</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-400</v>
       </c>
-      <c r="K91" s="3">
-        <v>0</v>
-      </c>
-      <c r="L91" s="3" t="s">
-        <v>4</v>
+      <c r="L91" s="3">
+        <v>0</v>
       </c>
       <c r="M91" s="3" t="s">
         <v>4</v>
@@ -6644,8 +6865,8 @@
       <c r="O91" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="P91" s="3">
-        <v>0</v>
+      <c r="P91" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Q91" s="3">
         <v>0</v>
@@ -6683,8 +6904,11 @@
       <c r="AB91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6763,8 +6987,11 @@
       <c r="AB92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6843,8 +7070,11 @@
       <c r="AB93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -6852,11 +7082,11 @@
         <v>0</v>
       </c>
       <c r="E94" s="3">
+        <v>0</v>
+      </c>
+      <c r="F94" s="3">
         <v>-100</v>
       </c>
-      <c r="F94" s="3">
-        <v>0</v>
-      </c>
       <c r="G94" s="3">
         <v>0</v>
       </c>
@@ -6864,44 +7094,44 @@
         <v>0</v>
       </c>
       <c r="I94" s="3">
+        <v>0</v>
+      </c>
+      <c r="J94" s="3">
         <v>300</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-400</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-500</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>500</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-300</v>
       </c>
-      <c r="N94" s="3">
-        <v>0</v>
-      </c>
       <c r="O94" s="3">
+        <v>0</v>
+      </c>
+      <c r="P94" s="3">
         <v>-100</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>100</v>
       </c>
-      <c r="Q94" s="3">
-        <v>0</v>
-      </c>
       <c r="R94" s="3">
         <v>0</v>
       </c>
       <c r="S94" s="3">
+        <v>0</v>
+      </c>
+      <c r="T94" s="3">
         <v>1300</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-1400</v>
       </c>
-      <c r="U94" s="3">
-        <v>0</v>
-      </c>
       <c r="V94" s="3">
         <v>0</v>
       </c>
@@ -6923,8 +7153,11 @@
       <c r="AB94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6953,8 +7186,9 @@
       <c r="Z95" s="3"/>
       <c r="AA95" s="3"/>
       <c r="AB95" s="3"/>
-    </row>
-    <row r="96" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC95" s="3"/>
+    </row>
+    <row r="96" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -7033,8 +7267,11 @@
       <c r="AB96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -7113,8 +7350,11 @@
       <c r="AB97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -7193,8 +7433,11 @@
       <c r="AB98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -7273,8 +7516,11 @@
       <c r="AB99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -7282,56 +7528,56 @@
         <v>0</v>
       </c>
       <c r="E100" s="3">
+        <v>0</v>
+      </c>
+      <c r="F100" s="3">
         <v>100</v>
       </c>
-      <c r="F100" s="3">
-        <v>0</v>
-      </c>
       <c r="G100" s="3">
+        <v>0</v>
+      </c>
+      <c r="H100" s="3">
         <v>100</v>
       </c>
-      <c r="H100" s="3">
-        <v>0</v>
-      </c>
       <c r="I100" s="3">
+        <v>0</v>
+      </c>
+      <c r="J100" s="3">
         <v>-200</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>300</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>500</v>
       </c>
-      <c r="L100" s="3">
-        <v>0</v>
-      </c>
       <c r="M100" s="3">
         <v>0</v>
       </c>
       <c r="N100" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="O100" s="3">
         <v>100</v>
       </c>
       <c r="P100" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Q100" s="3">
+        <v>0</v>
+      </c>
+      <c r="R100" s="3">
         <v>100</v>
       </c>
-      <c r="R100" s="3">
-        <v>0</v>
-      </c>
       <c r="S100" s="3">
+        <v>0</v>
+      </c>
+      <c r="T100" s="3">
         <v>-1400</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>1400</v>
       </c>
-      <c r="U100" s="3">
-        <v>0</v>
-      </c>
       <c r="V100" s="3">
         <v>0</v>
       </c>
@@ -7353,8 +7599,11 @@
       <c r="AB100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -7433,8 +7682,11 @@
       <c r="AB101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -7454,11 +7706,11 @@
         <v>0</v>
       </c>
       <c r="I102" s="3">
+        <v>0</v>
+      </c>
+      <c r="J102" s="3">
         <v>-100</v>
       </c>
-      <c r="J102" s="3">
-        <v>0</v>
-      </c>
       <c r="K102" s="3">
         <v>0</v>
       </c>
@@ -7466,11 +7718,11 @@
         <v>0</v>
       </c>
       <c r="M102" s="3">
+        <v>0</v>
+      </c>
+      <c r="N102" s="3">
         <v>100</v>
       </c>
-      <c r="N102" s="3">
-        <v>0</v>
-      </c>
       <c r="O102" s="3">
         <v>0</v>
       </c>
@@ -7511,6 +7763,9 @@
         <v>0</v>
       </c>
       <c r="AB102" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC102" s="3">
         <v>0</v>
       </c>
     </row>
